--- a/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.98883697922015</v>
+        <v>0.9888369792201507</v>
       </c>
       <c r="D2">
         <v>1.009604435071632</v>
       </c>
       <c r="E2">
-        <v>0.9970899603486468</v>
+        <v>0.9970899603486477</v>
       </c>
       <c r="F2">
-        <v>1.006720962848538</v>
+        <v>1.006720962848539</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041761091606159</v>
+        <v>1.04176109160616</v>
       </c>
       <c r="J2">
         <v>1.011356779047907</v>
       </c>
       <c r="K2">
-        <v>1.020931567057701</v>
+        <v>1.020931567057702</v>
       </c>
       <c r="L2">
-        <v>1.008589986078528</v>
+        <v>1.008589986078529</v>
       </c>
       <c r="M2">
-        <v>1.018087451412801</v>
+        <v>1.018087451412802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9974309428190117</v>
+        <v>0.9974309428190107</v>
       </c>
       <c r="D3">
         <v>1.016089802975705</v>
       </c>
       <c r="E3">
-        <v>1.005141487773248</v>
+        <v>1.005141487773247</v>
       </c>
       <c r="F3">
-        <v>1.014626322666052</v>
+        <v>1.014626322666051</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,13 +477,13 @@
         <v>1.044770937927527</v>
       </c>
       <c r="J3">
-        <v>1.017991888778783</v>
+        <v>1.017991888778782</v>
       </c>
       <c r="K3">
-        <v>1.026520869156229</v>
+        <v>1.026520869156228</v>
       </c>
       <c r="L3">
-        <v>1.015709002296217</v>
+        <v>1.015709002296216</v>
       </c>
       <c r="M3">
         <v>1.025075415900553</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002798161236087</v>
+        <v>1.002798161236086</v>
       </c>
       <c r="D4">
-        <v>1.020142210153717</v>
+        <v>1.020142210153715</v>
       </c>
       <c r="E4">
-        <v>1.010176204316231</v>
+        <v>1.01017620431623</v>
       </c>
       <c r="F4">
-        <v>1.019571100563124</v>
+        <v>1.019571100563122</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046634650066819</v>
       </c>
       <c r="J4">
-        <v>1.02213055959253</v>
+        <v>1.022130559592529</v>
       </c>
       <c r="K4">
-        <v>1.030003465669142</v>
+        <v>1.030003465669141</v>
       </c>
       <c r="L4">
-        <v>1.020153343611159</v>
+        <v>1.020153343611158</v>
       </c>
       <c r="M4">
-        <v>1.029438921317744</v>
+        <v>1.029438921317743</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005011195322462</v>
+        <v>1.005011195322463</v>
       </c>
       <c r="D5">
-        <v>1.021813462264858</v>
+        <v>1.02181346226486</v>
       </c>
       <c r="E5">
-        <v>1.012253553210851</v>
+        <v>1.012253553210852</v>
       </c>
       <c r="F5">
-        <v>1.021611649346343</v>
+        <v>1.021611649346344</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047399172228018</v>
+        <v>1.047399172228019</v>
       </c>
       <c r="J5">
-        <v>1.023835710203021</v>
+        <v>1.023835710203023</v>
       </c>
       <c r="K5">
-        <v>1.031437373754996</v>
+        <v>1.031437373754998</v>
       </c>
       <c r="L5">
-        <v>1.021985355211132</v>
+        <v>1.021985355211134</v>
       </c>
       <c r="M5">
         <v>1.031237812763536</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005380313815115</v>
+        <v>1.005380313815116</v>
       </c>
       <c r="D6">
-        <v>1.022092231538398</v>
+        <v>1.022092231538399</v>
       </c>
       <c r="E6">
-        <v>1.012600121037872</v>
+        <v>1.012600121037873</v>
       </c>
       <c r="F6">
-        <v>1.02195209478118</v>
+        <v>1.021952094781182</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1.024120037204308</v>
       </c>
       <c r="K6">
-        <v>1.031676415972129</v>
+        <v>1.03167641597213</v>
       </c>
       <c r="L6">
-        <v>1.02229089021929</v>
+        <v>1.022290890219291</v>
       </c>
       <c r="M6">
-        <v>1.031537835065607</v>
+        <v>1.031537835065608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002827898458692</v>
+        <v>1.002827898458691</v>
       </c>
       <c r="D7">
-        <v>1.020164666103486</v>
+        <v>1.020164666103485</v>
       </c>
       <c r="E7">
-        <v>1.010204112808571</v>
+        <v>1.01020411280857</v>
       </c>
       <c r="F7">
-        <v>1.019598513486479</v>
+        <v>1.019598513486478</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046644938871293</v>
+        <v>1.046644938871292</v>
       </c>
       <c r="J7">
         <v>1.022153477574977</v>
       </c>
       <c r="K7">
-        <v>1.030022741793603</v>
+        <v>1.030022741793602</v>
       </c>
       <c r="L7">
         <v>1.020177962996409</v>
       </c>
       <c r="M7">
-        <v>1.029463094863676</v>
+        <v>1.029463094863675</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9917833619824562</v>
+        <v>0.9917833619824561</v>
       </c>
       <c r="D8">
         <v>1.011827361755416</v>
       </c>
       <c r="E8">
-        <v>0.9998489861215755</v>
+        <v>0.9998489861215754</v>
       </c>
       <c r="F8">
         <v>1.009429564783444</v>
@@ -673,7 +673,7 @@
         <v>1.022849472232684</v>
       </c>
       <c r="L8">
-        <v>1.011031003374464</v>
+        <v>1.011031003374463</v>
       </c>
       <c r="M8">
         <v>1.020483303782347</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706841939719991</v>
+        <v>0.9706841939719989</v>
       </c>
       <c r="D9">
-        <v>0.9959252137080726</v>
+        <v>0.9959252137080727</v>
       </c>
       <c r="E9">
-        <v>0.9801232672253715</v>
+        <v>0.9801232672253717</v>
       </c>
       <c r="F9">
-        <v>0.9900727416310883</v>
+        <v>0.9900727416310882</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.035316582009225</v>
       </c>
       <c r="J9">
-        <v>0.9973164034789668</v>
+        <v>0.9973164034789669</v>
       </c>
       <c r="K9">
         <v>1.009084749249979</v>
       </c>
       <c r="L9">
-        <v>0.9935472784606703</v>
+        <v>0.9935472784606705</v>
       </c>
       <c r="M9">
         <v>1.003328961598767</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9552659659837728</v>
+        <v>0.955265965983772</v>
       </c>
       <c r="D10">
-        <v>0.9843352831215525</v>
+        <v>0.9843352831215521</v>
       </c>
       <c r="E10">
-        <v>0.9657555094620216</v>
+        <v>0.9657555094620207</v>
       </c>
       <c r="F10">
-        <v>0.9759871909034592</v>
+        <v>0.975987190903459</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029770130480527</v>
       </c>
       <c r="J10">
-        <v>0.9853741605521987</v>
+        <v>0.985374160552198</v>
       </c>
       <c r="K10">
-        <v>0.9989932484565663</v>
+        <v>0.9989932484565658</v>
       </c>
       <c r="L10">
-        <v>0.9807718664081677</v>
+        <v>0.9807718664081672</v>
       </c>
       <c r="M10">
-        <v>0.990803974766384</v>
+        <v>0.9908039747663836</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9481996606430165</v>
+        <v>0.948199660643015</v>
       </c>
       <c r="D11">
-        <v>0.9790343737172199</v>
+        <v>0.9790343737172185</v>
       </c>
       <c r="E11">
-        <v>0.9591840027142053</v>
+        <v>0.9591840027142035</v>
       </c>
       <c r="F11">
-        <v>0.9695490075896097</v>
+        <v>0.9695490075896079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027210759401607</v>
+        <v>1.027210759401606</v>
       </c>
       <c r="J11">
-        <v>0.9798982831189922</v>
+        <v>0.979898283118991</v>
       </c>
       <c r="K11">
-        <v>0.994362806045634</v>
+        <v>0.9943628060456324</v>
       </c>
       <c r="L11">
-        <v>0.9749190032096893</v>
+        <v>0.9749190032096876</v>
       </c>
       <c r="M11">
-        <v>0.9850689769096843</v>
+        <v>0.9850689769096829</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9455091383339064</v>
+        <v>0.9455091383339056</v>
       </c>
       <c r="D12">
-        <v>0.9770180228907511</v>
+        <v>0.9770180228907505</v>
       </c>
       <c r="E12">
-        <v>0.9566841084873943</v>
+        <v>0.9566841084873932</v>
       </c>
       <c r="F12">
-        <v>0.9671005753803533</v>
+        <v>0.967100575380353</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026233836212109</v>
+        <v>1.026233836212108</v>
       </c>
       <c r="J12">
-        <v>0.9778131182834465</v>
+        <v>0.9778131182834456</v>
       </c>
       <c r="K12">
-        <v>0.9925991758185603</v>
+        <v>0.9925991758185596</v>
       </c>
       <c r="L12">
-        <v>0.9726910412641659</v>
+        <v>0.9726910412641648</v>
       </c>
       <c r="M12">
-        <v>0.9828864364441723</v>
+        <v>0.982886436444172</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460893703224013</v>
+        <v>0.946089370322401</v>
       </c>
       <c r="D13">
-        <v>0.9774527684949911</v>
+        <v>0.977452768494991</v>
       </c>
       <c r="E13">
-        <v>0.957223125457469</v>
+        <v>0.9572231254574693</v>
       </c>
       <c r="F13">
         <v>0.9676284608937145</v>
@@ -857,13 +857,13 @@
         <v>1.026444623822734</v>
       </c>
       <c r="J13">
-        <v>0.9782628060064793</v>
+        <v>0.9782628060064792</v>
       </c>
       <c r="K13">
         <v>0.9929795378450438</v>
       </c>
       <c r="L13">
-        <v>0.9731714906560739</v>
+        <v>0.973171490656074</v>
       </c>
       <c r="M13">
         <v>0.9833570644202648</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.947978649159547</v>
+        <v>0.9479786491595475</v>
       </c>
       <c r="D14">
-        <v>0.9788686991500924</v>
+        <v>0.9788686991500927</v>
       </c>
       <c r="E14">
-        <v>0.9589786036963082</v>
+        <v>0.9589786036963083</v>
       </c>
       <c r="F14">
-        <v>0.9693478211228055</v>
+        <v>0.9693478211228052</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.027130558698704</v>
       </c>
       <c r="J14">
-        <v>0.9797270013024959</v>
+        <v>0.979727001302496</v>
       </c>
       <c r="K14">
-        <v>0.9942179436552222</v>
+        <v>0.9942179436552223</v>
       </c>
       <c r="L14">
-        <v>0.9747359763247356</v>
+        <v>0.9747359763247357</v>
       </c>
       <c r="M14">
-        <v>0.9848896696441386</v>
+        <v>0.9848896696441384</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.949133743471632</v>
+        <v>0.9491337434716312</v>
       </c>
       <c r="D15">
-        <v>0.9797346635856613</v>
+        <v>0.9797346635856606</v>
       </c>
       <c r="E15">
-        <v>0.9600521929170185</v>
+        <v>0.9600521929170173</v>
       </c>
       <c r="F15">
-        <v>0.9703994228236718</v>
+        <v>0.9703994228236709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027549622107598</v>
+        <v>1.027549622107597</v>
       </c>
       <c r="J15">
-        <v>0.9806221814652701</v>
+        <v>0.9806221814652692</v>
       </c>
       <c r="K15">
-        <v>0.9949750307330966</v>
+        <v>0.9949750307330959</v>
       </c>
       <c r="L15">
-        <v>0.9756925710432628</v>
+        <v>0.9756925710432617</v>
       </c>
       <c r="M15">
-        <v>0.9858268466923035</v>
+        <v>0.9858268466923024</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -956,13 +956,13 @@
         <v>0.955726129863555</v>
       </c>
       <c r="D16">
-        <v>0.9846807351697535</v>
+        <v>0.9846807351697536</v>
       </c>
       <c r="E16">
-        <v>0.9661837445907014</v>
+        <v>0.9661837445907013</v>
       </c>
       <c r="F16">
-        <v>0.9764068339115481</v>
+        <v>0.9764068339115479</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029936455467029</v>
       </c>
       <c r="J16">
-        <v>0.9857307154446032</v>
+        <v>0.9857307154446033</v>
       </c>
       <c r="K16">
-        <v>0.9992946947163476</v>
+        <v>0.9992946947163478</v>
       </c>
       <c r="L16">
         <v>0.9811530719111923</v>
       </c>
       <c r="M16">
-        <v>0.9911775747742869</v>
+        <v>0.9911775747742868</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9597522275738329</v>
+        <v>0.9597522275738335</v>
       </c>
       <c r="D17">
-        <v>0.9877044417500684</v>
+        <v>0.9877044417500688</v>
       </c>
       <c r="E17">
-        <v>0.9699320090925292</v>
+        <v>0.96993200909253</v>
       </c>
       <c r="F17">
-        <v>0.9800803804217352</v>
+        <v>0.9800803804217358</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031389748231424</v>
       </c>
       <c r="J17">
-        <v>0.9888500336847381</v>
+        <v>0.9888500336847388</v>
       </c>
       <c r="K17">
         <v>1.001931546849524</v>
       </c>
       <c r="L17">
-        <v>0.984488610988613</v>
+        <v>0.9844886109886135</v>
       </c>
       <c r="M17">
-        <v>0.9944469260492559</v>
+        <v>0.9944469260492567</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9620634866749955</v>
+        <v>0.9620634866749943</v>
       </c>
       <c r="D18">
-        <v>0.9894412452646792</v>
+        <v>0.9894412452646784</v>
       </c>
       <c r="E18">
-        <v>0.972085002058147</v>
+        <v>0.9720850020581453</v>
       </c>
       <c r="F18">
-        <v>0.9821908444859521</v>
+        <v>0.982190844485951</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032222405659621</v>
       </c>
       <c r="J18">
-        <v>0.9906404780948732</v>
+        <v>0.9906404780948719</v>
       </c>
       <c r="K18">
-        <v>1.003444760060207</v>
+        <v>1.003444760060206</v>
       </c>
       <c r="L18">
-        <v>0.9864036336730595</v>
+        <v>0.9864036336730582</v>
       </c>
       <c r="M18">
-        <v>0.9963242350745588</v>
+        <v>0.9963242350745579</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9628454724342356</v>
+        <v>0.9628454724342344</v>
       </c>
       <c r="D19">
-        <v>0.9900290287364975</v>
+        <v>0.9900290287364961</v>
       </c>
       <c r="E19">
-        <v>0.9728136429376532</v>
+        <v>0.9728136429376516</v>
       </c>
       <c r="F19">
-        <v>0.9829051553786492</v>
+        <v>0.9829051553786476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032503843030151</v>
+        <v>1.03250384303015</v>
       </c>
       <c r="J19">
-        <v>0.9912462032994973</v>
+        <v>0.991246203299496</v>
       </c>
       <c r="K19">
-        <v>1.003956641718553</v>
+        <v>1.003956641718552</v>
       </c>
       <c r="L19">
-        <v>0.9870515848534127</v>
+        <v>0.987051584853411</v>
       </c>
       <c r="M19">
-        <v>0.9969594721430457</v>
+        <v>0.9969594721430441</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593241502683312</v>
+        <v>0.959324150268331</v>
       </c>
       <c r="D20">
-        <v>0.9873828392850343</v>
+        <v>0.9873828392850348</v>
       </c>
       <c r="E20">
-        <v>0.9695333431646661</v>
+        <v>0.9695333431646659</v>
       </c>
       <c r="F20">
-        <v>0.979689620356284</v>
+        <v>0.9796896203562839</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03123539479003</v>
       </c>
       <c r="J20">
-        <v>0.9885183960993564</v>
+        <v>0.9885183960993563</v>
       </c>
       <c r="K20">
-        <v>1.001651234732475</v>
+        <v>1.001651234732476</v>
       </c>
       <c r="L20">
-        <v>0.9841339364241636</v>
+        <v>0.9841339364241631</v>
       </c>
       <c r="M20">
-        <v>0.9940992590042476</v>
+        <v>0.9940992590042477</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9474241834896777</v>
+        <v>0.9474241834896787</v>
       </c>
       <c r="D21">
-        <v>0.9784530940184799</v>
+        <v>0.9784530940184807</v>
       </c>
       <c r="E21">
-        <v>0.9584633426721519</v>
+        <v>0.9584633426721528</v>
       </c>
       <c r="F21">
-        <v>0.9688431399794378</v>
+        <v>0.9688431399794379</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.0269293156494</v>
       </c>
       <c r="J21">
-        <v>0.9792972930722572</v>
+        <v>0.9792972930722582</v>
       </c>
       <c r="K21">
-        <v>0.9938545098029986</v>
+        <v>0.9938545098029993</v>
       </c>
       <c r="L21">
-        <v>0.9742768144358972</v>
+        <v>0.9742768144358981</v>
       </c>
       <c r="M21">
-        <v>0.9844398484243413</v>
+        <v>0.9844398484243416</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9395570651768986</v>
+        <v>0.9395570651768981</v>
       </c>
       <c r="D22">
-        <v>0.9725615084863203</v>
+        <v>0.9725615084863198</v>
       </c>
       <c r="E22">
-        <v>0.9511581605485981</v>
+        <v>0.9511581605485975</v>
       </c>
       <c r="F22">
-        <v>0.9616898921979654</v>
+        <v>0.961689892197965</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024068372399738</v>
+        <v>1.024068372399737</v>
       </c>
       <c r="J22">
-        <v>0.9732001055770541</v>
+        <v>0.9732001055770538</v>
       </c>
       <c r="K22">
-        <v>0.9886968537230182</v>
+        <v>0.9886968537230175</v>
       </c>
       <c r="L22">
-        <v>0.9677635134424787</v>
+        <v>0.967763513442478</v>
       </c>
       <c r="M22">
-        <v>0.9780604973756167</v>
+        <v>0.9780604973756164</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9437668239162182</v>
+        <v>0.9437668239162207</v>
       </c>
       <c r="D23">
-        <v>0.9757128960602772</v>
+        <v>0.9757128960602793</v>
       </c>
       <c r="E23">
-        <v>0.9550659006131232</v>
+        <v>0.9550659006131257</v>
       </c>
       <c r="F23">
-        <v>0.9655159039910371</v>
+        <v>0.9655159039910387</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025600543998273</v>
+        <v>1.025600543998274</v>
       </c>
       <c r="J23">
-        <v>0.9764627875748463</v>
+        <v>0.9764627875748487</v>
       </c>
       <c r="K23">
-        <v>0.9914569657797017</v>
+        <v>0.9914569657797038</v>
       </c>
       <c r="L23">
-        <v>0.971248449432826</v>
+        <v>0.9712484494328283</v>
       </c>
       <c r="M23">
-        <v>0.9814734228100935</v>
+        <v>0.9814734228100952</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595176940859496</v>
+        <v>0.9595176940859476</v>
       </c>
       <c r="D24">
-        <v>0.9875282402801346</v>
+        <v>0.9875282402801325</v>
       </c>
       <c r="E24">
-        <v>0.9697135855981357</v>
+        <v>0.9697135855981337</v>
       </c>
       <c r="F24">
-        <v>0.9798662872368348</v>
+        <v>0.9798662872368333</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031305186705141</v>
+        <v>1.03130518670514</v>
       </c>
       <c r="J24">
-        <v>0.9886683380753666</v>
+        <v>0.9886683380753647</v>
       </c>
       <c r="K24">
-        <v>1.001777972076421</v>
+        <v>1.001777972076419</v>
       </c>
       <c r="L24">
-        <v>0.9842942925531815</v>
+        <v>0.9842942925531794</v>
       </c>
       <c r="M24">
-        <v>0.9942564459949639</v>
+        <v>0.9942564459949621</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763565197417754</v>
+        <v>0.9763565197417755</v>
       </c>
       <c r="D25">
         <v>1.0001962399136</v>
       </c>
       <c r="E25">
-        <v>0.9854190962583999</v>
+        <v>0.9854190962584002</v>
       </c>
       <c r="F25">
-        <v>0.9952675447409851</v>
+        <v>0.9952675447409857</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.037341548197243</v>
       </c>
       <c r="J25">
-        <v>1.001706648063821</v>
+        <v>1.001706648063822</v>
       </c>
       <c r="K25">
         <v>1.012791510273634</v>
       </c>
       <c r="L25">
-        <v>0.9982480592793316</v>
+        <v>0.9982480592793318</v>
       </c>
       <c r="M25">
         <v>1.007939772917448</v>

--- a/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9888369792201507</v>
+        <v>0.98883697922015</v>
       </c>
       <c r="D2">
         <v>1.009604435071632</v>
       </c>
       <c r="E2">
-        <v>0.9970899603486477</v>
+        <v>0.9970899603486468</v>
       </c>
       <c r="F2">
-        <v>1.006720962848539</v>
+        <v>1.006720962848538</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04176109160616</v>
+        <v>1.041761091606159</v>
       </c>
       <c r="J2">
         <v>1.011356779047907</v>
       </c>
       <c r="K2">
-        <v>1.020931567057702</v>
+        <v>1.020931567057701</v>
       </c>
       <c r="L2">
-        <v>1.008589986078529</v>
+        <v>1.008589986078528</v>
       </c>
       <c r="M2">
-        <v>1.018087451412802</v>
+        <v>1.018087451412801</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9974309428190107</v>
+        <v>0.9974309428190117</v>
       </c>
       <c r="D3">
         <v>1.016089802975705</v>
       </c>
       <c r="E3">
-        <v>1.005141487773247</v>
+        <v>1.005141487773248</v>
       </c>
       <c r="F3">
-        <v>1.014626322666051</v>
+        <v>1.014626322666052</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,13 +477,13 @@
         <v>1.044770937927527</v>
       </c>
       <c r="J3">
-        <v>1.017991888778782</v>
+        <v>1.017991888778783</v>
       </c>
       <c r="K3">
-        <v>1.026520869156228</v>
+        <v>1.026520869156229</v>
       </c>
       <c r="L3">
-        <v>1.015709002296216</v>
+        <v>1.015709002296217</v>
       </c>
       <c r="M3">
         <v>1.025075415900553</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002798161236086</v>
+        <v>1.002798161236087</v>
       </c>
       <c r="D4">
-        <v>1.020142210153715</v>
+        <v>1.020142210153717</v>
       </c>
       <c r="E4">
-        <v>1.01017620431623</v>
+        <v>1.010176204316231</v>
       </c>
       <c r="F4">
-        <v>1.019571100563122</v>
+        <v>1.019571100563124</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046634650066819</v>
       </c>
       <c r="J4">
-        <v>1.022130559592529</v>
+        <v>1.02213055959253</v>
       </c>
       <c r="K4">
-        <v>1.030003465669141</v>
+        <v>1.030003465669142</v>
       </c>
       <c r="L4">
-        <v>1.020153343611158</v>
+        <v>1.020153343611159</v>
       </c>
       <c r="M4">
-        <v>1.029438921317743</v>
+        <v>1.029438921317744</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005011195322463</v>
+        <v>1.005011195322462</v>
       </c>
       <c r="D5">
-        <v>1.02181346226486</v>
+        <v>1.021813462264858</v>
       </c>
       <c r="E5">
-        <v>1.012253553210852</v>
+        <v>1.012253553210851</v>
       </c>
       <c r="F5">
-        <v>1.021611649346344</v>
+        <v>1.021611649346343</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047399172228019</v>
+        <v>1.047399172228018</v>
       </c>
       <c r="J5">
-        <v>1.023835710203023</v>
+        <v>1.023835710203021</v>
       </c>
       <c r="K5">
-        <v>1.031437373754998</v>
+        <v>1.031437373754996</v>
       </c>
       <c r="L5">
-        <v>1.021985355211134</v>
+        <v>1.021985355211132</v>
       </c>
       <c r="M5">
         <v>1.031237812763536</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005380313815116</v>
+        <v>1.005380313815115</v>
       </c>
       <c r="D6">
-        <v>1.022092231538399</v>
+        <v>1.022092231538398</v>
       </c>
       <c r="E6">
-        <v>1.012600121037873</v>
+        <v>1.012600121037872</v>
       </c>
       <c r="F6">
-        <v>1.021952094781182</v>
+        <v>1.02195209478118</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1.024120037204308</v>
       </c>
       <c r="K6">
-        <v>1.03167641597213</v>
+        <v>1.031676415972129</v>
       </c>
       <c r="L6">
-        <v>1.022290890219291</v>
+        <v>1.02229089021929</v>
       </c>
       <c r="M6">
-        <v>1.031537835065608</v>
+        <v>1.031537835065607</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002827898458691</v>
+        <v>1.002827898458692</v>
       </c>
       <c r="D7">
-        <v>1.020164666103485</v>
+        <v>1.020164666103486</v>
       </c>
       <c r="E7">
-        <v>1.01020411280857</v>
+        <v>1.010204112808571</v>
       </c>
       <c r="F7">
-        <v>1.019598513486478</v>
+        <v>1.019598513486479</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046644938871292</v>
+        <v>1.046644938871293</v>
       </c>
       <c r="J7">
         <v>1.022153477574977</v>
       </c>
       <c r="K7">
-        <v>1.030022741793602</v>
+        <v>1.030022741793603</v>
       </c>
       <c r="L7">
         <v>1.020177962996409</v>
       </c>
       <c r="M7">
-        <v>1.029463094863675</v>
+        <v>1.029463094863676</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9917833619824561</v>
+        <v>0.9917833619824562</v>
       </c>
       <c r="D8">
         <v>1.011827361755416</v>
       </c>
       <c r="E8">
-        <v>0.9998489861215754</v>
+        <v>0.9998489861215755</v>
       </c>
       <c r="F8">
         <v>1.009429564783444</v>
@@ -673,7 +673,7 @@
         <v>1.022849472232684</v>
       </c>
       <c r="L8">
-        <v>1.011031003374463</v>
+        <v>1.011031003374464</v>
       </c>
       <c r="M8">
         <v>1.020483303782347</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706841939719989</v>
+        <v>0.9706841939719991</v>
       </c>
       <c r="D9">
-        <v>0.9959252137080727</v>
+        <v>0.9959252137080726</v>
       </c>
       <c r="E9">
-        <v>0.9801232672253717</v>
+        <v>0.9801232672253715</v>
       </c>
       <c r="F9">
-        <v>0.9900727416310882</v>
+        <v>0.9900727416310883</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.035316582009225</v>
       </c>
       <c r="J9">
-        <v>0.9973164034789669</v>
+        <v>0.9973164034789668</v>
       </c>
       <c r="K9">
         <v>1.009084749249979</v>
       </c>
       <c r="L9">
-        <v>0.9935472784606705</v>
+        <v>0.9935472784606703</v>
       </c>
       <c r="M9">
         <v>1.003328961598767</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.955265965983772</v>
+        <v>0.9552659659837728</v>
       </c>
       <c r="D10">
-        <v>0.9843352831215521</v>
+        <v>0.9843352831215525</v>
       </c>
       <c r="E10">
-        <v>0.9657555094620207</v>
+        <v>0.9657555094620216</v>
       </c>
       <c r="F10">
-        <v>0.975987190903459</v>
+        <v>0.9759871909034592</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029770130480527</v>
       </c>
       <c r="J10">
-        <v>0.985374160552198</v>
+        <v>0.9853741605521987</v>
       </c>
       <c r="K10">
-        <v>0.9989932484565658</v>
+        <v>0.9989932484565663</v>
       </c>
       <c r="L10">
-        <v>0.9807718664081672</v>
+        <v>0.9807718664081677</v>
       </c>
       <c r="M10">
-        <v>0.9908039747663836</v>
+        <v>0.990803974766384</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.948199660643015</v>
+        <v>0.9481996606430165</v>
       </c>
       <c r="D11">
-        <v>0.9790343737172185</v>
+        <v>0.9790343737172199</v>
       </c>
       <c r="E11">
-        <v>0.9591840027142035</v>
+        <v>0.9591840027142053</v>
       </c>
       <c r="F11">
-        <v>0.9695490075896079</v>
+        <v>0.9695490075896097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027210759401606</v>
+        <v>1.027210759401607</v>
       </c>
       <c r="J11">
-        <v>0.979898283118991</v>
+        <v>0.9798982831189922</v>
       </c>
       <c r="K11">
-        <v>0.9943628060456324</v>
+        <v>0.994362806045634</v>
       </c>
       <c r="L11">
-        <v>0.9749190032096876</v>
+        <v>0.9749190032096893</v>
       </c>
       <c r="M11">
-        <v>0.9850689769096829</v>
+        <v>0.9850689769096843</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9455091383339056</v>
+        <v>0.9455091383339064</v>
       </c>
       <c r="D12">
-        <v>0.9770180228907505</v>
+        <v>0.9770180228907511</v>
       </c>
       <c r="E12">
-        <v>0.9566841084873932</v>
+        <v>0.9566841084873943</v>
       </c>
       <c r="F12">
-        <v>0.967100575380353</v>
+        <v>0.9671005753803533</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026233836212108</v>
+        <v>1.026233836212109</v>
       </c>
       <c r="J12">
-        <v>0.9778131182834456</v>
+        <v>0.9778131182834465</v>
       </c>
       <c r="K12">
-        <v>0.9925991758185596</v>
+        <v>0.9925991758185603</v>
       </c>
       <c r="L12">
-        <v>0.9726910412641648</v>
+        <v>0.9726910412641659</v>
       </c>
       <c r="M12">
-        <v>0.982886436444172</v>
+        <v>0.9828864364441723</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.946089370322401</v>
+        <v>0.9460893703224013</v>
       </c>
       <c r="D13">
-        <v>0.977452768494991</v>
+        <v>0.9774527684949911</v>
       </c>
       <c r="E13">
-        <v>0.9572231254574693</v>
+        <v>0.957223125457469</v>
       </c>
       <c r="F13">
         <v>0.9676284608937145</v>
@@ -857,13 +857,13 @@
         <v>1.026444623822734</v>
       </c>
       <c r="J13">
-        <v>0.9782628060064792</v>
+        <v>0.9782628060064793</v>
       </c>
       <c r="K13">
         <v>0.9929795378450438</v>
       </c>
       <c r="L13">
-        <v>0.973171490656074</v>
+        <v>0.9731714906560739</v>
       </c>
       <c r="M13">
         <v>0.9833570644202648</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9479786491595475</v>
+        <v>0.947978649159547</v>
       </c>
       <c r="D14">
-        <v>0.9788686991500927</v>
+        <v>0.9788686991500924</v>
       </c>
       <c r="E14">
-        <v>0.9589786036963083</v>
+        <v>0.9589786036963082</v>
       </c>
       <c r="F14">
-        <v>0.9693478211228052</v>
+        <v>0.9693478211228055</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.027130558698704</v>
       </c>
       <c r="J14">
-        <v>0.979727001302496</v>
+        <v>0.9797270013024959</v>
       </c>
       <c r="K14">
-        <v>0.9942179436552223</v>
+        <v>0.9942179436552222</v>
       </c>
       <c r="L14">
-        <v>0.9747359763247357</v>
+        <v>0.9747359763247356</v>
       </c>
       <c r="M14">
-        <v>0.9848896696441384</v>
+        <v>0.9848896696441386</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491337434716312</v>
+        <v>0.949133743471632</v>
       </c>
       <c r="D15">
-        <v>0.9797346635856606</v>
+        <v>0.9797346635856613</v>
       </c>
       <c r="E15">
-        <v>0.9600521929170173</v>
+        <v>0.9600521929170185</v>
       </c>
       <c r="F15">
-        <v>0.9703994228236709</v>
+        <v>0.9703994228236718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027549622107597</v>
+        <v>1.027549622107598</v>
       </c>
       <c r="J15">
-        <v>0.9806221814652692</v>
+        <v>0.9806221814652701</v>
       </c>
       <c r="K15">
-        <v>0.9949750307330959</v>
+        <v>0.9949750307330966</v>
       </c>
       <c r="L15">
-        <v>0.9756925710432617</v>
+        <v>0.9756925710432628</v>
       </c>
       <c r="M15">
-        <v>0.9858268466923024</v>
+        <v>0.9858268466923035</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -956,13 +956,13 @@
         <v>0.955726129863555</v>
       </c>
       <c r="D16">
-        <v>0.9846807351697536</v>
+        <v>0.9846807351697535</v>
       </c>
       <c r="E16">
-        <v>0.9661837445907013</v>
+        <v>0.9661837445907014</v>
       </c>
       <c r="F16">
-        <v>0.9764068339115479</v>
+        <v>0.9764068339115481</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029936455467029</v>
       </c>
       <c r="J16">
-        <v>0.9857307154446033</v>
+        <v>0.9857307154446032</v>
       </c>
       <c r="K16">
-        <v>0.9992946947163478</v>
+        <v>0.9992946947163476</v>
       </c>
       <c r="L16">
         <v>0.9811530719111923</v>
       </c>
       <c r="M16">
-        <v>0.9911775747742868</v>
+        <v>0.9911775747742869</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9597522275738335</v>
+        <v>0.9597522275738329</v>
       </c>
       <c r="D17">
-        <v>0.9877044417500688</v>
+        <v>0.9877044417500684</v>
       </c>
       <c r="E17">
-        <v>0.96993200909253</v>
+        <v>0.9699320090925292</v>
       </c>
       <c r="F17">
-        <v>0.9800803804217358</v>
+        <v>0.9800803804217352</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031389748231424</v>
       </c>
       <c r="J17">
-        <v>0.9888500336847388</v>
+        <v>0.9888500336847381</v>
       </c>
       <c r="K17">
         <v>1.001931546849524</v>
       </c>
       <c r="L17">
-        <v>0.9844886109886135</v>
+        <v>0.984488610988613</v>
       </c>
       <c r="M17">
-        <v>0.9944469260492567</v>
+        <v>0.9944469260492559</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9620634866749943</v>
+        <v>0.9620634866749955</v>
       </c>
       <c r="D18">
-        <v>0.9894412452646784</v>
+        <v>0.9894412452646792</v>
       </c>
       <c r="E18">
-        <v>0.9720850020581453</v>
+        <v>0.972085002058147</v>
       </c>
       <c r="F18">
-        <v>0.982190844485951</v>
+        <v>0.9821908444859521</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032222405659621</v>
       </c>
       <c r="J18">
-        <v>0.9906404780948719</v>
+        <v>0.9906404780948732</v>
       </c>
       <c r="K18">
-        <v>1.003444760060206</v>
+        <v>1.003444760060207</v>
       </c>
       <c r="L18">
-        <v>0.9864036336730582</v>
+        <v>0.9864036336730595</v>
       </c>
       <c r="M18">
-        <v>0.9963242350745579</v>
+        <v>0.9963242350745588</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9628454724342344</v>
+        <v>0.9628454724342356</v>
       </c>
       <c r="D19">
-        <v>0.9900290287364961</v>
+        <v>0.9900290287364975</v>
       </c>
       <c r="E19">
-        <v>0.9728136429376516</v>
+        <v>0.9728136429376532</v>
       </c>
       <c r="F19">
-        <v>0.9829051553786476</v>
+        <v>0.9829051553786492</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03250384303015</v>
+        <v>1.032503843030151</v>
       </c>
       <c r="J19">
-        <v>0.991246203299496</v>
+        <v>0.9912462032994973</v>
       </c>
       <c r="K19">
-        <v>1.003956641718552</v>
+        <v>1.003956641718553</v>
       </c>
       <c r="L19">
-        <v>0.987051584853411</v>
+        <v>0.9870515848534127</v>
       </c>
       <c r="M19">
-        <v>0.9969594721430441</v>
+        <v>0.9969594721430457</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.959324150268331</v>
+        <v>0.9593241502683312</v>
       </c>
       <c r="D20">
-        <v>0.9873828392850348</v>
+        <v>0.9873828392850343</v>
       </c>
       <c r="E20">
-        <v>0.9695333431646659</v>
+        <v>0.9695333431646661</v>
       </c>
       <c r="F20">
-        <v>0.9796896203562839</v>
+        <v>0.979689620356284</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03123539479003</v>
       </c>
       <c r="J20">
-        <v>0.9885183960993563</v>
+        <v>0.9885183960993564</v>
       </c>
       <c r="K20">
-        <v>1.001651234732476</v>
+        <v>1.001651234732475</v>
       </c>
       <c r="L20">
-        <v>0.9841339364241631</v>
+        <v>0.9841339364241636</v>
       </c>
       <c r="M20">
-        <v>0.9940992590042477</v>
+        <v>0.9940992590042476</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9474241834896787</v>
+        <v>0.9474241834896777</v>
       </c>
       <c r="D21">
-        <v>0.9784530940184807</v>
+        <v>0.9784530940184799</v>
       </c>
       <c r="E21">
-        <v>0.9584633426721528</v>
+        <v>0.9584633426721519</v>
       </c>
       <c r="F21">
-        <v>0.9688431399794379</v>
+        <v>0.9688431399794378</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.0269293156494</v>
       </c>
       <c r="J21">
-        <v>0.9792972930722582</v>
+        <v>0.9792972930722572</v>
       </c>
       <c r="K21">
-        <v>0.9938545098029993</v>
+        <v>0.9938545098029986</v>
       </c>
       <c r="L21">
-        <v>0.9742768144358981</v>
+        <v>0.9742768144358972</v>
       </c>
       <c r="M21">
-        <v>0.9844398484243416</v>
+        <v>0.9844398484243413</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9395570651768981</v>
+        <v>0.9395570651768986</v>
       </c>
       <c r="D22">
-        <v>0.9725615084863198</v>
+        <v>0.9725615084863203</v>
       </c>
       <c r="E22">
-        <v>0.9511581605485975</v>
+        <v>0.9511581605485981</v>
       </c>
       <c r="F22">
-        <v>0.961689892197965</v>
+        <v>0.9616898921979654</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024068372399737</v>
+        <v>1.024068372399738</v>
       </c>
       <c r="J22">
-        <v>0.9732001055770538</v>
+        <v>0.9732001055770541</v>
       </c>
       <c r="K22">
-        <v>0.9886968537230175</v>
+        <v>0.9886968537230182</v>
       </c>
       <c r="L22">
-        <v>0.967763513442478</v>
+        <v>0.9677635134424787</v>
       </c>
       <c r="M22">
-        <v>0.9780604973756164</v>
+        <v>0.9780604973756167</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9437668239162207</v>
+        <v>0.9437668239162182</v>
       </c>
       <c r="D23">
-        <v>0.9757128960602793</v>
+        <v>0.9757128960602772</v>
       </c>
       <c r="E23">
-        <v>0.9550659006131257</v>
+        <v>0.9550659006131232</v>
       </c>
       <c r="F23">
-        <v>0.9655159039910387</v>
+        <v>0.9655159039910371</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025600543998274</v>
+        <v>1.025600543998273</v>
       </c>
       <c r="J23">
-        <v>0.9764627875748487</v>
+        <v>0.9764627875748463</v>
       </c>
       <c r="K23">
-        <v>0.9914569657797038</v>
+        <v>0.9914569657797017</v>
       </c>
       <c r="L23">
-        <v>0.9712484494328283</v>
+        <v>0.971248449432826</v>
       </c>
       <c r="M23">
-        <v>0.9814734228100952</v>
+        <v>0.9814734228100935</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595176940859476</v>
+        <v>0.9595176940859496</v>
       </c>
       <c r="D24">
-        <v>0.9875282402801325</v>
+        <v>0.9875282402801346</v>
       </c>
       <c r="E24">
-        <v>0.9697135855981337</v>
+        <v>0.9697135855981357</v>
       </c>
       <c r="F24">
-        <v>0.9798662872368333</v>
+        <v>0.9798662872368348</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03130518670514</v>
+        <v>1.031305186705141</v>
       </c>
       <c r="J24">
-        <v>0.9886683380753647</v>
+        <v>0.9886683380753666</v>
       </c>
       <c r="K24">
-        <v>1.001777972076419</v>
+        <v>1.001777972076421</v>
       </c>
       <c r="L24">
-        <v>0.9842942925531794</v>
+        <v>0.9842942925531815</v>
       </c>
       <c r="M24">
-        <v>0.9942564459949621</v>
+        <v>0.9942564459949639</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763565197417755</v>
+        <v>0.9763565197417754</v>
       </c>
       <c r="D25">
         <v>1.0001962399136</v>
       </c>
       <c r="E25">
-        <v>0.9854190962584002</v>
+        <v>0.9854190962583999</v>
       </c>
       <c r="F25">
-        <v>0.9952675447409857</v>
+        <v>0.9952675447409851</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.037341548197243</v>
       </c>
       <c r="J25">
-        <v>1.001706648063822</v>
+        <v>1.001706648063821</v>
       </c>
       <c r="K25">
         <v>1.012791510273634</v>
       </c>
       <c r="L25">
-        <v>0.9982480592793318</v>
+        <v>0.9982480592793316</v>
       </c>
       <c r="M25">
         <v>1.007939772917448</v>

--- a/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.98883697922015</v>
+        <v>0.9888610434050037</v>
       </c>
       <c r="D2">
-        <v>1.009604435071632</v>
+        <v>1.009624312294013</v>
       </c>
       <c r="E2">
-        <v>0.9970899603486468</v>
+        <v>0.9971138530926984</v>
       </c>
       <c r="F2">
-        <v>1.006720962848538</v>
+        <v>1.006741337412589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041761091606159</v>
+        <v>1.041771732496647</v>
       </c>
       <c r="J2">
-        <v>1.011356779047907</v>
+        <v>1.011380100891073</v>
       </c>
       <c r="K2">
-        <v>1.020931567057701</v>
+        <v>1.020951173957284</v>
       </c>
       <c r="L2">
-        <v>1.008589986078528</v>
+        <v>1.008613543510468</v>
       </c>
       <c r="M2">
-        <v>1.018087451412801</v>
+        <v>1.018107546887879</v>
+      </c>
+      <c r="N2">
+        <v>1.008013072854164</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9974309428190117</v>
+        <v>0.9974478264044755</v>
       </c>
       <c r="D3">
-        <v>1.016089802975705</v>
+        <v>1.016104020261377</v>
       </c>
       <c r="E3">
-        <v>1.005141487773248</v>
+        <v>1.00515827341351</v>
       </c>
       <c r="F3">
-        <v>1.014626322666052</v>
+        <v>1.014640751548099</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044770937927527</v>
+        <v>1.044778552675512</v>
       </c>
       <c r="J3">
-        <v>1.017991888778783</v>
+        <v>1.018008308874325</v>
       </c>
       <c r="K3">
-        <v>1.026520869156229</v>
+        <v>1.026534911631175</v>
       </c>
       <c r="L3">
-        <v>1.015709002296217</v>
+        <v>1.015725575899</v>
       </c>
       <c r="M3">
-        <v>1.025075415900553</v>
+        <v>1.025089666732666</v>
+      </c>
+      <c r="N3">
+        <v>1.012749257738764</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002798161236087</v>
+        <v>1.002810669887079</v>
       </c>
       <c r="D4">
-        <v>1.020142210153717</v>
+        <v>1.020152972447938</v>
       </c>
       <c r="E4">
-        <v>1.010176204316231</v>
+        <v>1.010188650246552</v>
       </c>
       <c r="F4">
-        <v>1.019571100563124</v>
+        <v>1.019581911275484</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046634650066819</v>
+        <v>1.04664041470533</v>
       </c>
       <c r="J4">
-        <v>1.02213055959253</v>
+        <v>1.022142750684254</v>
       </c>
       <c r="K4">
-        <v>1.030003465669142</v>
+        <v>1.030014104331612</v>
       </c>
       <c r="L4">
-        <v>1.020153343611159</v>
+        <v>1.020165643056306</v>
       </c>
       <c r="M4">
-        <v>1.029438921317744</v>
+        <v>1.029449607670306</v>
+      </c>
+      <c r="N4">
+        <v>1.01569896486623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005011195322462</v>
+        <v>1.00502192318069</v>
       </c>
       <c r="D5">
-        <v>1.021813462264858</v>
+        <v>1.021822816934696</v>
       </c>
       <c r="E5">
-        <v>1.012253553210851</v>
+        <v>1.01226423066475</v>
       </c>
       <c r="F5">
-        <v>1.021611649346343</v>
+        <v>1.021620988337533</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047399172228018</v>
+        <v>1.047404182433927</v>
       </c>
       <c r="J5">
-        <v>1.023835710203021</v>
+        <v>1.023846174710774</v>
       </c>
       <c r="K5">
-        <v>1.031437373754996</v>
+        <v>1.031446624067408</v>
       </c>
       <c r="L5">
-        <v>1.021985355211132</v>
+        <v>1.021995910759917</v>
       </c>
       <c r="M5">
-        <v>1.031237812763536</v>
+        <v>1.031247047521542</v>
+      </c>
+      <c r="N5">
+        <v>1.016913144768638</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005380313815115</v>
+        <v>1.005390745923271</v>
       </c>
       <c r="D6">
-        <v>1.022092231538398</v>
+        <v>1.0221013523648</v>
       </c>
       <c r="E6">
-        <v>1.012600121037872</v>
+        <v>1.012610504675437</v>
       </c>
       <c r="F6">
-        <v>1.02195209478118</v>
+        <v>1.021961189412664</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047526455521574</v>
+        <v>1.047531340357787</v>
       </c>
       <c r="J6">
-        <v>1.024120037204308</v>
+        <v>1.024130214674397</v>
       </c>
       <c r="K6">
-        <v>1.031676415972129</v>
+        <v>1.031685435553891</v>
       </c>
       <c r="L6">
-        <v>1.02229089021929</v>
+        <v>1.022301155915353</v>
       </c>
       <c r="M6">
-        <v>1.031537835065607</v>
+        <v>1.031546828709166</v>
+      </c>
+      <c r="N6">
+        <v>1.017115538040623</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002827898458692</v>
+        <v>1.002840383093022</v>
       </c>
       <c r="D7">
-        <v>1.020164666103486</v>
+        <v>1.020175409418564</v>
       </c>
       <c r="E7">
-        <v>1.010204112808571</v>
+        <v>1.010216534896047</v>
       </c>
       <c r="F7">
-        <v>1.019598513486479</v>
+        <v>1.019609304346374</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046644938871293</v>
+        <v>1.046650693340332</v>
       </c>
       <c r="J7">
-        <v>1.022153477574977</v>
+        <v>1.022165645401093</v>
       </c>
       <c r="K7">
-        <v>1.030022741793603</v>
+        <v>1.030033361742914</v>
       </c>
       <c r="L7">
-        <v>1.020177962996409</v>
+        <v>1.02019023893834</v>
       </c>
       <c r="M7">
-        <v>1.029463094863676</v>
+        <v>1.029473761641885</v>
+      </c>
+      <c r="N7">
+        <v>1.015715288433923</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9917833619824562</v>
+        <v>0.991804939013704</v>
       </c>
       <c r="D8">
-        <v>1.011827361755416</v>
+        <v>1.011845280140027</v>
       </c>
       <c r="E8">
-        <v>0.9998489861215755</v>
+        <v>0.9998704194077871</v>
       </c>
       <c r="F8">
-        <v>1.009429564783444</v>
+        <v>1.009447878988056</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042796341212187</v>
+        <v>1.042805935420487</v>
       </c>
       <c r="J8">
-        <v>1.01363262626663</v>
+        <v>1.013653563075178</v>
       </c>
       <c r="K8">
-        <v>1.022849472232684</v>
+        <v>1.022867154969438</v>
       </c>
       <c r="L8">
-        <v>1.011031003374464</v>
+        <v>1.0110521462307</v>
       </c>
       <c r="M8">
-        <v>1.020483303782347</v>
+        <v>1.020501375696175</v>
+      </c>
+      <c r="N8">
+        <v>1.009638521800289</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706841939719991</v>
+        <v>0.9707242247689638</v>
       </c>
       <c r="D9">
-        <v>0.9959252137080726</v>
+        <v>0.9959576207485294</v>
       </c>
       <c r="E9">
-        <v>0.9801232672253715</v>
+        <v>0.9801628906400872</v>
       </c>
       <c r="F9">
-        <v>0.9900727416310883</v>
+        <v>0.9901063630891033</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035316582009225</v>
+        <v>1.035333903837764</v>
       </c>
       <c r="J9">
-        <v>0.9973164034789668</v>
+        <v>0.9973548974673416</v>
       </c>
       <c r="K9">
-        <v>1.009084749249979</v>
+        <v>1.009116624984731</v>
       </c>
       <c r="L9">
-        <v>0.9935472784606703</v>
+        <v>0.9935862249252964</v>
       </c>
       <c r="M9">
-        <v>1.003328961598767</v>
+        <v>1.003362023416879</v>
+      </c>
+      <c r="N9">
+        <v>0.9979669517549228</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9552659659837728</v>
+        <v>0.9553205508848972</v>
       </c>
       <c r="D10">
-        <v>0.9843352831215525</v>
+        <v>0.984379035446967</v>
       </c>
       <c r="E10">
-        <v>0.9657555094620216</v>
+        <v>0.9658093819533542</v>
       </c>
       <c r="F10">
-        <v>0.9759871909034592</v>
+        <v>0.9760329104224643</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029770130480527</v>
+        <v>1.029793483106836</v>
       </c>
       <c r="J10">
-        <v>0.9853741605521987</v>
+        <v>0.9854262782988348</v>
       </c>
       <c r="K10">
-        <v>0.9989932484565663</v>
+        <v>0.9990361776830882</v>
       </c>
       <c r="L10">
-        <v>0.9807718664081677</v>
+        <v>0.9808246735472014</v>
       </c>
       <c r="M10">
-        <v>0.990803974766384</v>
+        <v>0.9908488148039927</v>
+      </c>
+      <c r="N10">
+        <v>0.9894026202263393</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9481996606430165</v>
+        <v>0.9482612681746506</v>
       </c>
       <c r="D11">
-        <v>0.9790343737172199</v>
+        <v>0.9790835721336855</v>
       </c>
       <c r="E11">
-        <v>0.9591840027142053</v>
+        <v>0.9592447194895243</v>
       </c>
       <c r="F11">
-        <v>0.9695490075896097</v>
+        <v>0.9696005699632755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027210759401607</v>
+        <v>1.027237001574903</v>
       </c>
       <c r="J11">
-        <v>0.9798982831189922</v>
+        <v>0.979956906052712</v>
       </c>
       <c r="K11">
-        <v>0.994362806045634</v>
+        <v>0.9944110237238016</v>
       </c>
       <c r="L11">
-        <v>0.9749190032096893</v>
+        <v>0.9749784424594664</v>
       </c>
       <c r="M11">
-        <v>0.9850689769096843</v>
+        <v>0.9851194847299927</v>
+      </c>
+      <c r="N11">
+        <v>0.9854711813389826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9455091383339064</v>
+        <v>0.9455734835069143</v>
       </c>
       <c r="D12">
-        <v>0.9770180228907511</v>
+        <v>0.9770693392045646</v>
       </c>
       <c r="E12">
-        <v>0.9566841084873943</v>
+        <v>0.9567474878688353</v>
       </c>
       <c r="F12">
-        <v>0.9671005753803533</v>
+        <v>0.9671544161555202</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026233836212109</v>
+        <v>1.026261201211316</v>
       </c>
       <c r="J12">
-        <v>0.9778131182834465</v>
+        <v>0.9778742653108237</v>
       </c>
       <c r="K12">
-        <v>0.9925991758185603</v>
+        <v>0.9926494471448916</v>
       </c>
       <c r="L12">
-        <v>0.9726910412641659</v>
+        <v>0.9727530562180471</v>
       </c>
       <c r="M12">
-        <v>0.9828864364441723</v>
+        <v>0.9829391508945965</v>
+      </c>
+      <c r="N12">
+        <v>0.9839735295813477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460893703224013</v>
+        <v>0.9461531220269624</v>
       </c>
       <c r="D13">
-        <v>0.9774527684949911</v>
+        <v>0.9775036259373404</v>
       </c>
       <c r="E13">
-        <v>0.957223125457469</v>
+        <v>0.9572859278989904</v>
       </c>
       <c r="F13">
-        <v>0.9676284608937145</v>
+        <v>0.9676818077272249</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026444623822734</v>
+        <v>1.026471745586544</v>
       </c>
       <c r="J13">
-        <v>0.9782628060064793</v>
+        <v>0.9783234064170128</v>
       </c>
       <c r="K13">
-        <v>0.9929795378450438</v>
+        <v>0.993029364358008</v>
       </c>
       <c r="L13">
-        <v>0.9731714906560739</v>
+        <v>0.9732329477050989</v>
       </c>
       <c r="M13">
-        <v>0.9833570644202648</v>
+        <v>0.9834093006530058</v>
+      </c>
+      <c r="N13">
+        <v>0.9842965395118999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.947978649159547</v>
+        <v>0.948040480212158</v>
       </c>
       <c r="D14">
-        <v>0.9788686991500924</v>
+        <v>0.9789180705965504</v>
       </c>
       <c r="E14">
-        <v>0.9589786036963082</v>
+        <v>0.9590395379820411</v>
       </c>
       <c r="F14">
-        <v>0.9693478211228055</v>
+        <v>0.9693995695091453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027130558698704</v>
+        <v>1.027156892623588</v>
       </c>
       <c r="J14">
-        <v>0.9797270013024959</v>
+        <v>0.9797858305687264</v>
       </c>
       <c r="K14">
-        <v>0.9942179436552222</v>
+        <v>0.9942663291753477</v>
       </c>
       <c r="L14">
-        <v>0.9747359763247356</v>
+        <v>0.974795626076626</v>
       </c>
       <c r="M14">
-        <v>0.9848896696441386</v>
+        <v>0.984940357690413</v>
+      </c>
+      <c r="N14">
+        <v>0.9853481712421052</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.949133743471632</v>
+        <v>0.9491944089692226</v>
       </c>
       <c r="D15">
-        <v>0.9797346635856613</v>
+        <v>0.9797831325504814</v>
       </c>
       <c r="E15">
-        <v>0.9600521929170185</v>
+        <v>0.960111992763512</v>
       </c>
       <c r="F15">
-        <v>0.9703994228236718</v>
+        <v>0.9704502012690215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027549622107598</v>
+        <v>1.027575477443478</v>
       </c>
       <c r="J15">
-        <v>0.9806221814652701</v>
+        <v>0.980679934321527</v>
       </c>
       <c r="K15">
-        <v>0.9949750307330966</v>
+        <v>0.9950225407108301</v>
       </c>
       <c r="L15">
-        <v>0.9756925710432628</v>
+        <v>0.9757511227297341</v>
       </c>
       <c r="M15">
-        <v>0.9858268466923035</v>
+        <v>0.9858765948285635</v>
+      </c>
+      <c r="N15">
+        <v>0.9859910424171218</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.955726129863555</v>
+        <v>0.9557802655458392</v>
       </c>
       <c r="D16">
-        <v>0.9846807351697535</v>
+        <v>0.9847241384835657</v>
       </c>
       <c r="E16">
-        <v>0.9661837445907014</v>
+        <v>0.9662371785794819</v>
       </c>
       <c r="F16">
-        <v>0.9764068339115481</v>
+        <v>0.976452179776787</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029936455467029</v>
+        <v>1.029959622803319</v>
       </c>
       <c r="J16">
-        <v>0.9857307154446032</v>
+        <v>0.9857824155714507</v>
       </c>
       <c r="K16">
-        <v>0.9992946947163476</v>
+        <v>0.9993372846546652</v>
       </c>
       <c r="L16">
-        <v>0.9811530719111923</v>
+        <v>0.9812054535841088</v>
       </c>
       <c r="M16">
-        <v>0.9911775747742869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9912220519072856</v>
+      </c>
+      <c r="N16">
+        <v>0.9896585253643244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9597522275738329</v>
+        <v>0.9598024734199079</v>
       </c>
       <c r="D17">
-        <v>0.9877044417500684</v>
+        <v>0.9877448197699384</v>
       </c>
       <c r="E17">
-        <v>0.9699320090925292</v>
+        <v>0.9699816425627531</v>
       </c>
       <c r="F17">
-        <v>0.9800803804217352</v>
+        <v>0.9801224913474553</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031389748231424</v>
+        <v>1.031411308842826</v>
       </c>
       <c r="J17">
-        <v>0.9888500336847381</v>
+        <v>0.9888981099752384</v>
       </c>
       <c r="K17">
-        <v>1.001931546849524</v>
+        <v>1.0019711938264</v>
       </c>
       <c r="L17">
-        <v>0.984488610988613</v>
+        <v>0.9845373022809658</v>
       </c>
       <c r="M17">
-        <v>0.9944469260492559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.994488259019558</v>
+      </c>
+      <c r="N17">
+        <v>0.9918968203345477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9620634866749955</v>
+        <v>0.9621115315297173</v>
       </c>
       <c r="D18">
-        <v>0.9894412452646792</v>
+        <v>0.9894799089934031</v>
       </c>
       <c r="E18">
-        <v>0.972085002058147</v>
+        <v>0.9721324823184831</v>
       </c>
       <c r="F18">
-        <v>0.9821908444859521</v>
+        <v>0.9822311254710896</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032222405659621</v>
+        <v>1.032243055328419</v>
       </c>
       <c r="J18">
-        <v>0.9906404780948732</v>
+        <v>0.990686497820453</v>
       </c>
       <c r="K18">
-        <v>1.003444760060207</v>
+        <v>1.003482737828485</v>
       </c>
       <c r="L18">
-        <v>0.9864036336730595</v>
+        <v>0.9864502318703512</v>
       </c>
       <c r="M18">
-        <v>0.9963242350745588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9963637876227658</v>
+      </c>
+      <c r="N18">
+        <v>0.9931811514562101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9628454724342356</v>
+        <v>0.9628927777676566</v>
       </c>
       <c r="D19">
-        <v>0.9900290287364975</v>
+        <v>0.9900671160744968</v>
       </c>
       <c r="E19">
-        <v>0.9728136429376532</v>
+        <v>0.9728603992845042</v>
       </c>
       <c r="F19">
-        <v>0.9829051553786492</v>
+        <v>0.9829448215993319</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032503843030151</v>
+        <v>1.032524186334387</v>
       </c>
       <c r="J19">
-        <v>0.9912462032994973</v>
+        <v>0.9912915310379926</v>
       </c>
       <c r="K19">
-        <v>1.003956641718553</v>
+        <v>1.003994057995657</v>
       </c>
       <c r="L19">
-        <v>0.9870515848534127</v>
+        <v>0.9870974789738595</v>
       </c>
       <c r="M19">
-        <v>0.9969594721430457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9969984262622944</v>
+      </c>
+      <c r="N19">
+        <v>0.9936155805878127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593241502683312</v>
+        <v>0.9593748063005777</v>
       </c>
       <c r="D20">
-        <v>0.9873828392850343</v>
+        <v>0.9874235365902256</v>
       </c>
       <c r="E20">
-        <v>0.9695333431646661</v>
+        <v>0.9695833776961815</v>
       </c>
       <c r="F20">
-        <v>0.979689620356284</v>
+        <v>0.9797320723582674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03123539479003</v>
+        <v>1.031257125024301</v>
       </c>
       <c r="J20">
-        <v>0.9885183960993564</v>
+        <v>0.9885668551726132</v>
       </c>
       <c r="K20">
-        <v>1.001651234732475</v>
+        <v>1.001691192471744</v>
       </c>
       <c r="L20">
-        <v>0.9841339364241636</v>
+        <v>0.9841830173974018</v>
       </c>
       <c r="M20">
-        <v>0.9940992590042476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9941409236740948</v>
+      </c>
+      <c r="N20">
+        <v>0.9916588938723316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9474241834896777</v>
+        <v>0.9474865763683805</v>
       </c>
       <c r="D21">
-        <v>0.9784530940184799</v>
+        <v>0.9785029002948167</v>
       </c>
       <c r="E21">
-        <v>0.9584633426721519</v>
+        <v>0.9585248235852784</v>
       </c>
       <c r="F21">
-        <v>0.9688431399794378</v>
+        <v>0.96889535592395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0269293156494</v>
+        <v>1.026955880134804</v>
       </c>
       <c r="J21">
-        <v>0.9792972930722572</v>
+        <v>0.9793566407664945</v>
       </c>
       <c r="K21">
-        <v>0.9938545098029986</v>
+        <v>0.9939033170671777</v>
       </c>
       <c r="L21">
-        <v>0.9742768144358972</v>
+        <v>0.9743369931310703</v>
       </c>
       <c r="M21">
-        <v>0.9844398484243413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9844909894260594</v>
+      </c>
+      <c r="N21">
+        <v>0.9850395567950836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9395570651768986</v>
+        <v>0.9396275990299232</v>
       </c>
       <c r="D22">
-        <v>0.9725615084863203</v>
+        <v>0.9726176016455985</v>
       </c>
       <c r="E22">
-        <v>0.9511581605485981</v>
+        <v>0.9512275476086363</v>
       </c>
       <c r="F22">
-        <v>0.9616898921979654</v>
+        <v>0.9617488845654449</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024068372399738</v>
+        <v>1.024098268192206</v>
       </c>
       <c r="J22">
-        <v>0.9732001055770541</v>
+        <v>0.9732669344602726</v>
       </c>
       <c r="K22">
-        <v>0.9886968537230182</v>
+        <v>0.9887517511034652</v>
       </c>
       <c r="L22">
-        <v>0.9677635134424787</v>
+        <v>0.9678313312033557</v>
       </c>
       <c r="M22">
-        <v>0.9780604973756167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9781181940762563</v>
+      </c>
+      <c r="N22">
+        <v>0.980659260730991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9437668239162182</v>
+        <v>0.9438329614796992</v>
       </c>
       <c r="D23">
-        <v>0.9757128960602772</v>
+        <v>0.9757655974172269</v>
       </c>
       <c r="E23">
-        <v>0.9550659006131232</v>
+        <v>0.9551310215845532</v>
       </c>
       <c r="F23">
-        <v>0.9655159039910371</v>
+        <v>0.9655712366521794</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025600543998273</v>
+        <v>1.025628643038586</v>
       </c>
       <c r="J23">
-        <v>0.9764627875748463</v>
+        <v>0.9765255836232231</v>
       </c>
       <c r="K23">
-        <v>0.9914569657797017</v>
+        <v>0.9915085792588224</v>
       </c>
       <c r="L23">
-        <v>0.971248449432826</v>
+        <v>0.9713121478324993</v>
       </c>
       <c r="M23">
-        <v>0.9814734228100935</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9815275811056153</v>
+      </c>
+      <c r="N23">
+        <v>0.9830035081583095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595176940859496</v>
+        <v>0.9595681645644876</v>
       </c>
       <c r="D24">
-        <v>0.9875282402801346</v>
+        <v>0.9875687931596604</v>
       </c>
       <c r="E24">
-        <v>0.9697135855981357</v>
+        <v>0.9697634387122891</v>
       </c>
       <c r="F24">
-        <v>0.9798662872368348</v>
+        <v>0.9799085849464474</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031305186705141</v>
+        <v>1.031326840213648</v>
       </c>
       <c r="J24">
-        <v>0.9886683380753666</v>
+        <v>0.9887166240101884</v>
       </c>
       <c r="K24">
-        <v>1.001777972076421</v>
+        <v>1.001817789250184</v>
       </c>
       <c r="L24">
-        <v>0.9842942925531815</v>
+        <v>0.984343197264018</v>
       </c>
       <c r="M24">
-        <v>0.9942564459949639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9942979606198843</v>
+      </c>
+      <c r="N24">
+        <v>0.99176646791968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763565197417754</v>
+        <v>0.9763914357247423</v>
       </c>
       <c r="D25">
-        <v>1.0001962399136</v>
+        <v>1.000224642069121</v>
       </c>
       <c r="E25">
-        <v>0.9854190962583999</v>
+        <v>0.9854536915404931</v>
       </c>
       <c r="F25">
-        <v>0.9952675447409851</v>
+        <v>0.9952969192233955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037341548197243</v>
+        <v>1.037356737132082</v>
       </c>
       <c r="J25">
-        <v>1.001706648063821</v>
+        <v>1.001740307782535</v>
       </c>
       <c r="K25">
-        <v>1.012791510273634</v>
+        <v>1.012819471759282</v>
       </c>
       <c r="L25">
-        <v>0.9982480592793316</v>
+        <v>0.998282096953135</v>
       </c>
       <c r="M25">
-        <v>1.007939772917448</v>
+        <v>1.007968685851051</v>
+      </c>
+      <c r="N25">
+        <v>1.001111292482987</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9888610434050037</v>
+        <v>1.010020636430707</v>
       </c>
       <c r="D2">
-        <v>1.009624312294013</v>
+        <v>1.024200310408267</v>
       </c>
       <c r="E2">
-        <v>0.9971138530926984</v>
+        <v>1.025245579718328</v>
       </c>
       <c r="F2">
-        <v>1.006741337412589</v>
+        <v>1.027222236501203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041771732496647</v>
+        <v>1.043878235127681</v>
       </c>
       <c r="J2">
-        <v>1.011380100891073</v>
+        <v>1.031905707779587</v>
       </c>
       <c r="K2">
-        <v>1.020951173957284</v>
+        <v>1.035332485524125</v>
       </c>
       <c r="L2">
-        <v>1.008613543510468</v>
+        <v>1.036364060110564</v>
       </c>
       <c r="M2">
-        <v>1.018107546887879</v>
+        <v>1.038314914892621</v>
       </c>
       <c r="N2">
-        <v>1.008013072854164</v>
+        <v>1.033371132245899</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9974478264044755</v>
+        <v>1.018975869564368</v>
       </c>
       <c r="D3">
-        <v>1.016104020261377</v>
+        <v>1.031059710788416</v>
       </c>
       <c r="E3">
-        <v>1.00515827341351</v>
+        <v>1.034047766927329</v>
       </c>
       <c r="F3">
-        <v>1.014640751548099</v>
+        <v>1.0366586993833</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044778552675512</v>
+        <v>1.046663606367526</v>
       </c>
       <c r="J3">
-        <v>1.018008308874325</v>
+        <v>1.038962268593058</v>
       </c>
       <c r="K3">
-        <v>1.026534911631175</v>
+        <v>1.041310021587328</v>
       </c>
       <c r="L3">
-        <v>1.015725575899</v>
+        <v>1.044262774129811</v>
       </c>
       <c r="M3">
-        <v>1.025089666732666</v>
+        <v>1.046843064812871</v>
       </c>
       <c r="N3">
-        <v>1.012749257738764</v>
+        <v>1.040437714185098</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002810669887079</v>
+        <v>1.024565319931914</v>
       </c>
       <c r="D4">
-        <v>1.020152972447938</v>
+        <v>1.035342673776381</v>
       </c>
       <c r="E4">
-        <v>1.010188650246552</v>
+        <v>1.039547794033419</v>
       </c>
       <c r="F4">
-        <v>1.019581911275484</v>
+        <v>1.042557042047634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04664041470533</v>
+        <v>1.048387982321524</v>
       </c>
       <c r="J4">
-        <v>1.022142750684254</v>
+        <v>1.043360853283575</v>
       </c>
       <c r="K4">
-        <v>1.030014104331612</v>
+        <v>1.045032465429764</v>
       </c>
       <c r="L4">
-        <v>1.020165643056306</v>
+        <v>1.04919123912584</v>
       </c>
       <c r="M4">
-        <v>1.029449607670306</v>
+        <v>1.052167602537849</v>
       </c>
       <c r="N4">
-        <v>1.01569896486623</v>
+        <v>1.0448425453704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00502192318069</v>
+        <v>1.026869303818751</v>
       </c>
       <c r="D5">
-        <v>1.021822816934696</v>
+        <v>1.037108367750195</v>
       </c>
       <c r="E5">
-        <v>1.01226423066475</v>
+        <v>1.041816317276708</v>
       </c>
       <c r="F5">
-        <v>1.021620988337533</v>
+        <v>1.044990362211481</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047404182433927</v>
+        <v>1.049095307835979</v>
       </c>
       <c r="J5">
-        <v>1.023846174710774</v>
+        <v>1.045172499331692</v>
       </c>
       <c r="K5">
-        <v>1.031446624067408</v>
+        <v>1.046564738025359</v>
       </c>
       <c r="L5">
-        <v>1.021995910759917</v>
+        <v>1.051222328881429</v>
       </c>
       <c r="M5">
-        <v>1.031247047521542</v>
+        <v>1.054362735835172</v>
       </c>
       <c r="N5">
-        <v>1.016913144768638</v>
+        <v>1.046656764163704</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005390745923271</v>
+        <v>1.027253555492327</v>
       </c>
       <c r="D6">
-        <v>1.0221013523648</v>
+        <v>1.037402855541774</v>
       </c>
       <c r="E6">
-        <v>1.012610504675437</v>
+        <v>1.042194735527076</v>
       </c>
       <c r="F6">
-        <v>1.021961189412664</v>
+        <v>1.045396301470205</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047531340357787</v>
+        <v>1.04921306746243</v>
       </c>
       <c r="J6">
-        <v>1.024130214674397</v>
+        <v>1.045474552539769</v>
       </c>
       <c r="K6">
-        <v>1.031685435553891</v>
+        <v>1.046820158152776</v>
       </c>
       <c r="L6">
-        <v>1.022301155915353</v>
+        <v>1.051561040817382</v>
       </c>
       <c r="M6">
-        <v>1.031546828709166</v>
+        <v>1.054728852776921</v>
       </c>
       <c r="N6">
-        <v>1.017115538040623</v>
+        <v>1.046959246321983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002840383093022</v>
+        <v>1.024596281814995</v>
       </c>
       <c r="D7">
-        <v>1.020175409418564</v>
+        <v>1.035366401102693</v>
       </c>
       <c r="E7">
-        <v>1.010216534896047</v>
+        <v>1.039578273915194</v>
       </c>
       <c r="F7">
-        <v>1.019609304346374</v>
+        <v>1.042589734084998</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046650693340332</v>
+        <v>1.048397501485385</v>
       </c>
       <c r="J7">
-        <v>1.022165645401093</v>
+        <v>1.043385204801864</v>
       </c>
       <c r="K7">
-        <v>1.030033361742914</v>
+        <v>1.045053065289994</v>
       </c>
       <c r="L7">
-        <v>1.02019023893834</v>
+        <v>1.049218535544734</v>
       </c>
       <c r="M7">
-        <v>1.029473761641885</v>
+        <v>1.052197100329459</v>
       </c>
       <c r="N7">
-        <v>1.015715288433923</v>
+        <v>1.044866931470639</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.991804939013704</v>
+        <v>1.013091684918682</v>
       </c>
       <c r="D8">
-        <v>1.011845280140027</v>
+        <v>1.026552186930522</v>
       </c>
       <c r="E8">
-        <v>0.9998704194077871</v>
+        <v>1.028262809114344</v>
       </c>
       <c r="F8">
-        <v>1.009447878988056</v>
+        <v>1.030456483157631</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042805935420487</v>
+        <v>1.044836376489209</v>
       </c>
       <c r="J8">
-        <v>1.013653563075178</v>
+        <v>1.03432682304398</v>
       </c>
       <c r="K8">
-        <v>1.022867154969438</v>
+        <v>1.037384113531634</v>
       </c>
       <c r="L8">
-        <v>1.0110521462307</v>
+        <v>1.039073082340921</v>
       </c>
       <c r="M8">
-        <v>1.020501375696175</v>
+        <v>1.041239119673895</v>
       </c>
       <c r="N8">
-        <v>1.009638521800289</v>
+        <v>1.035795685771648</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9707242247689638</v>
+        <v>0.9910780557854751</v>
       </c>
       <c r="D9">
-        <v>0.9959576207485294</v>
+        <v>1.009707797941733</v>
       </c>
       <c r="E9">
-        <v>0.9801628906400872</v>
+        <v>1.006664786561241</v>
       </c>
       <c r="F9">
-        <v>0.9901063630891033</v>
+        <v>1.00731217542211</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035333903837764</v>
+        <v>1.037909999019718</v>
       </c>
       <c r="J9">
-        <v>0.9973548974673416</v>
+        <v>1.016949853093059</v>
       </c>
       <c r="K9">
-        <v>1.009116624984731</v>
+        <v>1.022645312199686</v>
       </c>
       <c r="L9">
-        <v>0.9935862249252964</v>
+        <v>1.019650649869914</v>
       </c>
       <c r="M9">
-        <v>1.003362023416879</v>
+        <v>1.020287721310411</v>
       </c>
       <c r="N9">
-        <v>0.9979669517549228</v>
+        <v>1.01839403853023</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9553205508848972</v>
+        <v>0.9749532749175095</v>
       </c>
       <c r="D10">
-        <v>0.984379035446967</v>
+        <v>0.9973969107053102</v>
       </c>
       <c r="E10">
-        <v>0.9658093819533542</v>
+        <v>0.9908871042233186</v>
       </c>
       <c r="F10">
-        <v>0.9760329104224643</v>
+        <v>0.9904121108649516</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029793483106836</v>
+        <v>1.032765773051619</v>
       </c>
       <c r="J10">
-        <v>0.9854262782988348</v>
+        <v>1.004197125845955</v>
       </c>
       <c r="K10">
-        <v>0.9990361776830882</v>
+        <v>1.011813324329493</v>
       </c>
       <c r="L10">
-        <v>0.9808246735472014</v>
+        <v>1.005422867506574</v>
       </c>
       <c r="M10">
-        <v>0.9908488148039927</v>
+        <v>1.004956662669432</v>
       </c>
       <c r="N10">
-        <v>0.9894026202263393</v>
+        <v>1.005623200947677</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9482612681746506</v>
+        <v>0.9675497460737237</v>
       </c>
       <c r="D11">
-        <v>0.9790835721336855</v>
+        <v>0.9917545197261748</v>
       </c>
       <c r="E11">
-        <v>0.9592447194895243</v>
+        <v>0.9836546874809491</v>
       </c>
       <c r="F11">
-        <v>0.9696005699632755</v>
+        <v>0.9826661254809305</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027237001574903</v>
+        <v>1.030388705425567</v>
       </c>
       <c r="J11">
-        <v>0.979956906052712</v>
+        <v>0.9983377028872102</v>
       </c>
       <c r="K11">
-        <v>0.9944110237238016</v>
+        <v>1.006833627159172</v>
       </c>
       <c r="L11">
-        <v>0.9749784424594664</v>
+        <v>0.9988915788387782</v>
       </c>
       <c r="M11">
-        <v>0.9851194847299927</v>
+        <v>0.9979225078646358</v>
       </c>
       <c r="N11">
-        <v>0.9854711813389826</v>
+        <v>0.9997554569362451</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9455734835069143</v>
+        <v>0.9647283278399426</v>
       </c>
       <c r="D12">
-        <v>0.9770693392045646</v>
+        <v>0.989606114452928</v>
       </c>
       <c r="E12">
-        <v>0.9567474878688353</v>
+        <v>0.9809004044278876</v>
       </c>
       <c r="F12">
-        <v>0.9671544161555202</v>
+        <v>0.9797163204720374</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026261201211316</v>
+        <v>1.029480718657969</v>
       </c>
       <c r="J12">
-        <v>0.9778742653108237</v>
+        <v>0.9961042744156808</v>
       </c>
       <c r="K12">
-        <v>0.9926494471448916</v>
+        <v>1.004935191317415</v>
       </c>
       <c r="L12">
-        <v>0.9727530562180471</v>
+        <v>0.9964029043901413</v>
       </c>
       <c r="M12">
-        <v>0.9829391508945965</v>
+        <v>0.9952427217195755</v>
       </c>
       <c r="N12">
-        <v>0.9839735295813477</v>
+        <v>0.9975188567401081</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9461531220269624</v>
+        <v>0.9653369101896214</v>
       </c>
       <c r="D13">
-        <v>0.9775036259373404</v>
+        <v>0.9900694372737525</v>
       </c>
       <c r="E13">
-        <v>0.9572859278989904</v>
+        <v>0.9814944159823022</v>
       </c>
       <c r="F13">
-        <v>0.9676818077272249</v>
+        <v>0.9803524987748279</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026471745586544</v>
+        <v>1.029676664238683</v>
       </c>
       <c r="J13">
-        <v>0.9783234064170128</v>
+        <v>0.9965860444187324</v>
       </c>
       <c r="K13">
-        <v>0.993029364358008</v>
+        <v>1.005344713887758</v>
       </c>
       <c r="L13">
-        <v>0.9732329477050989</v>
+        <v>0.9969396955345128</v>
       </c>
       <c r="M13">
-        <v>0.9834093006530058</v>
+        <v>0.9958207126194092</v>
       </c>
       <c r="N13">
-        <v>0.9842965395118999</v>
+        <v>0.998001310911824</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.948040480212158</v>
+        <v>0.9673180359494253</v>
       </c>
       <c r="D14">
-        <v>0.9789180705965504</v>
+        <v>0.9915780412374207</v>
       </c>
       <c r="E14">
-        <v>0.9590395379820411</v>
+        <v>0.9834284508836947</v>
       </c>
       <c r="F14">
-        <v>0.9693995695091453</v>
+        <v>0.9824238280765548</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027156892623588</v>
+        <v>1.030314178227216</v>
       </c>
       <c r="J14">
-        <v>0.9797858305687264</v>
+        <v>0.9981542898166536</v>
       </c>
       <c r="K14">
-        <v>0.9942663291753477</v>
+        <v>1.006677730428257</v>
       </c>
       <c r="L14">
-        <v>0.974795626076626</v>
+        <v>0.9986871875727142</v>
       </c>
       <c r="M14">
-        <v>0.984940357690413</v>
+        <v>0.9977024110119777</v>
       </c>
       <c r="N14">
-        <v>0.9853481712421052</v>
+        <v>0.9995717833980904</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491944089692226</v>
+        <v>0.9685289412363484</v>
       </c>
       <c r="D15">
-        <v>0.9797831325504814</v>
+        <v>0.9925003863862738</v>
       </c>
       <c r="E15">
-        <v>0.960111992763512</v>
+        <v>0.9846108308637057</v>
       </c>
       <c r="F15">
-        <v>0.9704502012690215</v>
+        <v>0.9836901484461889</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027575477443478</v>
+        <v>1.030703569212812</v>
       </c>
       <c r="J15">
-        <v>0.980679934321527</v>
+        <v>0.9991127797800993</v>
       </c>
       <c r="K15">
-        <v>0.9950225407108301</v>
+        <v>1.007492411138363</v>
       </c>
       <c r="L15">
-        <v>0.9757511227297341</v>
+        <v>0.9997553406841654</v>
       </c>
       <c r="M15">
-        <v>0.9858765948285635</v>
+        <v>0.9988526618532809</v>
       </c>
       <c r="N15">
-        <v>0.9859910424171218</v>
+        <v>1.000531634527225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9557802655458392</v>
+        <v>0.9754350854714875</v>
       </c>
       <c r="D16">
-        <v>0.9847241384835657</v>
+        <v>0.9977643435055654</v>
       </c>
       <c r="E16">
-        <v>0.9662371785794819</v>
+        <v>0.9913580335166216</v>
       </c>
       <c r="F16">
-        <v>0.976452179776787</v>
+        <v>0.990916493073089</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029959622803319</v>
+        <v>1.032920170995099</v>
       </c>
       <c r="J16">
-        <v>0.9857824155714507</v>
+        <v>1.00457837650991</v>
       </c>
       <c r="K16">
-        <v>0.9993372846546652</v>
+        <v>1.01213728426175</v>
       </c>
       <c r="L16">
-        <v>0.9812054535841088</v>
+        <v>1.005847951939581</v>
       </c>
       <c r="M16">
-        <v>0.9912220519072856</v>
+        <v>1.00541454652659</v>
       </c>
       <c r="N16">
-        <v>0.9896585253643244</v>
+        <v>1.006004993031305</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9598024734199079</v>
+        <v>0.9796490293439325</v>
       </c>
       <c r="D17">
-        <v>0.9877448197699384</v>
+        <v>1.000979091472524</v>
       </c>
       <c r="E17">
-        <v>0.9699816425627531</v>
+        <v>0.9954781405168585</v>
       </c>
       <c r="F17">
-        <v>0.9801224913474553</v>
+        <v>0.9953293713917318</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031411308842826</v>
+        <v>1.0342688664398</v>
       </c>
       <c r="J17">
-        <v>0.9888981099752384</v>
+        <v>1.007912371384015</v>
       </c>
       <c r="K17">
-        <v>1.0019711938264</v>
+        <v>1.014969975419723</v>
       </c>
       <c r="L17">
-        <v>0.9845373022809658</v>
+        <v>1.009565921576694</v>
       </c>
       <c r="M17">
-        <v>0.994488259019558</v>
+        <v>1.009419792261906</v>
       </c>
       <c r="N17">
-        <v>0.9918968203345477</v>
+        <v>1.009343722560545</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9621115315297173</v>
+        <v>0.9820669118334546</v>
       </c>
       <c r="D18">
-        <v>0.9894799089934031</v>
+        <v>1.002824562628919</v>
       </c>
       <c r="E18">
-        <v>0.9721324823184831</v>
+        <v>0.997843263362692</v>
       </c>
       <c r="F18">
-        <v>0.9822311254710896</v>
+        <v>0.9978626500637354</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032243055328419</v>
+        <v>1.035041300269603</v>
       </c>
       <c r="J18">
-        <v>0.990686497820453</v>
+        <v>1.009824958302348</v>
       </c>
       <c r="K18">
-        <v>1.003482737828485</v>
+        <v>1.016594717910235</v>
       </c>
       <c r="L18">
-        <v>0.9864502318703512</v>
+        <v>1.011699329027812</v>
       </c>
       <c r="M18">
-        <v>0.9963637876227658</v>
+        <v>1.011718379222815</v>
       </c>
       <c r="N18">
-        <v>0.9931811514562101</v>
+        <v>1.011259025571679</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9628927777676566</v>
+        <v>0.9828847788061515</v>
       </c>
       <c r="D19">
-        <v>0.9900671160744968</v>
+        <v>1.003448951811733</v>
       </c>
       <c r="E19">
-        <v>0.9728603992845042</v>
+        <v>0.9986434632358072</v>
       </c>
       <c r="F19">
-        <v>0.9829448215993319</v>
+        <v>0.9987197604651256</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032524186334387</v>
+        <v>1.035302335989643</v>
       </c>
       <c r="J19">
-        <v>0.9912915310379926</v>
+        <v>1.010471833395967</v>
       </c>
       <c r="K19">
-        <v>1.003994057995657</v>
+        <v>1.017144190889808</v>
       </c>
       <c r="L19">
-        <v>0.9870974789738595</v>
+        <v>1.012420984023115</v>
       </c>
       <c r="M19">
-        <v>0.9969984262622944</v>
+        <v>1.012495966858343</v>
       </c>
       <c r="N19">
-        <v>0.9936155805878127</v>
+        <v>1.011906819302129</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593748063005777</v>
+        <v>0.9792011084723068</v>
       </c>
       <c r="D20">
-        <v>0.9874235365902256</v>
+        <v>1.000637283174776</v>
       </c>
       <c r="E20">
-        <v>0.9695833776961815</v>
+        <v>0.9950400803318243</v>
       </c>
       <c r="F20">
-        <v>0.9797320723582674</v>
+        <v>0.9948601739536472</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031257125024301</v>
+        <v>1.034125653911567</v>
       </c>
       <c r="J20">
-        <v>0.9885668551726132</v>
+        <v>1.00755802489167</v>
       </c>
       <c r="K20">
-        <v>1.001691192471744</v>
+        <v>1.014668935974787</v>
       </c>
       <c r="L20">
-        <v>0.9841830173974018</v>
+        <v>1.009170708251439</v>
       </c>
       <c r="M20">
-        <v>0.9941409236740948</v>
+        <v>1.008994007131668</v>
       </c>
       <c r="N20">
-        <v>0.9916588938723316</v>
+        <v>1.008988872855537</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9474865763683805</v>
+        <v>0.9667366879695087</v>
       </c>
       <c r="D21">
-        <v>0.9785029002948167</v>
+        <v>0.9911352975341969</v>
       </c>
       <c r="E21">
-        <v>0.9585248235852784</v>
+        <v>0.9828608671872884</v>
       </c>
       <c r="F21">
-        <v>0.96889535592395</v>
+        <v>0.9818159515570355</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026955880134804</v>
+        <v>1.030127160364854</v>
       </c>
       <c r="J21">
-        <v>0.9793566407664945</v>
+        <v>0.9976941098026674</v>
       </c>
       <c r="K21">
-        <v>0.9939033170671777</v>
+        <v>1.006286583405079</v>
       </c>
       <c r="L21">
-        <v>0.9743369931310703</v>
+        <v>0.9981743871428528</v>
       </c>
       <c r="M21">
-        <v>0.9844909894260594</v>
+        <v>0.9971502144651059</v>
       </c>
       <c r="N21">
-        <v>0.9850395567950836</v>
+        <v>0.9991109498757011</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396275990299232</v>
+        <v>0.9584814083875965</v>
       </c>
       <c r="D22">
-        <v>0.9726176016455985</v>
+        <v>0.9848532012043868</v>
       </c>
       <c r="E22">
-        <v>0.9512275476086363</v>
+        <v>0.974805896883014</v>
       </c>
       <c r="F22">
-        <v>0.9617488845654449</v>
+        <v>0.9731891766970711</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024098268192206</v>
+        <v>1.02746664907364</v>
       </c>
       <c r="J22">
-        <v>0.9732669344602726</v>
+        <v>0.9911585951823302</v>
       </c>
       <c r="K22">
-        <v>0.9887517511034652</v>
+        <v>1.000730811729656</v>
       </c>
       <c r="L22">
-        <v>0.9678313312033557</v>
+        <v>0.9908935390575323</v>
       </c>
       <c r="M22">
-        <v>0.9781181940762563</v>
+        <v>0.9893111518824665</v>
       </c>
       <c r="N22">
-        <v>0.980659260730991</v>
+        <v>0.9925661540749688</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9438329614796992</v>
+        <v>0.9629004726770175</v>
       </c>
       <c r="D23">
-        <v>0.9757655974172269</v>
+        <v>0.9882148439925051</v>
       </c>
       <c r="E23">
-        <v>0.9551310215845532</v>
+        <v>0.9791166084011297</v>
       </c>
       <c r="F23">
-        <v>0.9655712366521794</v>
+        <v>0.9778059005068284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025628643038586</v>
+        <v>1.028891908556929</v>
       </c>
       <c r="J23">
-        <v>0.9765255836232231</v>
+        <v>0.9946572432691975</v>
       </c>
       <c r="K23">
-        <v>0.9915085792588224</v>
+        <v>1.003705119462259</v>
       </c>
       <c r="L23">
-        <v>0.9713121478324993</v>
+        <v>0.9947907347285272</v>
       </c>
       <c r="M23">
-        <v>0.9815275811056153</v>
+        <v>0.9935068847070813</v>
       </c>
       <c r="N23">
-        <v>0.9830035081583095</v>
+        <v>0.9960697706434202</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595681645644876</v>
+        <v>0.9794036277746071</v>
       </c>
       <c r="D24">
-        <v>0.9875687931596604</v>
+        <v>1.000791822797948</v>
       </c>
       <c r="E24">
-        <v>0.9697634387122891</v>
+        <v>0.9952381379474416</v>
       </c>
       <c r="F24">
-        <v>0.9799085849464474</v>
+        <v>0.995072309182701</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031326840213648</v>
+        <v>1.034190409298338</v>
       </c>
       <c r="J24">
-        <v>0.9887166240101884</v>
+        <v>1.007718237482512</v>
       </c>
       <c r="K24">
-        <v>1.001817789250184</v>
+        <v>1.014805047394923</v>
       </c>
       <c r="L24">
-        <v>0.984343197264018</v>
+        <v>1.00934939647393</v>
       </c>
       <c r="M24">
-        <v>0.9942979606198843</v>
+        <v>1.009186516763467</v>
       </c>
       <c r="N24">
-        <v>0.99176646791968</v>
+        <v>1.009149312966634</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763914357247423</v>
+        <v>0.9970015399281734</v>
       </c>
       <c r="D25">
-        <v>1.000224642069121</v>
+        <v>1.014236699792099</v>
       </c>
       <c r="E25">
-        <v>0.9854536915404931</v>
+        <v>1.012469709721678</v>
       </c>
       <c r="F25">
-        <v>0.9952969192233955</v>
+        <v>1.013531260394342</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037356737132082</v>
+        <v>1.039786147627853</v>
       </c>
       <c r="J25">
-        <v>1.001740307782535</v>
+        <v>1.021630237300843</v>
       </c>
       <c r="K25">
-        <v>1.012819471759282</v>
+        <v>1.02661795739008</v>
       </c>
       <c r="L25">
-        <v>0.998282096953135</v>
+        <v>1.024877485116628</v>
       </c>
       <c r="M25">
-        <v>1.007968685851051</v>
+        <v>1.025923090639678</v>
       </c>
       <c r="N25">
-        <v>1.001111292482987</v>
+        <v>1.023081069420436</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010020636430707</v>
+        <v>1.01289708677887</v>
       </c>
       <c r="D2">
-        <v>1.024200310408267</v>
+        <v>1.029245496813836</v>
       </c>
       <c r="E2">
-        <v>1.025245579718328</v>
+        <v>1.028144904582791</v>
       </c>
       <c r="F2">
-        <v>1.027222236501203</v>
+        <v>1.030170091712285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043878235127681</v>
+        <v>1.050851949661202</v>
       </c>
       <c r="J2">
-        <v>1.031905707779587</v>
+        <v>1.034698774010808</v>
       </c>
       <c r="K2">
-        <v>1.035332485524125</v>
+        <v>1.040311893336696</v>
       </c>
       <c r="L2">
-        <v>1.036364060110564</v>
+        <v>1.039225581582812</v>
       </c>
       <c r="M2">
-        <v>1.038314914892621</v>
+        <v>1.04122452088063</v>
       </c>
       <c r="N2">
-        <v>1.033371132245899</v>
+        <v>1.015318562242039</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018975869564368</v>
+        <v>1.017179952905724</v>
       </c>
       <c r="D3">
-        <v>1.031059710788416</v>
+        <v>1.032465314208731</v>
       </c>
       <c r="E3">
-        <v>1.034047766927329</v>
+        <v>1.032236299157699</v>
       </c>
       <c r="F3">
-        <v>1.0366586993833</v>
+        <v>1.034818479378754</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046663606367526</v>
+        <v>1.052311344421141</v>
       </c>
       <c r="J3">
-        <v>1.038962268593058</v>
+        <v>1.03721298497702</v>
       </c>
       <c r="K3">
-        <v>1.041310021587328</v>
+        <v>1.042698986412747</v>
       </c>
       <c r="L3">
-        <v>1.044262774129811</v>
+        <v>1.042472678461549</v>
       </c>
       <c r="M3">
-        <v>1.046843064812871</v>
+        <v>1.045024421629479</v>
       </c>
       <c r="N3">
-        <v>1.040437714185098</v>
+        <v>1.016165286277988</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024565319931914</v>
+        <v>1.01989556265401</v>
       </c>
       <c r="D4">
-        <v>1.035342673776381</v>
+        <v>1.034508459829723</v>
       </c>
       <c r="E4">
-        <v>1.039547794033419</v>
+        <v>1.034835632166851</v>
       </c>
       <c r="F4">
-        <v>1.042557042047634</v>
+        <v>1.037772590211818</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048387982321524</v>
+        <v>1.053225907181917</v>
       </c>
       <c r="J4">
-        <v>1.043360853283575</v>
+        <v>1.038803675789535</v>
       </c>
       <c r="K4">
-        <v>1.045032465429764</v>
+        <v>1.044207500815009</v>
       </c>
       <c r="L4">
-        <v>1.04919123912584</v>
+        <v>1.044531043449102</v>
       </c>
       <c r="M4">
-        <v>1.052167602537849</v>
+        <v>1.047435544347286</v>
       </c>
       <c r="N4">
-        <v>1.0448425453704</v>
+        <v>1.016700867178876</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026869303818751</v>
+        <v>1.021024324972048</v>
       </c>
       <c r="D5">
-        <v>1.037108367750195</v>
+        <v>1.035358041011661</v>
       </c>
       <c r="E5">
-        <v>1.041816317276708</v>
+        <v>1.0359172729419</v>
       </c>
       <c r="F5">
-        <v>1.044990362211481</v>
+        <v>1.039002098897072</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049095307835979</v>
+        <v>1.053603426832534</v>
       </c>
       <c r="J5">
-        <v>1.045172499331692</v>
+        <v>1.039463995459278</v>
       </c>
       <c r="K5">
-        <v>1.046564738025359</v>
+        <v>1.044833276864484</v>
       </c>
       <c r="L5">
-        <v>1.051222328881429</v>
+        <v>1.045386472719024</v>
       </c>
       <c r="M5">
-        <v>1.054362735835172</v>
+        <v>1.048438145634719</v>
       </c>
       <c r="N5">
-        <v>1.046656764163704</v>
+        <v>1.016923161778356</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027253555492327</v>
+        <v>1.021213106592987</v>
       </c>
       <c r="D6">
-        <v>1.037402855541774</v>
+        <v>1.03550014885905</v>
       </c>
       <c r="E6">
-        <v>1.042194735527076</v>
+        <v>1.036098244171326</v>
       </c>
       <c r="F6">
-        <v>1.045396301470205</v>
+        <v>1.039207824616616</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04921306746243</v>
+        <v>1.053666410341781</v>
       </c>
       <c r="J6">
-        <v>1.045474552539769</v>
+        <v>1.039574380187551</v>
       </c>
       <c r="K6">
-        <v>1.046820158152776</v>
+        <v>1.044937861334972</v>
       </c>
       <c r="L6">
-        <v>1.051561040817382</v>
+        <v>1.045529531128279</v>
       </c>
       <c r="M6">
-        <v>1.054728852776921</v>
+        <v>1.048605850348636</v>
       </c>
       <c r="N6">
-        <v>1.046959246321983</v>
+        <v>1.016960320420929</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024596281814995</v>
+        <v>1.019910695257237</v>
       </c>
       <c r="D7">
-        <v>1.035366401102693</v>
+        <v>1.034519848369501</v>
       </c>
       <c r="E7">
-        <v>1.039578273915194</v>
+        <v>1.03485012828964</v>
       </c>
       <c r="F7">
-        <v>1.042589734084998</v>
+        <v>1.037789067097458</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048397501485385</v>
+        <v>1.053230978765594</v>
       </c>
       <c r="J7">
-        <v>1.043385204801864</v>
+        <v>1.03881253171953</v>
       </c>
       <c r="K7">
-        <v>1.045053065289994</v>
+        <v>1.044215895177823</v>
       </c>
       <c r="L7">
-        <v>1.049218535544734</v>
+        <v>1.044542512251818</v>
       </c>
       <c r="M7">
-        <v>1.052197100329459</v>
+        <v>1.047448984026988</v>
       </c>
       <c r="N7">
-        <v>1.044866931470639</v>
+        <v>1.016703848635666</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013091684918682</v>
+        <v>1.014356312170299</v>
       </c>
       <c r="D8">
-        <v>1.026552186930522</v>
+        <v>1.030342169967823</v>
       </c>
       <c r="E8">
-        <v>1.028262809114344</v>
+        <v>1.029537805041338</v>
       </c>
       <c r="F8">
-        <v>1.030456483157631</v>
+        <v>1.031752439227544</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044836376489209</v>
+        <v>1.051351422282697</v>
       </c>
       <c r="J8">
-        <v>1.03432682304398</v>
+        <v>1.035556109170419</v>
       </c>
       <c r="K8">
-        <v>1.037384113531634</v>
+        <v>1.041126243018578</v>
       </c>
       <c r="L8">
-        <v>1.039073082340921</v>
+        <v>1.040331997520853</v>
       </c>
       <c r="M8">
-        <v>1.041239119673895</v>
+        <v>1.042518817664246</v>
       </c>
       <c r="N8">
-        <v>1.035795685771648</v>
+        <v>1.01560731564245</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9910780557854751</v>
+        <v>1.004120759963478</v>
       </c>
       <c r="D9">
-        <v>1.009707797941733</v>
+        <v>1.022658300171225</v>
       </c>
       <c r="E9">
-        <v>1.006664786561241</v>
+        <v>1.019790143533312</v>
       </c>
       <c r="F9">
-        <v>1.00731217542211</v>
+        <v>1.020682071739625</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037909999019718</v>
+        <v>1.04780370841114</v>
       </c>
       <c r="J9">
-        <v>1.016949853093059</v>
+        <v>1.029528838068335</v>
       </c>
       <c r="K9">
-        <v>1.022645312199686</v>
+        <v>1.035394155704308</v>
       </c>
       <c r="L9">
-        <v>1.019650649869914</v>
+        <v>1.032570096755631</v>
       </c>
       <c r="M9">
-        <v>1.020287721310411</v>
+        <v>1.033448277741212</v>
       </c>
       <c r="N9">
-        <v>1.01839403853023</v>
+        <v>1.01357691435377</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9749532749175095</v>
+        <v>0.9969638960330653</v>
       </c>
       <c r="D10">
-        <v>0.9973969107053102</v>
+        <v>1.017298764144341</v>
       </c>
       <c r="E10">
-        <v>0.9908871042233186</v>
+        <v>1.013004304902737</v>
       </c>
       <c r="F10">
-        <v>0.9904121108649516</v>
+        <v>1.012978414686433</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032765773051619</v>
+        <v>1.045268578521014</v>
       </c>
       <c r="J10">
-        <v>1.004197125845955</v>
+        <v>1.025298492970353</v>
       </c>
       <c r="K10">
-        <v>1.011813324329493</v>
+        <v>1.031362553890574</v>
       </c>
       <c r="L10">
-        <v>1.005422867506574</v>
+        <v>1.027142666234917</v>
       </c>
       <c r="M10">
-        <v>1.004956662669432</v>
+        <v>1.027117228075215</v>
       </c>
       <c r="N10">
-        <v>1.005623200947677</v>
+        <v>1.01215148529843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9675497460737237</v>
+        <v>0.9937781535726802</v>
       </c>
       <c r="D11">
-        <v>0.9917545197261748</v>
+        <v>1.014916938149999</v>
       </c>
       <c r="E11">
-        <v>0.9836546874809491</v>
+        <v>1.009991183634906</v>
       </c>
       <c r="F11">
-        <v>0.9826661254809305</v>
+        <v>1.009558154919309</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030388705425567</v>
+        <v>1.044127735215886</v>
       </c>
       <c r="J11">
-        <v>0.9983377028872102</v>
+        <v>1.023412079035079</v>
       </c>
       <c r="K11">
-        <v>1.006833627159172</v>
+        <v>1.029562921002839</v>
       </c>
       <c r="L11">
-        <v>0.9988915788387782</v>
+        <v>1.024727108891228</v>
       </c>
       <c r="M11">
-        <v>0.9979225078646358</v>
+        <v>1.024302041797448</v>
       </c>
       <c r="N11">
-        <v>0.9997554569362451</v>
+        <v>1.011515815077676</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9647283278399426</v>
+        <v>0.9925810807946444</v>
       </c>
       <c r="D12">
-        <v>0.989606114452928</v>
+        <v>1.014022592954861</v>
       </c>
       <c r="E12">
-        <v>0.9809004044278876</v>
+        <v>1.008860130733245</v>
       </c>
       <c r="F12">
-        <v>0.9797163204720374</v>
+        <v>1.008274304795117</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029480718657969</v>
+        <v>1.043697241568013</v>
       </c>
       <c r="J12">
-        <v>0.9961042744156808</v>
+        <v>1.022702775546014</v>
       </c>
       <c r="K12">
-        <v>1.004935191317415</v>
+        <v>1.028885984518838</v>
       </c>
       <c r="L12">
-        <v>0.9964029043901413</v>
+        <v>1.023819530706402</v>
       </c>
       <c r="M12">
-        <v>0.9952427217195755</v>
+        <v>1.023244680713888</v>
       </c>
       <c r="N12">
-        <v>0.9975188567401081</v>
+        <v>1.011276797689126</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9653369101896214</v>
+        <v>0.9928384909451994</v>
       </c>
       <c r="D13">
-        <v>0.9900694372737525</v>
+        <v>1.014214876281255</v>
       </c>
       <c r="E13">
-        <v>0.9814944159823022</v>
+        <v>1.009103291641076</v>
       </c>
       <c r="F13">
-        <v>0.9803524987748279</v>
+        <v>1.008550313995002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029676664238683</v>
+        <v>1.04378989293217</v>
       </c>
       <c r="J13">
-        <v>0.9965860444187324</v>
+        <v>1.022855319606454</v>
       </c>
       <c r="K13">
-        <v>1.005344713887758</v>
+        <v>1.029031579340568</v>
       </c>
       <c r="L13">
-        <v>0.9969396955345128</v>
+        <v>1.024014685289572</v>
       </c>
       <c r="M13">
-        <v>0.9958207126194092</v>
+        <v>1.023472026479574</v>
       </c>
       <c r="N13">
-        <v>0.998001310911824</v>
+        <v>1.011328201186644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9673180359494253</v>
+        <v>0.993679487857127</v>
       </c>
       <c r="D14">
-        <v>0.9915780412374207</v>
+        <v>1.01484321041839</v>
       </c>
       <c r="E14">
-        <v>0.9834284508836947</v>
+        <v>1.009897935744495</v>
       </c>
       <c r="F14">
-        <v>0.9824238280765548</v>
+        <v>1.009452309398797</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030314178227216</v>
+        <v>1.044092289383174</v>
       </c>
       <c r="J14">
-        <v>0.9981542898166536</v>
+        <v>1.023353625714847</v>
       </c>
       <c r="K14">
-        <v>1.006677730428257</v>
+        <v>1.02950714029869</v>
       </c>
       <c r="L14">
-        <v>0.9986871875727142</v>
+        <v>1.024652301991053</v>
       </c>
       <c r="M14">
-        <v>0.9977024110119777</v>
+        <v>1.024214881718883</v>
       </c>
       <c r="N14">
-        <v>0.9995717833980904</v>
+        <v>1.011496117787154</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9685289412363484</v>
+        <v>0.994195810259652</v>
       </c>
       <c r="D15">
-        <v>0.9925003863862738</v>
+        <v>1.015229057996266</v>
       </c>
       <c r="E15">
-        <v>0.9846108308637057</v>
+        <v>1.010385953732464</v>
       </c>
       <c r="F15">
-        <v>0.9836901484461889</v>
+        <v>1.01000625894734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030703569212812</v>
+        <v>1.044277705590454</v>
       </c>
       <c r="J15">
-        <v>0.9991127797800993</v>
+        <v>1.023659495983339</v>
       </c>
       <c r="K15">
-        <v>1.007492411138363</v>
+        <v>1.029799014852749</v>
       </c>
       <c r="L15">
-        <v>0.9997553406841654</v>
+        <v>1.025043773971856</v>
       </c>
       <c r="M15">
-        <v>0.9988526618532809</v>
+        <v>1.024671013965698</v>
       </c>
       <c r="N15">
-        <v>1.000531634527225</v>
+        <v>1.011599188299497</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9754350854714875</v>
+        <v>0.9971734355992034</v>
       </c>
       <c r="D16">
-        <v>0.9977643435055654</v>
+        <v>1.017455512998364</v>
       </c>
       <c r="E16">
-        <v>0.9913580335166216</v>
+        <v>1.013202648870312</v>
       </c>
       <c r="F16">
-        <v>0.990916493073089</v>
+        <v>1.013203565328067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032920170995099</v>
+        <v>1.045343362679321</v>
       </c>
       <c r="J16">
-        <v>1.00457837650991</v>
+        <v>1.025422503569274</v>
       </c>
       <c r="K16">
-        <v>1.01213728426175</v>
+        <v>1.031480822369726</v>
       </c>
       <c r="L16">
-        <v>1.005847951939581</v>
+        <v>1.02730155803774</v>
       </c>
       <c r="M16">
-        <v>1.00541454652659</v>
+        <v>1.027302458549171</v>
       </c>
       <c r="N16">
-        <v>1.006004993031305</v>
+        <v>1.012193273081523</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9796490293439325</v>
+        <v>0.9990175038630199</v>
       </c>
       <c r="D17">
-        <v>1.000979091472524</v>
+        <v>1.01883544120726</v>
       </c>
       <c r="E17">
-        <v>0.9954781405168585</v>
+        <v>1.014949043463425</v>
       </c>
       <c r="F17">
-        <v>0.9953293713917318</v>
+        <v>1.015186031951078</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0342688664398</v>
+        <v>1.046000102616691</v>
       </c>
       <c r="J17">
-        <v>1.007912371384015</v>
+        <v>1.026513490375769</v>
       </c>
       <c r="K17">
-        <v>1.014969975419723</v>
+        <v>1.032521084662217</v>
       </c>
       <c r="L17">
-        <v>1.009565921576694</v>
+        <v>1.028699942244865</v>
       </c>
       <c r="M17">
-        <v>1.009419792261906</v>
+        <v>1.02893293307909</v>
       </c>
       <c r="N17">
-        <v>1.009343722560545</v>
+        <v>1.012560898630044</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9820669118334546</v>
+        <v>1.000084795757007</v>
       </c>
       <c r="D18">
-        <v>1.002824562628919</v>
+        <v>1.019634465361154</v>
       </c>
       <c r="E18">
-        <v>0.997843263362692</v>
+        <v>1.015960511004145</v>
       </c>
       <c r="F18">
-        <v>0.9978626500637354</v>
+        <v>1.016334266450468</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035041300269603</v>
+        <v>1.046379026096002</v>
       </c>
       <c r="J18">
-        <v>1.009824958302348</v>
+        <v>1.027144599993157</v>
       </c>
       <c r="K18">
-        <v>1.016594717910235</v>
+        <v>1.033122675670756</v>
       </c>
       <c r="L18">
-        <v>1.011699329027812</v>
+        <v>1.029509317216145</v>
       </c>
       <c r="M18">
-        <v>1.011718379222815</v>
+        <v>1.029876882408756</v>
       </c>
       <c r="N18">
-        <v>1.011259025571679</v>
+        <v>1.012773557413162</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9828847788061515</v>
+        <v>1.000447323924167</v>
       </c>
       <c r="D19">
-        <v>1.003448951811733</v>
+        <v>1.019905930322141</v>
       </c>
       <c r="E19">
-        <v>0.9986434632358072</v>
+        <v>1.016304196068631</v>
       </c>
       <c r="F19">
-        <v>0.9987197604651256</v>
+        <v>1.016724430945267</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035302335989643</v>
+        <v>1.046507534180632</v>
       </c>
       <c r="J19">
-        <v>1.010471833395967</v>
+        <v>1.027358914072185</v>
       </c>
       <c r="K19">
-        <v>1.017144190889808</v>
+        <v>1.033326935527281</v>
       </c>
       <c r="L19">
-        <v>1.012420984023115</v>
+        <v>1.029784242807719</v>
       </c>
       <c r="M19">
-        <v>1.012495966858343</v>
+        <v>1.030197561245875</v>
       </c>
       <c r="N19">
-        <v>1.011906819302129</v>
+        <v>1.012845771956816</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9792011084723068</v>
+        <v>0.9988205185389555</v>
       </c>
       <c r="D20">
-        <v>1.000637283174776</v>
+        <v>1.018687997717288</v>
       </c>
       <c r="E20">
-        <v>0.9950400803318243</v>
+        <v>1.014762418236222</v>
       </c>
       <c r="F20">
-        <v>0.9948601739536472</v>
+        <v>1.014974175364701</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034125653911567</v>
+        <v>1.045930070839768</v>
       </c>
       <c r="J20">
-        <v>1.00755802489167</v>
+        <v>1.026396983055083</v>
       </c>
       <c r="K20">
-        <v>1.014668935974787</v>
+        <v>1.032410012386414</v>
       </c>
       <c r="L20">
-        <v>1.009170708251439</v>
+        <v>1.028550561816948</v>
       </c>
       <c r="M20">
-        <v>1.008994007131668</v>
+        <v>1.028758734917316</v>
       </c>
       <c r="N20">
-        <v>1.008988872855537</v>
+        <v>1.012521639974996</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9667366879695087</v>
+        <v>0.9934322206344539</v>
       </c>
       <c r="D21">
-        <v>0.9911352975341969</v>
+        <v>1.014658451226913</v>
       </c>
       <c r="E21">
-        <v>0.9828608671872884</v>
+        <v>1.009664264931416</v>
       </c>
       <c r="F21">
-        <v>0.9818159515570355</v>
+        <v>1.009187070490655</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030127160364854</v>
+        <v>1.044003429191151</v>
       </c>
       <c r="J21">
-        <v>0.9976941098026674</v>
+        <v>1.023207127845921</v>
       </c>
       <c r="K21">
-        <v>1.006286583405079</v>
+        <v>1.029367336446755</v>
       </c>
       <c r="L21">
-        <v>0.9981743871428528</v>
+        <v>1.024464829185127</v>
       </c>
       <c r="M21">
-        <v>0.9971502144651059</v>
+        <v>1.023996456591235</v>
       </c>
       <c r="N21">
-        <v>0.9991109498757011</v>
+        <v>1.011446751702238</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9584814083875965</v>
+        <v>0.9899644648346857</v>
       </c>
       <c r="D22">
-        <v>0.9848532012043868</v>
+        <v>1.012068961424725</v>
       </c>
       <c r="E22">
-        <v>0.974805896883014</v>
+        <v>1.006389988473052</v>
       </c>
       <c r="F22">
-        <v>0.9731891766970711</v>
+        <v>1.005470492357161</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02746664907364</v>
+        <v>1.042752974543749</v>
       </c>
       <c r="J22">
-        <v>0.9911585951823302</v>
+        <v>1.021151535561214</v>
       </c>
       <c r="K22">
-        <v>1.000730811729656</v>
+        <v>1.027405062289934</v>
       </c>
       <c r="L22">
-        <v>0.9908935390575323</v>
+        <v>1.021835912459957</v>
       </c>
       <c r="M22">
-        <v>0.9893111518824665</v>
+        <v>1.020934351151856</v>
       </c>
       <c r="N22">
-        <v>0.9925661540749688</v>
+        <v>1.010754070975494</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9629004726770175</v>
+        <v>0.9918106131530129</v>
       </c>
       <c r="D23">
-        <v>0.9882148439925051</v>
+        <v>1.013447160114242</v>
       </c>
       <c r="E23">
-        <v>0.9791166084011297</v>
+        <v>1.008132485338772</v>
       </c>
       <c r="F23">
-        <v>0.9778059005068284</v>
+        <v>1.007448365325811</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028891908556929</v>
+        <v>1.043419660436793</v>
       </c>
       <c r="J23">
-        <v>0.9946572432691975</v>
+        <v>1.022246122839788</v>
       </c>
       <c r="K23">
-        <v>1.003705119462259</v>
+        <v>1.028450097414073</v>
       </c>
       <c r="L23">
-        <v>0.9947907347285272</v>
+        <v>1.02323541952326</v>
       </c>
       <c r="M23">
-        <v>0.9935068847070813</v>
+        <v>1.022564271609646</v>
       </c>
       <c r="N23">
-        <v>0.9960697706434202</v>
+        <v>1.011122917371127</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9794036277746071</v>
+        <v>0.9989095533933268</v>
       </c>
       <c r="D24">
-        <v>1.000791822797948</v>
+        <v>1.018754639174895</v>
       </c>
       <c r="E24">
-        <v>0.9952381379474416</v>
+        <v>1.014846768271793</v>
       </c>
       <c r="F24">
-        <v>0.995072309182701</v>
+        <v>1.015069929231048</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034190409298338</v>
+        <v>1.045961727966031</v>
       </c>
       <c r="J24">
-        <v>1.007718237482512</v>
+        <v>1.026449643876742</v>
       </c>
       <c r="K24">
-        <v>1.014805047394923</v>
+        <v>1.032460217136411</v>
       </c>
       <c r="L24">
-        <v>1.00934939647393</v>
+        <v>1.028618079769606</v>
       </c>
       <c r="M24">
-        <v>1.009186516763467</v>
+        <v>1.028837469401513</v>
       </c>
       <c r="N24">
-        <v>1.009149312966634</v>
+        <v>1.012539384734824</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9970015399281734</v>
+        <v>1.006823152017214</v>
       </c>
       <c r="D25">
-        <v>1.014236699792099</v>
+        <v>1.024684966891594</v>
       </c>
       <c r="E25">
-        <v>1.012469709721678</v>
+        <v>1.022358689171153</v>
       </c>
       <c r="F25">
-        <v>1.013531260394342</v>
+        <v>1.023598543129827</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039786147627853</v>
+        <v>1.048749949462527</v>
       </c>
       <c r="J25">
-        <v>1.021630237300843</v>
+        <v>1.031123051725311</v>
       </c>
       <c r="K25">
-        <v>1.02661795739008</v>
+        <v>1.036911795657651</v>
       </c>
       <c r="L25">
-        <v>1.024877485116628</v>
+        <v>1.034619554315415</v>
       </c>
       <c r="M25">
-        <v>1.025923090639678</v>
+        <v>1.03584124321242</v>
       </c>
       <c r="N25">
-        <v>1.023081069420436</v>
+        <v>1.014114032462269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01289708677887</v>
+        <v>1.038048763168817</v>
       </c>
       <c r="D2">
-        <v>1.029245496813836</v>
+        <v>1.041673378081424</v>
       </c>
       <c r="E2">
-        <v>1.028144904582791</v>
+        <v>1.051311232318664</v>
       </c>
       <c r="F2">
-        <v>1.030170091712285</v>
+        <v>1.058170631353529</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050851949661202</v>
+        <v>1.040545273721847</v>
       </c>
       <c r="J2">
-        <v>1.034698774010808</v>
+        <v>1.043148315267115</v>
       </c>
       <c r="K2">
-        <v>1.040311893336696</v>
+        <v>1.044452227391167</v>
       </c>
       <c r="L2">
-        <v>1.039225581582812</v>
+        <v>1.054063086190362</v>
       </c>
       <c r="M2">
-        <v>1.04122452088063</v>
+        <v>1.060903596684663</v>
       </c>
       <c r="N2">
-        <v>1.015318562242039</v>
+        <v>1.018303447963193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017179952905724</v>
+        <v>1.038946480183102</v>
       </c>
       <c r="D3">
-        <v>1.032465314208731</v>
+        <v>1.04236117998214</v>
       </c>
       <c r="E3">
-        <v>1.032236299157699</v>
+        <v>1.052229482881794</v>
       </c>
       <c r="F3">
-        <v>1.034818479378754</v>
+        <v>1.059230317303665</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052311344421141</v>
+        <v>1.040785481165968</v>
       </c>
       <c r="J3">
-        <v>1.03721298497702</v>
+        <v>1.043690924032695</v>
       </c>
       <c r="K3">
-        <v>1.042698986412747</v>
+        <v>1.044951027510634</v>
       </c>
       <c r="L3">
-        <v>1.042472678461549</v>
+        <v>1.054793685917362</v>
       </c>
       <c r="M3">
-        <v>1.045024421629479</v>
+        <v>1.061776639859837</v>
       </c>
       <c r="N3">
-        <v>1.016165286277988</v>
+        <v>1.018485015655082</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01989556265401</v>
+        <v>1.039527704346274</v>
       </c>
       <c r="D4">
-        <v>1.034508459829723</v>
+        <v>1.042806386335034</v>
       </c>
       <c r="E4">
-        <v>1.034835632166851</v>
+        <v>1.052824405708282</v>
       </c>
       <c r="F4">
-        <v>1.037772590211818</v>
+        <v>1.059917077632485</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053225907181917</v>
+        <v>1.040939679152881</v>
       </c>
       <c r="J4">
-        <v>1.038803675789535</v>
+        <v>1.044041727527264</v>
       </c>
       <c r="K4">
-        <v>1.044207500815009</v>
+        <v>1.045273259368733</v>
       </c>
       <c r="L4">
-        <v>1.044531043449102</v>
+        <v>1.055266554768278</v>
       </c>
       <c r="M4">
-        <v>1.047435544347286</v>
+        <v>1.062342026063751</v>
       </c>
       <c r="N4">
-        <v>1.016700867178876</v>
+        <v>1.018602357037038</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021024324972048</v>
+        <v>1.039772131637591</v>
       </c>
       <c r="D5">
-        <v>1.035358041011661</v>
+        <v>1.042993586251797</v>
       </c>
       <c r="E5">
-        <v>1.0359172729419</v>
+        <v>1.053074690370467</v>
       </c>
       <c r="F5">
-        <v>1.039002098897072</v>
+        <v>1.060206047322036</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053603426832534</v>
+        <v>1.041004208380006</v>
       </c>
       <c r="J5">
-        <v>1.039463995459278</v>
+        <v>1.044189132443138</v>
       </c>
       <c r="K5">
-        <v>1.044833276864484</v>
+        <v>1.045408598958205</v>
       </c>
       <c r="L5">
-        <v>1.045386472719024</v>
+        <v>1.055465376993169</v>
       </c>
       <c r="M5">
-        <v>1.048438145634719</v>
+        <v>1.062579825601461</v>
       </c>
       <c r="N5">
-        <v>1.016923161778356</v>
+        <v>1.018651652276042</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021213106592987</v>
+        <v>1.039813176754797</v>
       </c>
       <c r="D6">
-        <v>1.03550014885905</v>
+        <v>1.043025019964411</v>
       </c>
       <c r="E6">
-        <v>1.036098244171326</v>
+        <v>1.053116724733461</v>
       </c>
       <c r="F6">
-        <v>1.039207824616616</v>
+        <v>1.060254581562385</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053666410341781</v>
+        <v>1.041015025769446</v>
       </c>
       <c r="J6">
-        <v>1.039574380187551</v>
+        <v>1.044213878077817</v>
       </c>
       <c r="K6">
-        <v>1.044937861334972</v>
+        <v>1.045431315614216</v>
       </c>
       <c r="L6">
-        <v>1.045529531128279</v>
+        <v>1.055498761740685</v>
       </c>
       <c r="M6">
-        <v>1.048605850348636</v>
+        <v>1.062619759678506</v>
       </c>
       <c r="N6">
-        <v>1.016960320420929</v>
+        <v>1.018659927096378</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019910695257237</v>
+        <v>1.039530970080082</v>
       </c>
       <c r="D7">
-        <v>1.034519848369501</v>
+        <v>1.042808887573001</v>
       </c>
       <c r="E7">
-        <v>1.03485012828964</v>
+        <v>1.05282774932197</v>
       </c>
       <c r="F7">
-        <v>1.037789067097458</v>
+        <v>1.059920937856532</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053230978765594</v>
+        <v>1.040940542557842</v>
       </c>
       <c r="J7">
-        <v>1.03881253171953</v>
+        <v>1.044043697446425</v>
       </c>
       <c r="K7">
-        <v>1.044215895177823</v>
+        <v>1.045275068281929</v>
       </c>
       <c r="L7">
-        <v>1.044542512251818</v>
+        <v>1.055269211331228</v>
       </c>
       <c r="M7">
-        <v>1.047448984026988</v>
+        <v>1.062345203117302</v>
       </c>
       <c r="N7">
-        <v>1.016703848635666</v>
+        <v>1.018603015860707</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014356312170299</v>
+        <v>1.038352079559332</v>
       </c>
       <c r="D8">
-        <v>1.030342169967823</v>
+        <v>1.041905791560165</v>
       </c>
       <c r="E8">
-        <v>1.029537805041338</v>
+        <v>1.051621402672964</v>
       </c>
       <c r="F8">
-        <v>1.031752439227544</v>
+        <v>1.058528534388308</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051351422282697</v>
+        <v>1.040626707749272</v>
       </c>
       <c r="J8">
-        <v>1.035556109170419</v>
+        <v>1.043331754155518</v>
       </c>
       <c r="K8">
-        <v>1.041126243018578</v>
+        <v>1.044620907392605</v>
       </c>
       <c r="L8">
-        <v>1.040331997520853</v>
+        <v>1.05430996990713</v>
       </c>
       <c r="M8">
-        <v>1.042518817664246</v>
+        <v>1.061198547978797</v>
       </c>
       <c r="N8">
-        <v>1.01560731564245</v>
+        <v>1.018364839438335</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004120759963478</v>
+        <v>1.036277382993428</v>
       </c>
       <c r="D9">
-        <v>1.022658300171225</v>
+        <v>1.040315648741054</v>
       </c>
       <c r="E9">
-        <v>1.019790143533312</v>
+        <v>1.049501489849605</v>
       </c>
       <c r="F9">
-        <v>1.020682071739625</v>
+        <v>1.056083207628905</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04780370841114</v>
+        <v>1.040064279027695</v>
       </c>
       <c r="J9">
-        <v>1.029528838068335</v>
+        <v>1.042074955876281</v>
       </c>
       <c r="K9">
-        <v>1.035394155704308</v>
+        <v>1.043464212290454</v>
       </c>
       <c r="L9">
-        <v>1.032570096755631</v>
+        <v>1.052620644057561</v>
       </c>
       <c r="M9">
-        <v>1.033448277741212</v>
+        <v>1.059181633752955</v>
       </c>
       <c r="N9">
-        <v>1.01357691435377</v>
+        <v>1.017944046688513</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9969638960330653</v>
+        <v>1.034896100306422</v>
       </c>
       <c r="D10">
-        <v>1.017298764144341</v>
+        <v>1.039256458628659</v>
       </c>
       <c r="E10">
-        <v>1.013004304902737</v>
+        <v>1.048092203118264</v>
       </c>
       <c r="F10">
-        <v>1.012978414686433</v>
+        <v>1.054458614596557</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045268578521014</v>
+        <v>1.039683033498416</v>
       </c>
       <c r="J10">
-        <v>1.025298492970353</v>
+        <v>1.041235621167115</v>
       </c>
       <c r="K10">
-        <v>1.031362553890574</v>
+        <v>1.042690462465924</v>
       </c>
       <c r="L10">
-        <v>1.027142666234917</v>
+        <v>1.051495146810815</v>
       </c>
       <c r="M10">
-        <v>1.027117228075215</v>
+        <v>1.057839533630809</v>
       </c>
       <c r="N10">
-        <v>1.01215148529843</v>
+        <v>1.017662802325523</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9937781535726802</v>
+        <v>1.034298440416679</v>
       </c>
       <c r="D11">
-        <v>1.014916938149999</v>
+        <v>1.038798048889095</v>
       </c>
       <c r="E11">
-        <v>1.009991183634906</v>
+        <v>1.047482927431447</v>
       </c>
       <c r="F11">
-        <v>1.009558154919309</v>
+        <v>1.053756495767384</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044127735215886</v>
+        <v>1.039516464526057</v>
       </c>
       <c r="J11">
-        <v>1.023412079035079</v>
+        <v>1.040871842329798</v>
       </c>
       <c r="K11">
-        <v>1.029562921002839</v>
+        <v>1.042354810511364</v>
       </c>
       <c r="L11">
-        <v>1.024727108891228</v>
+        <v>1.051007977423573</v>
       </c>
       <c r="M11">
-        <v>1.024302041797448</v>
+        <v>1.057258997572115</v>
       </c>
       <c r="N11">
-        <v>1.011515815077676</v>
+        <v>1.017540854902196</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9925810807946444</v>
+        <v>1.0340765106684</v>
       </c>
       <c r="D12">
-        <v>1.014022592954861</v>
+        <v>1.038627810454006</v>
       </c>
       <c r="E12">
-        <v>1.008860130733245</v>
+        <v>1.047256759930871</v>
       </c>
       <c r="F12">
-        <v>1.008274304795117</v>
+        <v>1.053495900057752</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043697241568013</v>
+        <v>1.039454370509082</v>
       </c>
       <c r="J12">
-        <v>1.022702775546014</v>
+        <v>1.040736668223326</v>
       </c>
       <c r="K12">
-        <v>1.028885984518838</v>
+        <v>1.042230043211273</v>
       </c>
       <c r="L12">
-        <v>1.023819530706402</v>
+        <v>1.050827048791507</v>
       </c>
       <c r="M12">
-        <v>1.023244680713888</v>
+        <v>1.057043452096203</v>
       </c>
       <c r="N12">
-        <v>1.011276797689126</v>
+        <v>1.017495533479965</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9928384909451994</v>
+        <v>1.034124112271922</v>
       </c>
       <c r="D13">
-        <v>1.014214876281255</v>
+        <v>1.038664325555356</v>
       </c>
       <c r="E13">
-        <v>1.009103291641076</v>
+        <v>1.047305267064366</v>
       </c>
       <c r="F13">
-        <v>1.008550313995002</v>
+        <v>1.053551789542066</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04378989293217</v>
+        <v>1.039467699963763</v>
       </c>
       <c r="J13">
-        <v>1.022855319606454</v>
+        <v>1.040765665797486</v>
       </c>
       <c r="K13">
-        <v>1.029031579340568</v>
+        <v>1.042256810334033</v>
       </c>
       <c r="L13">
-        <v>1.024014685289572</v>
+        <v>1.050865857324959</v>
       </c>
       <c r="M13">
-        <v>1.023472026479574</v>
+        <v>1.057089683177443</v>
       </c>
       <c r="N13">
-        <v>1.011328201186644</v>
+        <v>1.017505256192127</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.993679487857127</v>
+        <v>1.034280094246984</v>
       </c>
       <c r="D14">
-        <v>1.01484321041839</v>
+        <v>1.038783976198164</v>
       </c>
       <c r="E14">
-        <v>1.009897935744495</v>
+        <v>1.047464229398341</v>
       </c>
       <c r="F14">
-        <v>1.009452309398797</v>
+        <v>1.053734950707922</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044092289383174</v>
+        <v>1.03951133635887</v>
       </c>
       <c r="J14">
-        <v>1.023353625714847</v>
+        <v>1.040860669820283</v>
       </c>
       <c r="K14">
-        <v>1.02950714029869</v>
+        <v>1.042344499063036</v>
       </c>
       <c r="L14">
-        <v>1.024652301991053</v>
+        <v>1.050993021234268</v>
       </c>
       <c r="M14">
-        <v>1.024214881718883</v>
+        <v>1.057241178644198</v>
       </c>
       <c r="N14">
-        <v>1.011496117787154</v>
+        <v>1.017537109121634</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.994195810259652</v>
+        <v>1.034376208895162</v>
       </c>
       <c r="D15">
-        <v>1.015229057996266</v>
+        <v>1.038857701632032</v>
       </c>
       <c r="E15">
-        <v>1.010385953732464</v>
+        <v>1.047562190537114</v>
       </c>
       <c r="F15">
-        <v>1.01000625894734</v>
+        <v>1.053847829210468</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044277705590454</v>
+        <v>1.039538192664013</v>
       </c>
       <c r="J15">
-        <v>1.023659495983339</v>
+        <v>1.040919198274355</v>
       </c>
       <c r="K15">
-        <v>1.029799014852749</v>
+        <v>1.04239851492266</v>
       </c>
       <c r="L15">
-        <v>1.025043773971856</v>
+        <v>1.051071374824668</v>
       </c>
       <c r="M15">
-        <v>1.024671013965698</v>
+        <v>1.057334532151121</v>
       </c>
       <c r="N15">
-        <v>1.011599188299497</v>
+        <v>1.017556731497202</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9971734355992034</v>
+        <v>1.034935774473364</v>
       </c>
       <c r="D16">
-        <v>1.017455512998364</v>
+        <v>1.039286886659033</v>
       </c>
       <c r="E16">
-        <v>1.013202648870312</v>
+        <v>1.04813265895506</v>
       </c>
       <c r="F16">
-        <v>1.013203565328067</v>
+        <v>1.054505240248093</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045343362679321</v>
+        <v>1.039694056846389</v>
       </c>
       <c r="J16">
-        <v>1.025422503569274</v>
+        <v>1.0412597568497</v>
       </c>
       <c r="K16">
-        <v>1.031480822369726</v>
+        <v>1.042712725738914</v>
       </c>
       <c r="L16">
-        <v>1.02730155803774</v>
+        <v>1.051527482479338</v>
       </c>
       <c r="M16">
-        <v>1.027302458549171</v>
+        <v>1.057878074668842</v>
       </c>
       <c r="N16">
-        <v>1.012193273081523</v>
+        <v>1.017670892089493</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9990175038630199</v>
+        <v>1.035286894882906</v>
       </c>
       <c r="D17">
-        <v>1.01883544120726</v>
+        <v>1.039556164674206</v>
       </c>
       <c r="E17">
-        <v>1.014949043463425</v>
+        <v>1.048490755169048</v>
       </c>
       <c r="F17">
-        <v>1.015186031951078</v>
+        <v>1.054917976510151</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046000102616691</v>
+        <v>1.039791428562132</v>
       </c>
       <c r="J17">
-        <v>1.026513490375769</v>
+        <v>1.041473289443452</v>
       </c>
       <c r="K17">
-        <v>1.032521084662217</v>
+        <v>1.042909658355952</v>
       </c>
       <c r="L17">
-        <v>1.028699942244865</v>
+        <v>1.051813635197283</v>
       </c>
       <c r="M17">
-        <v>1.02893293307909</v>
+        <v>1.058219186446698</v>
       </c>
       <c r="N17">
-        <v>1.012560898630044</v>
+        <v>1.017742457602872</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000084795757007</v>
+        <v>1.035491740313971</v>
       </c>
       <c r="D18">
-        <v>1.019634465361154</v>
+        <v>1.039713251757237</v>
       </c>
       <c r="E18">
-        <v>1.015960511004145</v>
+        <v>1.048699718674547</v>
       </c>
       <c r="F18">
-        <v>1.016334266450468</v>
+        <v>1.055158847872948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046379026096002</v>
+        <v>1.039848080312408</v>
       </c>
       <c r="J18">
-        <v>1.027144599993157</v>
+        <v>1.041597806399254</v>
       </c>
       <c r="K18">
-        <v>1.033122675670756</v>
+        <v>1.043024466596588</v>
       </c>
       <c r="L18">
-        <v>1.029509317216145</v>
+        <v>1.051980560378838</v>
       </c>
       <c r="M18">
-        <v>1.029876882408756</v>
+        <v>1.058418209207269</v>
       </c>
       <c r="N18">
-        <v>1.012773557413162</v>
+        <v>1.017784184443884</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000447323924167</v>
+        <v>1.035561594549423</v>
       </c>
       <c r="D19">
-        <v>1.019905930322141</v>
+        <v>1.039766818046082</v>
       </c>
       <c r="E19">
-        <v>1.016304196068631</v>
+        <v>1.048770985406103</v>
       </c>
       <c r="F19">
-        <v>1.016724430945267</v>
+        <v>1.05524100067949</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046507534180632</v>
+        <v>1.039867372734589</v>
       </c>
       <c r="J19">
-        <v>1.027358914072185</v>
+        <v>1.04164025784164</v>
       </c>
       <c r="K19">
-        <v>1.033326935527281</v>
+        <v>1.043063603167002</v>
       </c>
       <c r="L19">
-        <v>1.029784242807719</v>
+        <v>1.05203748043005</v>
       </c>
       <c r="M19">
-        <v>1.030197561245875</v>
+        <v>1.05848608063827</v>
       </c>
       <c r="N19">
-        <v>1.012845771956816</v>
+        <v>1.017798409475288</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9988205185389555</v>
+        <v>1.035249218548273</v>
       </c>
       <c r="D20">
-        <v>1.018687997717288</v>
+        <v>1.039527271430051</v>
       </c>
       <c r="E20">
-        <v>1.014762418236222</v>
+        <v>1.048452325305388</v>
       </c>
       <c r="F20">
-        <v>1.014974175364701</v>
+        <v>1.054873680435145</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045930070839768</v>
+        <v>1.039780996339993</v>
       </c>
       <c r="J20">
-        <v>1.026396983055083</v>
+        <v>1.041450382823588</v>
       </c>
       <c r="K20">
-        <v>1.032410012386414</v>
+        <v>1.042888535469068</v>
       </c>
       <c r="L20">
-        <v>1.028550561816948</v>
+        <v>1.051782931938573</v>
       </c>
       <c r="M20">
-        <v>1.028758734917316</v>
+        <v>1.058182582371449</v>
       </c>
       <c r="N20">
-        <v>1.012521639974996</v>
+        <v>1.017734780964711</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9934322206344539</v>
+        <v>1.034234159565359</v>
       </c>
       <c r="D21">
-        <v>1.014658451226913</v>
+        <v>1.038748741079618</v>
       </c>
       <c r="E21">
-        <v>1.009664264931416</v>
+        <v>1.047417414951426</v>
       </c>
       <c r="F21">
-        <v>1.009187070490655</v>
+        <v>1.053681008711598</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044003429191151</v>
+        <v>1.039498492676451</v>
       </c>
       <c r="J21">
-        <v>1.023207127845921</v>
+        <v>1.040832694889389</v>
       </c>
       <c r="K21">
-        <v>1.029367336446755</v>
+        <v>1.042318679428771</v>
       </c>
       <c r="L21">
-        <v>1.024464829185127</v>
+        <v>1.05095557385804</v>
       </c>
       <c r="M21">
-        <v>1.023996456591235</v>
+        <v>1.05719656447226</v>
       </c>
       <c r="N21">
-        <v>1.011446751702238</v>
+        <v>1.017527729907505</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9899644648346857</v>
+        <v>1.033596344120913</v>
       </c>
       <c r="D22">
-        <v>1.012068961424725</v>
+        <v>1.038259453338478</v>
       </c>
       <c r="E22">
-        <v>1.006389988473052</v>
+        <v>1.046767563031548</v>
       </c>
       <c r="F22">
-        <v>1.005470492357161</v>
+        <v>1.052932300709601</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042752974543749</v>
+        <v>1.039319582141273</v>
       </c>
       <c r="J22">
-        <v>1.021151535561214</v>
+        <v>1.040444038502235</v>
       </c>
       <c r="K22">
-        <v>1.027405062289934</v>
+        <v>1.041959860999659</v>
       </c>
       <c r="L22">
-        <v>1.021835912459957</v>
+        <v>1.050435542145304</v>
       </c>
       <c r="M22">
-        <v>1.020934351151856</v>
+        <v>1.056577145566912</v>
       </c>
       <c r="N22">
-        <v>1.010754070975494</v>
+        <v>1.017397405835978</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9918106131530129</v>
+        <v>1.03393442464188</v>
       </c>
       <c r="D23">
-        <v>1.013447160114242</v>
+        <v>1.038518814139866</v>
       </c>
       <c r="E23">
-        <v>1.008132485338772</v>
+        <v>1.047111982071306</v>
       </c>
       <c r="F23">
-        <v>1.007448365325811</v>
+        <v>1.053329093534535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043419660436793</v>
+        <v>1.039414548027436</v>
       </c>
       <c r="J23">
-        <v>1.022246122839788</v>
+        <v>1.040650099954316</v>
       </c>
       <c r="K23">
-        <v>1.028450097414073</v>
+        <v>1.042150127120031</v>
       </c>
       <c r="L23">
-        <v>1.02323541952326</v>
+        <v>1.050711205194337</v>
       </c>
       <c r="M23">
-        <v>1.022564271609646</v>
+        <v>1.056905460706451</v>
       </c>
       <c r="N23">
-        <v>1.011122917371127</v>
+        <v>1.01746650652148</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9989095533933268</v>
+        <v>1.035266242729837</v>
       </c>
       <c r="D24">
-        <v>1.018754639174895</v>
+        <v>1.039540326976252</v>
       </c>
       <c r="E24">
-        <v>1.014846768271793</v>
+        <v>1.048469689822286</v>
       </c>
       <c r="F24">
-        <v>1.015069929231048</v>
+        <v>1.054893695525343</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045961727966031</v>
+        <v>1.039785710655633</v>
       </c>
       <c r="J24">
-        <v>1.026449643876742</v>
+        <v>1.041460733441113</v>
       </c>
       <c r="K24">
-        <v>1.032460217136411</v>
+        <v>1.042898080175495</v>
       </c>
       <c r="L24">
-        <v>1.028618079769606</v>
+        <v>1.051796805366687</v>
       </c>
       <c r="M24">
-        <v>1.028837469401513</v>
+        <v>1.058199121998211</v>
       </c>
       <c r="N24">
-        <v>1.012539384734824</v>
+        <v>1.017738249756873</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006823152017214</v>
+        <v>1.03681342044104</v>
       </c>
       <c r="D25">
-        <v>1.024684966891594</v>
+        <v>1.040726585069395</v>
       </c>
       <c r="E25">
-        <v>1.022358689171153</v>
+        <v>1.050048840458469</v>
       </c>
       <c r="F25">
-        <v>1.023598543129827</v>
+        <v>1.05671439673117</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048749949462527</v>
+        <v>1.040210792082287</v>
       </c>
       <c r="J25">
-        <v>1.031123051725311</v>
+        <v>1.042400131157017</v>
       </c>
       <c r="K25">
-        <v>1.036911795657651</v>
+        <v>1.04376371156482</v>
       </c>
       <c r="L25">
-        <v>1.034619554315415</v>
+        <v>1.053057252853841</v>
       </c>
       <c r="M25">
-        <v>1.03584124321242</v>
+        <v>1.05970261675221</v>
       </c>
       <c r="N25">
-        <v>1.014114032462269</v>
+        <v>1.018052959389083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038048763168817</v>
+        <v>1.01289708677887</v>
       </c>
       <c r="D2">
-        <v>1.041673378081424</v>
+        <v>1.029245496813836</v>
       </c>
       <c r="E2">
-        <v>1.051311232318664</v>
+        <v>1.028144904582791</v>
       </c>
       <c r="F2">
-        <v>1.058170631353529</v>
+        <v>1.030170091712285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040545273721847</v>
+        <v>1.050851949661202</v>
       </c>
       <c r="J2">
-        <v>1.043148315267115</v>
+        <v>1.034698774010808</v>
       </c>
       <c r="K2">
-        <v>1.044452227391167</v>
+        <v>1.040311893336696</v>
       </c>
       <c r="L2">
-        <v>1.054063086190362</v>
+        <v>1.039225581582812</v>
       </c>
       <c r="M2">
-        <v>1.060903596684663</v>
+        <v>1.04122452088063</v>
       </c>
       <c r="N2">
-        <v>1.018303447963193</v>
+        <v>1.015318562242039</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038946480183102</v>
+        <v>1.017179952905723</v>
       </c>
       <c r="D3">
-        <v>1.04236117998214</v>
+        <v>1.032465314208731</v>
       </c>
       <c r="E3">
-        <v>1.052229482881794</v>
+        <v>1.032236299157698</v>
       </c>
       <c r="F3">
-        <v>1.059230317303665</v>
+        <v>1.034818479378753</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040785481165968</v>
+        <v>1.052311344421141</v>
       </c>
       <c r="J3">
-        <v>1.043690924032695</v>
+        <v>1.037212984977019</v>
       </c>
       <c r="K3">
-        <v>1.044951027510634</v>
+        <v>1.042698986412747</v>
       </c>
       <c r="L3">
-        <v>1.054793685917362</v>
+        <v>1.042472678461549</v>
       </c>
       <c r="M3">
-        <v>1.061776639859837</v>
+        <v>1.045024421629479</v>
       </c>
       <c r="N3">
-        <v>1.018485015655082</v>
+        <v>1.016165286277987</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039527704346274</v>
+        <v>1.01989556265401</v>
       </c>
       <c r="D4">
-        <v>1.042806386335034</v>
+        <v>1.034508459829723</v>
       </c>
       <c r="E4">
-        <v>1.052824405708282</v>
+        <v>1.034835632166851</v>
       </c>
       <c r="F4">
-        <v>1.059917077632485</v>
+        <v>1.037772590211818</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040939679152881</v>
+        <v>1.053225907181917</v>
       </c>
       <c r="J4">
-        <v>1.044041727527264</v>
+        <v>1.038803675789535</v>
       </c>
       <c r="K4">
-        <v>1.045273259368733</v>
+        <v>1.044207500815009</v>
       </c>
       <c r="L4">
-        <v>1.055266554768278</v>
+        <v>1.044531043449102</v>
       </c>
       <c r="M4">
-        <v>1.062342026063751</v>
+        <v>1.047435544347286</v>
       </c>
       <c r="N4">
-        <v>1.018602357037038</v>
+        <v>1.016700867178876</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039772131637591</v>
+        <v>1.021024324972047</v>
       </c>
       <c r="D5">
-        <v>1.042993586251797</v>
+        <v>1.035358041011659</v>
       </c>
       <c r="E5">
-        <v>1.053074690370467</v>
+        <v>1.035917272941898</v>
       </c>
       <c r="F5">
-        <v>1.060206047322036</v>
+        <v>1.039002098897071</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041004208380006</v>
+        <v>1.053603426832533</v>
       </c>
       <c r="J5">
-        <v>1.044189132443138</v>
+        <v>1.039463995459277</v>
       </c>
       <c r="K5">
-        <v>1.045408598958205</v>
+        <v>1.044833276864483</v>
       </c>
       <c r="L5">
-        <v>1.055465376993169</v>
+        <v>1.045386472719023</v>
       </c>
       <c r="M5">
-        <v>1.062579825601461</v>
+        <v>1.048438145634717</v>
       </c>
       <c r="N5">
-        <v>1.018651652276042</v>
+        <v>1.016923161778356</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039813176754797</v>
+        <v>1.021213106592987</v>
       </c>
       <c r="D6">
-        <v>1.043025019964411</v>
+        <v>1.035500148859051</v>
       </c>
       <c r="E6">
-        <v>1.053116724733461</v>
+        <v>1.036098244171326</v>
       </c>
       <c r="F6">
-        <v>1.060254581562385</v>
+        <v>1.039207824616616</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041015025769446</v>
+        <v>1.053666410341781</v>
       </c>
       <c r="J6">
-        <v>1.044213878077817</v>
+        <v>1.039574380187552</v>
       </c>
       <c r="K6">
-        <v>1.045431315614216</v>
+        <v>1.044937861334972</v>
       </c>
       <c r="L6">
-        <v>1.055498761740685</v>
+        <v>1.045529531128279</v>
       </c>
       <c r="M6">
-        <v>1.062619759678506</v>
+        <v>1.048605850348636</v>
       </c>
       <c r="N6">
-        <v>1.018659927096378</v>
+        <v>1.016960320420929</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039530970080082</v>
+        <v>1.019910695257237</v>
       </c>
       <c r="D7">
-        <v>1.042808887573001</v>
+        <v>1.034519848369502</v>
       </c>
       <c r="E7">
-        <v>1.05282774932197</v>
+        <v>1.03485012828964</v>
       </c>
       <c r="F7">
-        <v>1.059920937856532</v>
+        <v>1.037789067097458</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040940542557842</v>
+        <v>1.053230978765594</v>
       </c>
       <c r="J7">
-        <v>1.044043697446425</v>
+        <v>1.03881253171953</v>
       </c>
       <c r="K7">
-        <v>1.045275068281929</v>
+        <v>1.044215895177824</v>
       </c>
       <c r="L7">
-        <v>1.055269211331228</v>
+        <v>1.044542512251818</v>
       </c>
       <c r="M7">
-        <v>1.062345203117302</v>
+        <v>1.047448984026989</v>
       </c>
       <c r="N7">
-        <v>1.018603015860707</v>
+        <v>1.016703848635667</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038352079559332</v>
+        <v>1.014356312170299</v>
       </c>
       <c r="D8">
-        <v>1.041905791560165</v>
+        <v>1.030342169967822</v>
       </c>
       <c r="E8">
-        <v>1.051621402672964</v>
+        <v>1.029537805041337</v>
       </c>
       <c r="F8">
-        <v>1.058528534388308</v>
+        <v>1.031752439227543</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040626707749272</v>
+        <v>1.051351422282697</v>
       </c>
       <c r="J8">
-        <v>1.043331754155518</v>
+        <v>1.035556109170419</v>
       </c>
       <c r="K8">
-        <v>1.044620907392605</v>
+        <v>1.041126243018578</v>
       </c>
       <c r="L8">
-        <v>1.05430996990713</v>
+        <v>1.040331997520852</v>
       </c>
       <c r="M8">
-        <v>1.061198547978797</v>
+        <v>1.042518817664245</v>
       </c>
       <c r="N8">
-        <v>1.018364839438335</v>
+        <v>1.01560731564245</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036277382993428</v>
+        <v>1.004120759963479</v>
       </c>
       <c r="D9">
-        <v>1.040315648741054</v>
+        <v>1.022658300171226</v>
       </c>
       <c r="E9">
-        <v>1.049501489849605</v>
+        <v>1.019790143533312</v>
       </c>
       <c r="F9">
-        <v>1.056083207628905</v>
+        <v>1.020682071739625</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040064279027695</v>
+        <v>1.04780370841114</v>
       </c>
       <c r="J9">
-        <v>1.042074955876281</v>
+        <v>1.029528838068335</v>
       </c>
       <c r="K9">
-        <v>1.043464212290454</v>
+        <v>1.035394155704309</v>
       </c>
       <c r="L9">
-        <v>1.052620644057561</v>
+        <v>1.032570096755631</v>
       </c>
       <c r="M9">
-        <v>1.059181633752955</v>
+        <v>1.033448277741212</v>
       </c>
       <c r="N9">
-        <v>1.017944046688513</v>
+        <v>1.01357691435377</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034896100306422</v>
+        <v>0.9969638960330643</v>
       </c>
       <c r="D10">
-        <v>1.039256458628659</v>
+        <v>1.01729876414434</v>
       </c>
       <c r="E10">
-        <v>1.048092203118264</v>
+        <v>1.013004304902736</v>
       </c>
       <c r="F10">
-        <v>1.054458614596557</v>
+        <v>1.012978414686432</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039683033498416</v>
+        <v>1.045268578521014</v>
       </c>
       <c r="J10">
-        <v>1.041235621167115</v>
+        <v>1.025298492970352</v>
       </c>
       <c r="K10">
-        <v>1.042690462465924</v>
+        <v>1.031362553890573</v>
       </c>
       <c r="L10">
-        <v>1.051495146810815</v>
+        <v>1.027142666234916</v>
       </c>
       <c r="M10">
-        <v>1.057839533630809</v>
+        <v>1.027117228075214</v>
       </c>
       <c r="N10">
-        <v>1.017662802325523</v>
+        <v>1.01215148529843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034298440416679</v>
+        <v>0.9937781535726808</v>
       </c>
       <c r="D11">
-        <v>1.038798048889095</v>
+        <v>1.014916938149999</v>
       </c>
       <c r="E11">
-        <v>1.047482927431447</v>
+        <v>1.009991183634907</v>
       </c>
       <c r="F11">
-        <v>1.053756495767384</v>
+        <v>1.00955815491931</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039516464526057</v>
+        <v>1.044127735215886</v>
       </c>
       <c r="J11">
-        <v>1.040871842329798</v>
+        <v>1.02341207903508</v>
       </c>
       <c r="K11">
-        <v>1.042354810511364</v>
+        <v>1.029562921002839</v>
       </c>
       <c r="L11">
-        <v>1.051007977423573</v>
+        <v>1.024727108891229</v>
       </c>
       <c r="M11">
-        <v>1.057258997572115</v>
+        <v>1.024302041797448</v>
       </c>
       <c r="N11">
-        <v>1.017540854902196</v>
+        <v>1.011515815077676</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0340765106684</v>
+        <v>0.9925810807946441</v>
       </c>
       <c r="D12">
-        <v>1.038627810454006</v>
+        <v>1.014022592954861</v>
       </c>
       <c r="E12">
-        <v>1.047256759930871</v>
+        <v>1.008860130733245</v>
       </c>
       <c r="F12">
-        <v>1.053495900057752</v>
+        <v>1.008274304795117</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039454370509082</v>
+        <v>1.043697241568012</v>
       </c>
       <c r="J12">
-        <v>1.040736668223326</v>
+        <v>1.022702775546013</v>
       </c>
       <c r="K12">
-        <v>1.042230043211273</v>
+        <v>1.028885984518837</v>
       </c>
       <c r="L12">
-        <v>1.050827048791507</v>
+        <v>1.023819530706402</v>
       </c>
       <c r="M12">
-        <v>1.057043452096203</v>
+        <v>1.023244680713888</v>
       </c>
       <c r="N12">
-        <v>1.017495533479965</v>
+        <v>1.011276797689126</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034124112271922</v>
+        <v>0.9928384909451992</v>
       </c>
       <c r="D13">
-        <v>1.038664325555356</v>
+        <v>1.014214876281255</v>
       </c>
       <c r="E13">
-        <v>1.047305267064366</v>
+        <v>1.009103291641076</v>
       </c>
       <c r="F13">
-        <v>1.053551789542066</v>
+        <v>1.008550313995002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039467699963763</v>
+        <v>1.04378989293217</v>
       </c>
       <c r="J13">
-        <v>1.040765665797486</v>
+        <v>1.022855319606454</v>
       </c>
       <c r="K13">
-        <v>1.042256810334033</v>
+        <v>1.029031579340568</v>
       </c>
       <c r="L13">
-        <v>1.050865857324959</v>
+        <v>1.024014685289572</v>
       </c>
       <c r="M13">
-        <v>1.057089683177443</v>
+        <v>1.023472026479573</v>
       </c>
       <c r="N13">
-        <v>1.017505256192127</v>
+        <v>1.011328201186644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034280094246984</v>
+        <v>0.9936794878571265</v>
       </c>
       <c r="D14">
-        <v>1.038783976198164</v>
+        <v>1.014843210418389</v>
       </c>
       <c r="E14">
-        <v>1.047464229398341</v>
+        <v>1.009897935744494</v>
       </c>
       <c r="F14">
-        <v>1.053734950707922</v>
+        <v>1.009452309398797</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03951133635887</v>
+        <v>1.044092289383173</v>
       </c>
       <c r="J14">
-        <v>1.040860669820283</v>
+        <v>1.023353625714847</v>
       </c>
       <c r="K14">
-        <v>1.042344499063036</v>
+        <v>1.02950714029869</v>
       </c>
       <c r="L14">
-        <v>1.050993021234268</v>
+        <v>1.024652301991052</v>
       </c>
       <c r="M14">
-        <v>1.057241178644198</v>
+        <v>1.024214881718882</v>
       </c>
       <c r="N14">
-        <v>1.017537109121634</v>
+        <v>1.011496117787154</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034376208895162</v>
+        <v>0.9941958102596514</v>
       </c>
       <c r="D15">
-        <v>1.038857701632032</v>
+        <v>1.015229057996266</v>
       </c>
       <c r="E15">
-        <v>1.047562190537114</v>
+        <v>1.010385953732464</v>
       </c>
       <c r="F15">
-        <v>1.053847829210468</v>
+        <v>1.01000625894734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039538192664013</v>
+        <v>1.044277705590454</v>
       </c>
       <c r="J15">
-        <v>1.040919198274355</v>
+        <v>1.023659495983339</v>
       </c>
       <c r="K15">
-        <v>1.04239851492266</v>
+        <v>1.029799014852749</v>
       </c>
       <c r="L15">
-        <v>1.051071374824668</v>
+        <v>1.025043773971856</v>
       </c>
       <c r="M15">
-        <v>1.057334532151121</v>
+        <v>1.024671013965698</v>
       </c>
       <c r="N15">
-        <v>1.017556731497202</v>
+        <v>1.011599188299496</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034935774473364</v>
+        <v>0.9971734355992039</v>
       </c>
       <c r="D16">
-        <v>1.039286886659033</v>
+        <v>1.017455512998365</v>
       </c>
       <c r="E16">
-        <v>1.04813265895506</v>
+        <v>1.013202648870313</v>
       </c>
       <c r="F16">
-        <v>1.054505240248093</v>
+        <v>1.013203565328067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039694056846389</v>
+        <v>1.045343362679322</v>
       </c>
       <c r="J16">
-        <v>1.0412597568497</v>
+        <v>1.025422503569275</v>
       </c>
       <c r="K16">
-        <v>1.042712725738914</v>
+        <v>1.031480822369726</v>
       </c>
       <c r="L16">
-        <v>1.051527482479338</v>
+        <v>1.02730155803774</v>
       </c>
       <c r="M16">
-        <v>1.057878074668842</v>
+        <v>1.027302458549172</v>
       </c>
       <c r="N16">
-        <v>1.017670892089493</v>
+        <v>1.012193273081523</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035286894882906</v>
+        <v>0.9990175038630191</v>
       </c>
       <c r="D17">
-        <v>1.039556164674206</v>
+        <v>1.018835441207259</v>
       </c>
       <c r="E17">
-        <v>1.048490755169048</v>
+        <v>1.014949043463425</v>
       </c>
       <c r="F17">
-        <v>1.054917976510151</v>
+        <v>1.015186031951077</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039791428562132</v>
+        <v>1.04600010261669</v>
       </c>
       <c r="J17">
-        <v>1.041473289443452</v>
+        <v>1.026513490375768</v>
       </c>
       <c r="K17">
-        <v>1.042909658355952</v>
+        <v>1.032521084662216</v>
       </c>
       <c r="L17">
-        <v>1.051813635197283</v>
+        <v>1.028699942244864</v>
       </c>
       <c r="M17">
-        <v>1.058219186446698</v>
+        <v>1.02893293307909</v>
       </c>
       <c r="N17">
-        <v>1.017742457602872</v>
+        <v>1.012560898630044</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035491740313971</v>
+        <v>1.000084795757007</v>
       </c>
       <c r="D18">
-        <v>1.039713251757237</v>
+        <v>1.019634465361153</v>
       </c>
       <c r="E18">
-        <v>1.048699718674547</v>
+        <v>1.015960511004145</v>
       </c>
       <c r="F18">
-        <v>1.055158847872948</v>
+        <v>1.016334266450467</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039848080312408</v>
+        <v>1.046379026096001</v>
       </c>
       <c r="J18">
-        <v>1.041597806399254</v>
+        <v>1.027144599993156</v>
       </c>
       <c r="K18">
-        <v>1.043024466596588</v>
+        <v>1.033122675670755</v>
       </c>
       <c r="L18">
-        <v>1.051980560378838</v>
+        <v>1.029509317216144</v>
       </c>
       <c r="M18">
-        <v>1.058418209207269</v>
+        <v>1.029876882408756</v>
       </c>
       <c r="N18">
-        <v>1.017784184443884</v>
+        <v>1.012773557413161</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035561594549423</v>
+        <v>1.000447323924167</v>
       </c>
       <c r="D19">
-        <v>1.039766818046082</v>
+        <v>1.01990593032214</v>
       </c>
       <c r="E19">
-        <v>1.048770985406103</v>
+        <v>1.016304196068631</v>
       </c>
       <c r="F19">
-        <v>1.05524100067949</v>
+        <v>1.016724430945267</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039867372734589</v>
+        <v>1.046507534180631</v>
       </c>
       <c r="J19">
-        <v>1.04164025784164</v>
+        <v>1.027358914072184</v>
       </c>
       <c r="K19">
-        <v>1.043063603167002</v>
+        <v>1.03332693552728</v>
       </c>
       <c r="L19">
-        <v>1.05203748043005</v>
+        <v>1.029784242807718</v>
       </c>
       <c r="M19">
-        <v>1.05848608063827</v>
+        <v>1.030197561245875</v>
       </c>
       <c r="N19">
-        <v>1.017798409475288</v>
+        <v>1.012845771956816</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035249218548273</v>
+        <v>0.9988205185389545</v>
       </c>
       <c r="D20">
-        <v>1.039527271430051</v>
+        <v>1.018687997717287</v>
       </c>
       <c r="E20">
-        <v>1.048452325305388</v>
+        <v>1.014762418236221</v>
       </c>
       <c r="F20">
-        <v>1.054873680435145</v>
+        <v>1.014974175364699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039780996339993</v>
+        <v>1.045930070839768</v>
       </c>
       <c r="J20">
-        <v>1.041450382823588</v>
+        <v>1.026396983055082</v>
       </c>
       <c r="K20">
-        <v>1.042888535469068</v>
+        <v>1.032410012386414</v>
       </c>
       <c r="L20">
-        <v>1.051782931938573</v>
+        <v>1.028550561816947</v>
       </c>
       <c r="M20">
-        <v>1.058182582371449</v>
+        <v>1.028758734917315</v>
       </c>
       <c r="N20">
-        <v>1.017734780964711</v>
+        <v>1.012521639974995</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034234159565359</v>
+        <v>0.9934322206344537</v>
       </c>
       <c r="D21">
-        <v>1.038748741079618</v>
+        <v>1.014658451226913</v>
       </c>
       <c r="E21">
-        <v>1.047417414951426</v>
+        <v>1.009664264931416</v>
       </c>
       <c r="F21">
-        <v>1.053681008711598</v>
+        <v>1.009187070490655</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039498492676451</v>
+        <v>1.044003429191151</v>
       </c>
       <c r="J21">
-        <v>1.040832694889389</v>
+        <v>1.02320712784592</v>
       </c>
       <c r="K21">
-        <v>1.042318679428771</v>
+        <v>1.029367336446755</v>
       </c>
       <c r="L21">
-        <v>1.05095557385804</v>
+        <v>1.024464829185127</v>
       </c>
       <c r="M21">
-        <v>1.05719656447226</v>
+        <v>1.023996456591235</v>
       </c>
       <c r="N21">
-        <v>1.017527729907505</v>
+        <v>1.011446751702238</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033596344120913</v>
+        <v>0.9899644648346859</v>
       </c>
       <c r="D22">
-        <v>1.038259453338478</v>
+        <v>1.012068961424725</v>
       </c>
       <c r="E22">
-        <v>1.046767563031548</v>
+        <v>1.006389988473052</v>
       </c>
       <c r="F22">
-        <v>1.052932300709601</v>
+        <v>1.005470492357162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039319582141273</v>
+        <v>1.042752974543749</v>
       </c>
       <c r="J22">
-        <v>1.040444038502235</v>
+        <v>1.021151535561215</v>
       </c>
       <c r="K22">
-        <v>1.041959860999659</v>
+        <v>1.027405062289934</v>
       </c>
       <c r="L22">
-        <v>1.050435542145304</v>
+        <v>1.021835912459957</v>
       </c>
       <c r="M22">
-        <v>1.056577145566912</v>
+        <v>1.020934351151857</v>
       </c>
       <c r="N22">
-        <v>1.017397405835978</v>
+        <v>1.010754070975494</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03393442464188</v>
+        <v>0.9918106131530127</v>
       </c>
       <c r="D23">
-        <v>1.038518814139866</v>
+        <v>1.013447160114242</v>
       </c>
       <c r="E23">
-        <v>1.047111982071306</v>
+        <v>1.008132485338773</v>
       </c>
       <c r="F23">
-        <v>1.053329093534535</v>
+        <v>1.007448365325812</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039414548027436</v>
+        <v>1.043419660436792</v>
       </c>
       <c r="J23">
-        <v>1.040650099954316</v>
+        <v>1.022246122839788</v>
       </c>
       <c r="K23">
-        <v>1.042150127120031</v>
+        <v>1.028450097414073</v>
       </c>
       <c r="L23">
-        <v>1.050711205194337</v>
+        <v>1.02323541952326</v>
       </c>
       <c r="M23">
-        <v>1.056905460706451</v>
+        <v>1.022564271609646</v>
       </c>
       <c r="N23">
-        <v>1.01746650652148</v>
+        <v>1.011122917371126</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035266242729837</v>
+        <v>0.9989095533933271</v>
       </c>
       <c r="D24">
-        <v>1.039540326976252</v>
+        <v>1.018754639174895</v>
       </c>
       <c r="E24">
-        <v>1.048469689822286</v>
+        <v>1.014846768271792</v>
       </c>
       <c r="F24">
-        <v>1.054893695525343</v>
+        <v>1.015069929231048</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039785710655633</v>
+        <v>1.045961727966031</v>
       </c>
       <c r="J24">
-        <v>1.041460733441113</v>
+        <v>1.026449643876743</v>
       </c>
       <c r="K24">
-        <v>1.042898080175495</v>
+        <v>1.032460217136412</v>
       </c>
       <c r="L24">
-        <v>1.051796805366687</v>
+        <v>1.028618079769606</v>
       </c>
       <c r="M24">
-        <v>1.058199121998211</v>
+        <v>1.028837469401513</v>
       </c>
       <c r="N24">
-        <v>1.017738249756873</v>
+        <v>1.012539384734824</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03681342044104</v>
+        <v>1.006823152017213</v>
       </c>
       <c r="D25">
-        <v>1.040726585069395</v>
+        <v>1.024684966891592</v>
       </c>
       <c r="E25">
-        <v>1.050048840458469</v>
+        <v>1.022358689171152</v>
       </c>
       <c r="F25">
-        <v>1.05671439673117</v>
+        <v>1.023598543129826</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040210792082287</v>
+        <v>1.048749949462526</v>
       </c>
       <c r="J25">
-        <v>1.042400131157017</v>
+        <v>1.03112305172531</v>
       </c>
       <c r="K25">
-        <v>1.04376371156482</v>
+        <v>1.03691179565765</v>
       </c>
       <c r="L25">
-        <v>1.053057252853841</v>
+        <v>1.034619554315414</v>
       </c>
       <c r="M25">
-        <v>1.05970261675221</v>
+        <v>1.03584124321242</v>
       </c>
       <c r="N25">
-        <v>1.018052959389083</v>
+        <v>1.014114032462269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01289708677887</v>
+        <v>1.012574845273582</v>
       </c>
       <c r="D2">
-        <v>1.029245496813836</v>
+        <v>1.028464246312824</v>
       </c>
       <c r="E2">
-        <v>1.028144904582791</v>
+        <v>1.029293929598681</v>
       </c>
       <c r="F2">
-        <v>1.030170091712285</v>
+        <v>1.034408043699578</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050851949661202</v>
+        <v>1.046846712687655</v>
       </c>
       <c r="J2">
-        <v>1.034698774010808</v>
+        <v>1.034385841530203</v>
       </c>
       <c r="K2">
-        <v>1.040311893336696</v>
+        <v>1.039540775828784</v>
       </c>
       <c r="L2">
-        <v>1.039225581582812</v>
+        <v>1.040359698571299</v>
       </c>
       <c r="M2">
-        <v>1.04122452088063</v>
+        <v>1.04540796175272</v>
       </c>
       <c r="N2">
-        <v>1.015318562242039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015248115871646</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.0445097354351</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039029030237853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017179952905723</v>
+        <v>1.015944708620959</v>
       </c>
       <c r="D3">
-        <v>1.032465314208731</v>
+        <v>1.030639783639167</v>
       </c>
       <c r="E3">
-        <v>1.032236299157698</v>
+        <v>1.032170979636547</v>
       </c>
       <c r="F3">
-        <v>1.034818479378753</v>
+        <v>1.037212795419745</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052311344421141</v>
+        <v>1.04755287584206</v>
       </c>
       <c r="J3">
-        <v>1.037212984977019</v>
+        <v>1.036009944943905</v>
       </c>
       <c r="K3">
-        <v>1.042698986412747</v>
+        <v>1.04089507616535</v>
       </c>
       <c r="L3">
-        <v>1.042472678461549</v>
+        <v>1.04240813133034</v>
       </c>
       <c r="M3">
-        <v>1.045024421629479</v>
+        <v>1.047390682552567</v>
       </c>
       <c r="N3">
-        <v>1.016165286277987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015802767938567</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046078915664603</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039983972653339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01989556265401</v>
+        <v>1.018089840037357</v>
       </c>
       <c r="D4">
-        <v>1.034508459829723</v>
+        <v>1.032028492927938</v>
       </c>
       <c r="E4">
-        <v>1.034835632166851</v>
+        <v>1.034007978417134</v>
       </c>
       <c r="F4">
-        <v>1.037772590211818</v>
+        <v>1.03900564866675</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053225907181917</v>
+        <v>1.04799487516612</v>
       </c>
       <c r="J4">
-        <v>1.038803675789535</v>
+        <v>1.037041858493393</v>
       </c>
       <c r="K4">
-        <v>1.044207500815009</v>
+        <v>1.041755139159955</v>
       </c>
       <c r="L4">
-        <v>1.044531043449102</v>
+        <v>1.043712577290972</v>
       </c>
       <c r="M4">
-        <v>1.047435544347286</v>
+        <v>1.048655043114488</v>
       </c>
       <c r="N4">
-        <v>1.016700867178876</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016155105339859</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047079563929725</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040593004398843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021024324972047</v>
+        <v>1.018986044096066</v>
       </c>
       <c r="D5">
-        <v>1.035358041011659</v>
+        <v>1.032611697020396</v>
       </c>
       <c r="E5">
-        <v>1.035917272941898</v>
+        <v>1.034776896172723</v>
       </c>
       <c r="F5">
-        <v>1.039002098897071</v>
+        <v>1.039756101937162</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053603426832533</v>
+        <v>1.048179105634318</v>
       </c>
       <c r="J5">
-        <v>1.039463995459277</v>
+        <v>1.037473800240374</v>
       </c>
       <c r="K5">
-        <v>1.044833276864483</v>
+        <v>1.042116691988323</v>
       </c>
       <c r="L5">
-        <v>1.045386472719023</v>
+        <v>1.044258413095362</v>
       </c>
       <c r="M5">
-        <v>1.048438145634717</v>
+        <v>1.049184081946022</v>
       </c>
       <c r="N5">
-        <v>1.016923161778356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016302827230755</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047498258798607</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040855814112695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021213106592987</v>
+        <v>1.019139259142844</v>
       </c>
       <c r="D6">
-        <v>1.035500148859051</v>
+        <v>1.032714038872674</v>
       </c>
       <c r="E6">
-        <v>1.036098244171326</v>
+        <v>1.034908585007008</v>
       </c>
       <c r="F6">
-        <v>1.039207824616616</v>
+        <v>1.039884086027041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053666410341781</v>
+        <v>1.048212200440363</v>
       </c>
       <c r="J6">
-        <v>1.039574380187552</v>
+        <v>1.037549207232799</v>
       </c>
       <c r="K6">
-        <v>1.044937861334972</v>
+        <v>1.042181803653708</v>
       </c>
       <c r="L6">
-        <v>1.045529531128279</v>
+        <v>1.044352661786627</v>
       </c>
       <c r="M6">
-        <v>1.048605850348636</v>
+        <v>1.049274910454408</v>
       </c>
       <c r="N6">
-        <v>1.016960320420929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016328930171722</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047570142780501</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040910587615999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019910695257237</v>
+        <v>1.018110496089902</v>
       </c>
       <c r="D7">
-        <v>1.034519848369502</v>
+        <v>1.032048847690503</v>
       </c>
       <c r="E7">
-        <v>1.03485012828964</v>
+        <v>1.0340261185972</v>
       </c>
       <c r="F7">
-        <v>1.037789067097458</v>
+        <v>1.039021818764875</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053230978765594</v>
+        <v>1.048003708773002</v>
       </c>
       <c r="J7">
-        <v>1.03881253171953</v>
+        <v>1.037056085568058</v>
       </c>
       <c r="K7">
-        <v>1.044215895177824</v>
+        <v>1.04177238973705</v>
       </c>
       <c r="L7">
-        <v>1.044542512251818</v>
+        <v>1.043727646297957</v>
       </c>
       <c r="M7">
-        <v>1.047448984026989</v>
+        <v>1.048668184413834</v>
       </c>
       <c r="N7">
-        <v>1.016703848635667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016160829604152</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047089964293175</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040625290717526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014356312170299</v>
+        <v>1.013731980806754</v>
       </c>
       <c r="D8">
-        <v>1.030342169967822</v>
+        <v>1.029218999569298</v>
       </c>
       <c r="E8">
-        <v>1.029537805041337</v>
+        <v>1.030281226842784</v>
       </c>
       <c r="F8">
-        <v>1.031752439227543</v>
+        <v>1.035368212283304</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051351422282697</v>
+        <v>1.047096389548047</v>
       </c>
       <c r="J8">
-        <v>1.035556109170419</v>
+        <v>1.034949210251018</v>
       </c>
       <c r="K8">
-        <v>1.041126243018578</v>
+        <v>1.040017208287489</v>
       </c>
       <c r="L8">
-        <v>1.040331997520852</v>
+        <v>1.041066065907281</v>
       </c>
       <c r="M8">
-        <v>1.042518817664245</v>
+        <v>1.046089498025169</v>
       </c>
       <c r="N8">
-        <v>1.01560731564245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015441652546824</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045049122521498</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039388794157165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004120759963479</v>
+        <v>1.005721064674081</v>
       </c>
       <c r="D9">
-        <v>1.022658300171226</v>
+        <v>1.024062362015355</v>
       </c>
       <c r="E9">
-        <v>1.019790143533312</v>
+        <v>1.023474053839612</v>
       </c>
       <c r="F9">
-        <v>1.020682071739625</v>
+        <v>1.028745344707089</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04780370841114</v>
+        <v>1.045370933505138</v>
       </c>
       <c r="J9">
-        <v>1.029528838068335</v>
+        <v>1.031073402425894</v>
       </c>
       <c r="K9">
-        <v>1.035394155704309</v>
+        <v>1.036776745056744</v>
       </c>
       <c r="L9">
-        <v>1.032570096755631</v>
+        <v>1.036197424804304</v>
       </c>
       <c r="M9">
-        <v>1.033448277741212</v>
+        <v>1.041388650027587</v>
       </c>
       <c r="N9">
-        <v>1.01357691435377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014116695564233</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041328730314561</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037094405090821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9969638960330643</v>
+        <v>1.000247323979154</v>
       </c>
       <c r="D10">
-        <v>1.01729876414434</v>
+        <v>1.020571941597837</v>
       </c>
       <c r="E10">
-        <v>1.013004304902736</v>
+        <v>1.018900732339451</v>
       </c>
       <c r="F10">
-        <v>1.012978414686432</v>
+        <v>1.024355507179479</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045268578521014</v>
+        <v>1.044174066747759</v>
       </c>
       <c r="J10">
-        <v>1.025298492970352</v>
+        <v>1.028451132631429</v>
       </c>
       <c r="K10">
-        <v>1.031362553890573</v>
+        <v>1.034579438533358</v>
       </c>
       <c r="L10">
-        <v>1.027142666234916</v>
+        <v>1.032936912668583</v>
       </c>
       <c r="M10">
-        <v>1.027117228075214</v>
+        <v>1.038298512176627</v>
       </c>
       <c r="N10">
-        <v>1.01215148529843</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013224631883779</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038934501977346</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035557581505103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9937781535726808</v>
+        <v>0.9983963848792485</v>
       </c>
       <c r="D11">
-        <v>1.014916938149999</v>
+        <v>1.019466751539337</v>
       </c>
       <c r="E11">
-        <v>1.009991183634907</v>
+        <v>1.017732549120438</v>
       </c>
       <c r="F11">
-        <v>1.00955815491931</v>
+        <v>1.023631342848049</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044127735215886</v>
+        <v>1.043912274654044</v>
       </c>
       <c r="J11">
-        <v>1.02341207903508</v>
+        <v>1.027836028620338</v>
       </c>
       <c r="K11">
-        <v>1.029562921002839</v>
+        <v>1.034030659639138</v>
       </c>
       <c r="L11">
-        <v>1.024727108891229</v>
+        <v>1.032327628264022</v>
       </c>
       <c r="M11">
-        <v>1.024302041797448</v>
+        <v>1.038120955101267</v>
       </c>
       <c r="N11">
-        <v>1.011515815077676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013053272529267</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039229815512254</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035202407656419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9925810807946441</v>
+        <v>0.9979159563955465</v>
       </c>
       <c r="D12">
-        <v>1.014022592954861</v>
+        <v>1.019209829907721</v>
       </c>
       <c r="E12">
-        <v>1.008860130733245</v>
+        <v>1.017607602965065</v>
       </c>
       <c r="F12">
-        <v>1.008274304795117</v>
+        <v>1.023800541122827</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043697241568012</v>
+        <v>1.043914682969644</v>
       </c>
       <c r="J12">
-        <v>1.022702775546013</v>
+        <v>1.027808779326403</v>
       </c>
       <c r="K12">
-        <v>1.028885984518837</v>
+        <v>1.033978027262181</v>
       </c>
       <c r="L12">
-        <v>1.023819530706402</v>
+        <v>1.032405068898359</v>
       </c>
       <c r="M12">
-        <v>1.023244680713888</v>
+        <v>1.03848553727989</v>
       </c>
       <c r="N12">
-        <v>1.011276797689126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013074294184096</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039844224499318</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03516519488842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9928384909451992</v>
+        <v>0.9984674142558746</v>
       </c>
       <c r="D13">
-        <v>1.014214876281255</v>
+        <v>1.019601313685691</v>
       </c>
       <c r="E13">
-        <v>1.009103291641076</v>
+        <v>1.018287876913395</v>
       </c>
       <c r="F13">
-        <v>1.008550313995002</v>
+        <v>1.024688132524531</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04378989293217</v>
+        <v>1.04413128995864</v>
       </c>
       <c r="J13">
-        <v>1.022855319606454</v>
+        <v>1.028243918911654</v>
       </c>
       <c r="K13">
-        <v>1.029031579340568</v>
+        <v>1.034319571042523</v>
       </c>
       <c r="L13">
-        <v>1.024014685289572</v>
+        <v>1.033030014461573</v>
       </c>
       <c r="M13">
-        <v>1.023472026479573</v>
+        <v>1.039314654466677</v>
       </c>
       <c r="N13">
-        <v>1.011328201186644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013249930118556</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040776118486348</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03540418578933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9936794878571265</v>
+        <v>0.9993197520093245</v>
       </c>
       <c r="D14">
-        <v>1.014843210418389</v>
+        <v>1.020169667920049</v>
       </c>
       <c r="E14">
-        <v>1.009897935744494</v>
+        <v>1.019125657656326</v>
       </c>
       <c r="F14">
-        <v>1.009452309398797</v>
+        <v>1.025631384793695</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044092289383173</v>
+        <v>1.044379604995783</v>
       </c>
       <c r="J14">
-        <v>1.023353625714847</v>
+        <v>1.028756552047635</v>
       </c>
       <c r="K14">
-        <v>1.02950714029869</v>
+        <v>1.034737464575841</v>
       </c>
       <c r="L14">
-        <v>1.024652301991052</v>
+        <v>1.033712193984448</v>
       </c>
       <c r="M14">
-        <v>1.024214881718882</v>
+        <v>1.040101951774489</v>
       </c>
       <c r="N14">
-        <v>1.011496117787154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01344252902998</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04157155715487</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035701073784626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9941958102596514</v>
+        <v>0.999757499541066</v>
       </c>
       <c r="D15">
-        <v>1.015229057996266</v>
+        <v>1.020455590075902</v>
       </c>
       <c r="E15">
-        <v>1.010385953732464</v>
+        <v>1.019516206602775</v>
       </c>
       <c r="F15">
-        <v>1.01000625894734</v>
+        <v>1.026036056241432</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044277705590454</v>
+        <v>1.04449059320522</v>
       </c>
       <c r="J15">
-        <v>1.023659495983339</v>
+        <v>1.028989220321089</v>
       </c>
       <c r="K15">
-        <v>1.029799014852749</v>
+        <v>1.034931941780106</v>
       </c>
       <c r="L15">
-        <v>1.025043773971856</v>
+        <v>1.034009290453755</v>
       </c>
       <c r="M15">
-        <v>1.024671013965698</v>
+        <v>1.040413828015416</v>
       </c>
       <c r="N15">
-        <v>1.011599188299496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013525840893875</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041855551485932</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035844442702838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9971734355992039</v>
+        <v>1.001961639203544</v>
       </c>
       <c r="D16">
-        <v>1.017455512998365</v>
+        <v>1.02185306177411</v>
       </c>
       <c r="E16">
-        <v>1.013202648870313</v>
+        <v>1.021322429999584</v>
       </c>
       <c r="F16">
-        <v>1.013203565328067</v>
+        <v>1.027753948485278</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045343362679322</v>
+        <v>1.044966128356925</v>
       </c>
       <c r="J16">
-        <v>1.025422503569275</v>
+        <v>1.030021106821044</v>
       </c>
       <c r="K16">
-        <v>1.031480822369726</v>
+        <v>1.035803099386338</v>
       </c>
       <c r="L16">
-        <v>1.02730155803774</v>
+        <v>1.03528150589165</v>
       </c>
       <c r="M16">
-        <v>1.027302458549172</v>
+        <v>1.04160428681042</v>
       </c>
       <c r="N16">
-        <v>1.012193273081523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013871811961758</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042757827629708</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036463547675768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9990175038630191</v>
+        <v>1.003209226389987</v>
       </c>
       <c r="D17">
-        <v>1.018835441207259</v>
+        <v>1.022630560703995</v>
       </c>
       <c r="E17">
-        <v>1.014949043463425</v>
+        <v>1.022271507329548</v>
       </c>
       <c r="F17">
-        <v>1.015186031951077</v>
+        <v>1.028574255302972</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04600010261669</v>
+        <v>1.045199582630522</v>
       </c>
       <c r="J17">
-        <v>1.026513490375768</v>
+        <v>1.030544634936071</v>
       </c>
       <c r="K17">
-        <v>1.032521084662216</v>
+        <v>1.036253097569588</v>
       </c>
       <c r="L17">
-        <v>1.028699942244864</v>
+        <v>1.035899988828569</v>
       </c>
       <c r="M17">
-        <v>1.02893293307909</v>
+        <v>1.042099160790778</v>
       </c>
       <c r="N17">
-        <v>1.012560898630044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014036378522434</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043020155084108</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03678430075868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000084795757007</v>
+        <v>1.003733774301343</v>
       </c>
       <c r="D18">
-        <v>1.019634465361153</v>
+        <v>1.022928017830767</v>
       </c>
       <c r="E18">
-        <v>1.015960511004145</v>
+        <v>1.022533256385166</v>
       </c>
       <c r="F18">
-        <v>1.016334266450467</v>
+        <v>1.028636748793221</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046379026096001</v>
+        <v>1.045235884855482</v>
       </c>
       <c r="J18">
-        <v>1.027144599993156</v>
+        <v>1.030656462482225</v>
       </c>
       <c r="K18">
-        <v>1.033122675670755</v>
+        <v>1.036362381718168</v>
       </c>
       <c r="L18">
-        <v>1.029509317216144</v>
+        <v>1.035974050734586</v>
       </c>
       <c r="M18">
-        <v>1.029876882408756</v>
+        <v>1.041978828123585</v>
       </c>
       <c r="N18">
-        <v>1.012773557413161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014051118148694</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042687740881581</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036849940488794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000447323924167</v>
+        <v>1.003615621036156</v>
       </c>
       <c r="D19">
-        <v>1.01990593032214</v>
+        <v>1.022809979831479</v>
       </c>
       <c r="E19">
-        <v>1.016304196068631</v>
+        <v>1.02217685676702</v>
       </c>
       <c r="F19">
-        <v>1.016724430945267</v>
+        <v>1.028009407929409</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046507534180631</v>
+        <v>1.045105779172993</v>
       </c>
       <c r="J19">
-        <v>1.027358914072184</v>
+        <v>1.030408894172705</v>
       </c>
       <c r="K19">
-        <v>1.03332693552728</v>
+        <v>1.036183769121075</v>
       </c>
       <c r="L19">
-        <v>1.029784242807718</v>
+        <v>1.035560910411927</v>
       </c>
       <c r="M19">
-        <v>1.030197561245875</v>
+        <v>1.041299515922629</v>
       </c>
       <c r="N19">
-        <v>1.012845771956816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013938233623307</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041825649197057</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036730046980246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9988205185389545</v>
+        <v>1.001688161636939</v>
       </c>
       <c r="D20">
-        <v>1.018687997717287</v>
+        <v>1.021506295547386</v>
       </c>
       <c r="E20">
-        <v>1.014762418236221</v>
+        <v>1.020105749617833</v>
       </c>
       <c r="F20">
-        <v>1.014974175364699</v>
+        <v>1.025510393260264</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045930070839768</v>
+        <v>1.044503782207408</v>
       </c>
       <c r="J20">
-        <v>1.026396983055082</v>
+        <v>1.029154162232603</v>
       </c>
       <c r="K20">
-        <v>1.032410012386414</v>
+        <v>1.035181237878045</v>
       </c>
       <c r="L20">
-        <v>1.028550561816947</v>
+        <v>1.033804042536797</v>
       </c>
       <c r="M20">
-        <v>1.028758734917315</v>
+        <v>1.039119029945899</v>
       </c>
       <c r="N20">
-        <v>1.012521639974995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013466558097134</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039573311710415</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036025138053186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9934322206344537</v>
+        <v>0.9974777883307749</v>
       </c>
       <c r="D21">
-        <v>1.014658451226913</v>
+        <v>1.018814366479143</v>
       </c>
       <c r="E21">
-        <v>1.009664264931416</v>
+        <v>1.016527853479721</v>
       </c>
       <c r="F21">
-        <v>1.009187070490655</v>
+        <v>1.022002763928195</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044003429191151</v>
+        <v>1.04354048032834</v>
       </c>
       <c r="J21">
-        <v>1.02320712784592</v>
+        <v>1.027081341992945</v>
       </c>
       <c r="K21">
-        <v>1.029367336446755</v>
+        <v>1.033447851655719</v>
       </c>
       <c r="L21">
-        <v>1.024464829185127</v>
+        <v>1.031202723219075</v>
       </c>
       <c r="M21">
-        <v>1.023996456591235</v>
+        <v>1.036578942468918</v>
       </c>
       <c r="N21">
-        <v>1.011446751702238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01275426420836</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037522163565865</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034802793052719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9899644648346859</v>
+        <v>0.9948079519392172</v>
       </c>
       <c r="D22">
-        <v>1.012068961424725</v>
+        <v>1.017110123056046</v>
       </c>
       <c r="E22">
-        <v>1.006389988473052</v>
+        <v>1.014288819543267</v>
       </c>
       <c r="F22">
-        <v>1.005470492357162</v>
+        <v>1.019836162942501</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042752974543749</v>
+        <v>1.042926701175338</v>
       </c>
       <c r="J22">
-        <v>1.021151535561215</v>
+        <v>1.025777732827504</v>
       </c>
       <c r="K22">
-        <v>1.027405062289934</v>
+        <v>1.032350078335272</v>
       </c>
       <c r="L22">
-        <v>1.021835912459957</v>
+        <v>1.029582428952363</v>
       </c>
       <c r="M22">
-        <v>1.020934351151857</v>
+        <v>1.035024644111872</v>
       </c>
       <c r="N22">
-        <v>1.010754070975494</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012307290315979</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036292034456475</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034013111817273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9918106131530127</v>
+        <v>0.9962197880140298</v>
       </c>
       <c r="D23">
-        <v>1.013447160114242</v>
+        <v>1.018004736519043</v>
       </c>
       <c r="E23">
-        <v>1.008132485338773</v>
+        <v>1.015471634580943</v>
       </c>
       <c r="F23">
-        <v>1.007448365325812</v>
+        <v>1.020981842033665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043419660436792</v>
+        <v>1.043247994337213</v>
       </c>
       <c r="J23">
-        <v>1.022246122839788</v>
+        <v>1.026463389994637</v>
       </c>
       <c r="K23">
-        <v>1.028450097414073</v>
+        <v>1.032923005835345</v>
       </c>
       <c r="L23">
-        <v>1.02323541952326</v>
+        <v>1.030436840002886</v>
       </c>
       <c r="M23">
-        <v>1.022564271609646</v>
+        <v>1.035845335969939</v>
       </c>
       <c r="N23">
-        <v>1.011122917371126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012541434839239</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036941560560536</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03440856054257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9989095533933271</v>
+        <v>1.001690449695071</v>
       </c>
       <c r="D24">
-        <v>1.018754639174895</v>
+        <v>1.02149218428181</v>
       </c>
       <c r="E24">
-        <v>1.014846768271792</v>
+        <v>1.020070719965739</v>
       </c>
       <c r="F24">
-        <v>1.015069929231048</v>
+        <v>1.025439241432861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045961727966031</v>
+        <v>1.0444841381156</v>
       </c>
       <c r="J24">
-        <v>1.026449643876743</v>
+        <v>1.029123582070493</v>
       </c>
       <c r="K24">
-        <v>1.032460217136412</v>
+        <v>1.035152100318904</v>
       </c>
       <c r="L24">
-        <v>1.028618079769606</v>
+        <v>1.033754306447475</v>
       </c>
       <c r="M24">
-        <v>1.028837469401513</v>
+        <v>1.039033873099938</v>
       </c>
       <c r="N24">
-        <v>1.012539384734824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01345137625135</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039465081991577</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035977136947385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006823152017213</v>
+        <v>1.00784081547967</v>
       </c>
       <c r="D25">
-        <v>1.024684966891592</v>
+        <v>1.025433568856141</v>
       </c>
       <c r="E25">
-        <v>1.022358689171152</v>
+        <v>1.025270580032454</v>
       </c>
       <c r="F25">
-        <v>1.023598543129826</v>
+        <v>1.030488965441247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048749949462526</v>
+        <v>1.045841176208885</v>
       </c>
       <c r="J25">
-        <v>1.03112305172531</v>
+        <v>1.032107155810226</v>
       </c>
       <c r="K25">
-        <v>1.03691179565765</v>
+        <v>1.03764948628994</v>
       </c>
       <c r="L25">
-        <v>1.034619554315414</v>
+        <v>1.037488871407049</v>
       </c>
       <c r="M25">
-        <v>1.03584124321242</v>
+        <v>1.042631723056328</v>
       </c>
       <c r="N25">
-        <v>1.014114032462269</v>
+        <v>1.014471639556601</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042312537473197</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037740055672794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012574845273582</v>
+        <v>1.012146562410181</v>
       </c>
       <c r="D2">
-        <v>1.028464246312824</v>
+        <v>1.027533116579104</v>
       </c>
       <c r="E2">
-        <v>1.029293929598681</v>
+        <v>1.028906072117247</v>
       </c>
       <c r="F2">
-        <v>1.034408043699578</v>
+        <v>1.034104995470078</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046846712687655</v>
+        <v>1.046464005786579</v>
       </c>
       <c r="J2">
-        <v>1.034385841530203</v>
+        <v>1.033969943624902</v>
       </c>
       <c r="K2">
-        <v>1.039540775828784</v>
+        <v>1.03862174825541</v>
       </c>
       <c r="L2">
-        <v>1.040359698571299</v>
+        <v>1.039976868687854</v>
       </c>
       <c r="M2">
-        <v>1.04540796175272</v>
+        <v>1.045108792974466</v>
       </c>
       <c r="N2">
-        <v>1.015248115871646</v>
+        <v>1.01612137923713</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.0445097354351</v>
+        <v>1.044272964675039</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039029030237853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038387968309109</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022320773672188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015944708620959</v>
+        <v>1.015409914419293</v>
       </c>
       <c r="D3">
-        <v>1.030639783639167</v>
+        <v>1.029562839535598</v>
       </c>
       <c r="E3">
-        <v>1.032170979636547</v>
+        <v>1.031686244041744</v>
       </c>
       <c r="F3">
-        <v>1.037212795419745</v>
+        <v>1.036834274534345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04755287584206</v>
+        <v>1.047098388480015</v>
       </c>
       <c r="J3">
-        <v>1.036009944943905</v>
+        <v>1.035489126395085</v>
       </c>
       <c r="K3">
-        <v>1.04089507616535</v>
+        <v>1.039830931210435</v>
       </c>
       <c r="L3">
-        <v>1.04240813133034</v>
+        <v>1.041929131420332</v>
       </c>
       <c r="M3">
-        <v>1.047390682552567</v>
+        <v>1.047016586273672</v>
       </c>
       <c r="N3">
-        <v>1.015802767938567</v>
+        <v>1.016533330128466</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046078915664603</v>
+        <v>1.045782845751146</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039983972653339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039240025312547</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02254721967838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018089840037357</v>
+        <v>1.017487933646186</v>
       </c>
       <c r="D4">
-        <v>1.032028492927938</v>
+        <v>1.030859171011522</v>
       </c>
       <c r="E4">
-        <v>1.034007978417134</v>
+        <v>1.033462124372343</v>
       </c>
       <c r="F4">
-        <v>1.03900564866675</v>
+        <v>1.038579559110649</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04799487516612</v>
+        <v>1.047494893233097</v>
       </c>
       <c r="J4">
-        <v>1.037041858493393</v>
+        <v>1.036454633770131</v>
       </c>
       <c r="K4">
-        <v>1.041755139159955</v>
+        <v>1.040598890032002</v>
       </c>
       <c r="L4">
-        <v>1.043712577290972</v>
+        <v>1.043172792551501</v>
       </c>
       <c r="M4">
-        <v>1.048655043114488</v>
+        <v>1.048233634704041</v>
       </c>
       <c r="N4">
-        <v>1.016155105339859</v>
+        <v>1.0167951331555</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047079563929725</v>
+        <v>1.046746050360354</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040593004398843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039784014691789</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02268870430298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018986044096066</v>
+        <v>1.018356246473705</v>
       </c>
       <c r="D5">
-        <v>1.032611697020396</v>
+        <v>1.031403921446354</v>
       </c>
       <c r="E5">
-        <v>1.034776896172723</v>
+        <v>1.034205625774519</v>
       </c>
       <c r="F5">
-        <v>1.039756101937162</v>
+        <v>1.039310240883005</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048179105634318</v>
+        <v>1.047660167468169</v>
       </c>
       <c r="J5">
-        <v>1.037473800240374</v>
+        <v>1.03685891254635</v>
       </c>
       <c r="K5">
-        <v>1.042116691988323</v>
+        <v>1.040922065330493</v>
       </c>
       <c r="L5">
-        <v>1.044258413095362</v>
+        <v>1.043693325481208</v>
       </c>
       <c r="M5">
-        <v>1.049184081946022</v>
+        <v>1.048742989220224</v>
       </c>
       <c r="N5">
-        <v>1.016302827230755</v>
+        <v>1.01690495606843</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047498258798607</v>
+        <v>1.047149166744709</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040855814112695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040020399756938</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02274813614762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019139259142844</v>
+        <v>1.018504688904555</v>
       </c>
       <c r="D6">
-        <v>1.032714038872674</v>
+        <v>1.031499739671541</v>
       </c>
       <c r="E6">
-        <v>1.034908585007008</v>
+        <v>1.034332965004407</v>
       </c>
       <c r="F6">
-        <v>1.039884086027041</v>
+        <v>1.039434841733271</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048212200440363</v>
+        <v>1.047690028608767</v>
       </c>
       <c r="J6">
-        <v>1.037549207232799</v>
+        <v>1.036929583829855</v>
       </c>
       <c r="K6">
-        <v>1.042181803653708</v>
+        <v>1.040980664772834</v>
       </c>
       <c r="L6">
-        <v>1.044352661786627</v>
+        <v>1.043783243123148</v>
       </c>
       <c r="M6">
-        <v>1.049274910454408</v>
+        <v>1.048830448749113</v>
       </c>
       <c r="N6">
-        <v>1.016328930171722</v>
+        <v>1.016924401692597</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047570142780501</v>
+        <v>1.04721838446373</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040910587615999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040071437536652</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022759437316125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018110496089902</v>
+        <v>1.01751465706408</v>
       </c>
       <c r="D7">
-        <v>1.032048847690503</v>
+        <v>1.030883629528888</v>
       </c>
       <c r="E7">
-        <v>1.0340261185972</v>
+        <v>1.033485765191611</v>
       </c>
       <c r="F7">
-        <v>1.039021818764875</v>
+        <v>1.038600023870782</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048003708773002</v>
+        <v>1.047506545915088</v>
       </c>
       <c r="J7">
-        <v>1.037056085568058</v>
+        <v>1.036474774011732</v>
       </c>
       <c r="K7">
-        <v>1.04177238973705</v>
+        <v>1.040620193446401</v>
       </c>
       <c r="L7">
-        <v>1.043727646297957</v>
+        <v>1.043193298736622</v>
       </c>
       <c r="M7">
-        <v>1.048668184413834</v>
+        <v>1.048251021740777</v>
       </c>
       <c r="N7">
-        <v>1.016160829604152</v>
+        <v>1.016827074368736</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047089964293175</v>
+        <v>1.046759810916137</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040625290717526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039821165741589</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022694706447129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013731980806754</v>
+        <v>1.013287723655454</v>
       </c>
       <c r="D8">
-        <v>1.029218999569298</v>
+        <v>1.028252913609845</v>
       </c>
       <c r="E8">
-        <v>1.030281226842784</v>
+        <v>1.029878781838707</v>
       </c>
       <c r="F8">
-        <v>1.035368212283304</v>
+        <v>1.035053829248405</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047096389548047</v>
+        <v>1.046699035427106</v>
       </c>
       <c r="J8">
-        <v>1.034949210251018</v>
+        <v>1.034517375415412</v>
       </c>
       <c r="K8">
-        <v>1.040017208287489</v>
+        <v>1.039063311837026</v>
       </c>
       <c r="L8">
-        <v>1.041066065907281</v>
+        <v>1.04066868220294</v>
       </c>
       <c r="M8">
-        <v>1.046089498025169</v>
+        <v>1.04577902011753</v>
       </c>
       <c r="N8">
-        <v>1.015441652546824</v>
+        <v>1.016349138989078</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045049122521498</v>
+        <v>1.044803401571372</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039388794157165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038725344629897</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022407557114289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005721064674081</v>
+        <v>1.005537518474594</v>
       </c>
       <c r="D9">
-        <v>1.024062362015355</v>
+        <v>1.023447825631161</v>
       </c>
       <c r="E9">
-        <v>1.023474053839612</v>
+        <v>1.023308148585666</v>
       </c>
       <c r="F9">
-        <v>1.028745344707089</v>
+        <v>1.028615559229932</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045370933505138</v>
+        <v>1.045146963098973</v>
       </c>
       <c r="J9">
-        <v>1.031073402425894</v>
+        <v>1.030896236754504</v>
       </c>
       <c r="K9">
-        <v>1.036776745056744</v>
+        <v>1.036171597606208</v>
       </c>
       <c r="L9">
-        <v>1.036197424804304</v>
+        <v>1.03603405656343</v>
       </c>
       <c r="M9">
-        <v>1.041388650027587</v>
+        <v>1.041260823312337</v>
       </c>
       <c r="N9">
-        <v>1.014116695564233</v>
+        <v>1.015375934925898</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041328730314561</v>
+        <v>1.041227564149034</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037094405090821</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036677261826985</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021851594988235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000247323979154</v>
+        <v>1.000274559932792</v>
       </c>
       <c r="D10">
-        <v>1.020571941597837</v>
+        <v>1.020220102193098</v>
       </c>
       <c r="E10">
-        <v>1.018900732339451</v>
+        <v>1.018925307326559</v>
       </c>
       <c r="F10">
-        <v>1.024355507179479</v>
+        <v>1.024374748565055</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044174066747759</v>
+        <v>1.044083045803627</v>
       </c>
       <c r="J10">
-        <v>1.028451132631429</v>
+        <v>1.028477288782284</v>
       </c>
       <c r="K10">
-        <v>1.034579438533358</v>
+        <v>1.034233627746155</v>
       </c>
       <c r="L10">
-        <v>1.032936912668583</v>
+        <v>1.032961064987641</v>
       </c>
       <c r="M10">
-        <v>1.038298512176627</v>
+        <v>1.038317427158997</v>
       </c>
       <c r="N10">
-        <v>1.013224631883779</v>
+        <v>1.014839776513819</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038934501977346</v>
+        <v>1.038949471017951</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035557581505103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035325482449119</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021474713315644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9983963848792485</v>
+        <v>0.998526797963856</v>
       </c>
       <c r="D11">
-        <v>1.019466751539337</v>
+        <v>1.019220187150278</v>
       </c>
       <c r="E11">
-        <v>1.017732549120438</v>
+        <v>1.017850042963415</v>
       </c>
       <c r="F11">
-        <v>1.023631342848049</v>
+        <v>1.023723280194245</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043912274654044</v>
+        <v>1.043878088285763</v>
       </c>
       <c r="J11">
-        <v>1.027836028620338</v>
+        <v>1.027960992548963</v>
       </c>
       <c r="K11">
-        <v>1.034030659639138</v>
+        <v>1.033788518664188</v>
       </c>
       <c r="L11">
-        <v>1.032327628264022</v>
+        <v>1.032443005879821</v>
       </c>
       <c r="M11">
-        <v>1.038120955101267</v>
+        <v>1.038211261143561</v>
       </c>
       <c r="N11">
-        <v>1.013053272529267</v>
+        <v>1.014956119467181</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039229815512254</v>
+        <v>1.039301246503669</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035202407656419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035046820873023</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021428004425701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9979159563955465</v>
+        <v>0.9980733899334471</v>
       </c>
       <c r="D12">
-        <v>1.019209829907721</v>
+        <v>1.018987011471389</v>
       </c>
       <c r="E12">
-        <v>1.017607602965065</v>
+        <v>1.017749323426499</v>
       </c>
       <c r="F12">
-        <v>1.023800541122827</v>
+        <v>1.023911373359747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043914682969644</v>
+        <v>1.043893306004964</v>
       </c>
       <c r="J12">
-        <v>1.027808779326403</v>
+        <v>1.027959511763919</v>
       </c>
       <c r="K12">
-        <v>1.033978027262181</v>
+        <v>1.03375927197566</v>
       </c>
       <c r="L12">
-        <v>1.032405068898359</v>
+        <v>1.032544195652922</v>
       </c>
       <c r="M12">
-        <v>1.03848553727989</v>
+        <v>1.03859437280187</v>
       </c>
       <c r="N12">
-        <v>1.013074294184096</v>
+        <v>1.015078976529856</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039844224499318</v>
+        <v>1.039930283011086</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03516519488842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035026142956496</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02145101687579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9984674142558746</v>
+        <v>0.9985851985332969</v>
       </c>
       <c r="D13">
-        <v>1.019601313685691</v>
+        <v>1.019333839579726</v>
       </c>
       <c r="E13">
-        <v>1.018287876913395</v>
+        <v>1.018393868567971</v>
       </c>
       <c r="F13">
-        <v>1.024688132524531</v>
+        <v>1.024770975319866</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04413128995864</v>
+        <v>1.044085062708634</v>
       </c>
       <c r="J13">
-        <v>1.028243918911654</v>
+        <v>1.028356715669806</v>
       </c>
       <c r="K13">
-        <v>1.034319571042523</v>
+        <v>1.034056953512977</v>
       </c>
       <c r="L13">
-        <v>1.033030014461573</v>
+        <v>1.033134076060376</v>
       </c>
       <c r="M13">
-        <v>1.039314654466677</v>
+        <v>1.039396013068954</v>
       </c>
       <c r="N13">
-        <v>1.013249930118556</v>
+        <v>1.01518318818724</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040776118486348</v>
+        <v>1.040840434305017</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03540418578933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035233875131244</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021533020666566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9993197520093245</v>
+        <v>0.9993803665595044</v>
       </c>
       <c r="D14">
-        <v>1.020169667920049</v>
+        <v>1.019840687779407</v>
       </c>
       <c r="E14">
-        <v>1.019125657656326</v>
+        <v>1.019180202302346</v>
       </c>
       <c r="F14">
-        <v>1.025631384793695</v>
+        <v>1.025673999543515</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044379604995783</v>
+        <v>1.044299453128412</v>
       </c>
       <c r="J14">
-        <v>1.028756552047635</v>
+        <v>1.02881463668166</v>
       </c>
       <c r="K14">
-        <v>1.034737464575841</v>
+        <v>1.034414384151822</v>
       </c>
       <c r="L14">
-        <v>1.033712193984448</v>
+        <v>1.033765758335288</v>
       </c>
       <c r="M14">
-        <v>1.040101951774489</v>
+        <v>1.040143813175104</v>
       </c>
       <c r="N14">
-        <v>1.01344252902998</v>
+        <v>1.015248704681353</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04157155715487</v>
+        <v>1.041604645087667</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035701073784626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035488147346679</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021617517796491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.999757499541066</v>
+        <v>0.9997902643545133</v>
       </c>
       <c r="D15">
-        <v>1.020455590075902</v>
+        <v>1.020097070743776</v>
       </c>
       <c r="E15">
-        <v>1.019516206602775</v>
+        <v>1.019545692893866</v>
       </c>
       <c r="F15">
-        <v>1.026036056241432</v>
+        <v>1.026059090514614</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04449059320522</v>
+        <v>1.044394278939336</v>
       </c>
       <c r="J15">
-        <v>1.028989220321089</v>
+        <v>1.029020629459315</v>
       </c>
       <c r="K15">
-        <v>1.034931941780106</v>
+        <v>1.034579803616647</v>
       </c>
       <c r="L15">
-        <v>1.034009290453755</v>
+        <v>1.034038250931305</v>
       </c>
       <c r="M15">
-        <v>1.040413828015416</v>
+        <v>1.040436458263499</v>
       </c>
       <c r="N15">
-        <v>1.013525840893875</v>
+        <v>1.015265666769507</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041855551485932</v>
+        <v>1.041873438333442</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035844442702838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035611540218311</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021653138393876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001961639203544</v>
+        <v>1.001868391092222</v>
       </c>
       <c r="D16">
-        <v>1.02185306177411</v>
+        <v>1.021359919358948</v>
       </c>
       <c r="E16">
-        <v>1.021322429999584</v>
+        <v>1.021238443573317</v>
       </c>
       <c r="F16">
-        <v>1.027753948485278</v>
+        <v>1.027688359702329</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044966128356925</v>
+        <v>1.044797495162397</v>
       </c>
       <c r="J16">
-        <v>1.030021106821044</v>
+        <v>1.029931526617673</v>
       </c>
       <c r="K16">
-        <v>1.035803099386338</v>
+        <v>1.035318356294535</v>
       </c>
       <c r="L16">
-        <v>1.03528150589165</v>
+        <v>1.035198951122697</v>
       </c>
       <c r="M16">
-        <v>1.04160428681042</v>
+        <v>1.041539798080643</v>
       </c>
       <c r="N16">
-        <v>1.013871811961758</v>
+        <v>1.015301815424221</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042757827629708</v>
+        <v>1.04270685456965</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036463547675768</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036137188342092</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021792490412492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003209226389987</v>
+        <v>1.003056597909324</v>
       </c>
       <c r="D17">
-        <v>1.022630560703995</v>
+        <v>1.022071559603352</v>
       </c>
       <c r="E17">
-        <v>1.022271507329548</v>
+        <v>1.022133950809544</v>
       </c>
       <c r="F17">
-        <v>1.028574255302972</v>
+        <v>1.028466833247663</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045199582630522</v>
+        <v>1.044996547506652</v>
       </c>
       <c r="J17">
-        <v>1.030544634936071</v>
+        <v>1.030397820203157</v>
       </c>
       <c r="K17">
-        <v>1.036253097569588</v>
+        <v>1.03570335384891</v>
       </c>
       <c r="L17">
-        <v>1.035899988828569</v>
+        <v>1.035764711174579</v>
       </c>
       <c r="M17">
-        <v>1.042099160790778</v>
+        <v>1.041993490387799</v>
       </c>
       <c r="N17">
-        <v>1.014036378522434</v>
+        <v>1.015324033541421</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043020155084108</v>
+        <v>1.042936622986582</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03678430075868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036412231499585</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021856066966192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003733774301343</v>
+        <v>1.003564669143166</v>
       </c>
       <c r="D18">
-        <v>1.022928017830767</v>
+        <v>1.022350254017722</v>
       </c>
       <c r="E18">
-        <v>1.022533256385166</v>
+        <v>1.022380759742568</v>
       </c>
       <c r="F18">
-        <v>1.028636748793221</v>
+        <v>1.028517624105724</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045235884855482</v>
+        <v>1.045023831467695</v>
       </c>
       <c r="J18">
-        <v>1.030656462482225</v>
+        <v>1.030493680702564</v>
       </c>
       <c r="K18">
-        <v>1.036362381718168</v>
+        <v>1.035794031546791</v>
       </c>
       <c r="L18">
-        <v>1.035974050734586</v>
+        <v>1.035824039892831</v>
       </c>
       <c r="M18">
-        <v>1.041978828123585</v>
+        <v>1.041861615723614</v>
       </c>
       <c r="N18">
-        <v>1.014051118148694</v>
+        <v>1.015292059678238</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042687740881581</v>
+        <v>1.042595065628769</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036849940488794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036463581283448</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02185288855133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003615621036156</v>
+        <v>1.003462603238461</v>
       </c>
       <c r="D19">
-        <v>1.022809979831479</v>
+        <v>1.02225142068197</v>
       </c>
       <c r="E19">
-        <v>1.02217685676702</v>
+        <v>1.022038788668199</v>
       </c>
       <c r="F19">
-        <v>1.028009407929409</v>
+        <v>1.027901487173141</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045105779172993</v>
+        <v>1.044904601605327</v>
       </c>
       <c r="J19">
-        <v>1.030408894172705</v>
+        <v>1.030261566523896</v>
       </c>
       <c r="K19">
-        <v>1.036183769121075</v>
+        <v>1.035634264629126</v>
       </c>
       <c r="L19">
-        <v>1.035560910411927</v>
+        <v>1.035425082878059</v>
       </c>
       <c r="M19">
-        <v>1.041299515922629</v>
+        <v>1.041193321047597</v>
       </c>
       <c r="N19">
-        <v>1.013938233623307</v>
+        <v>1.015196946046103</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041825649197057</v>
+        <v>1.041741657727032</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036730046980246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036357637775025</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021795078170203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001688161636939</v>
+        <v>1.001640332275266</v>
       </c>
       <c r="D20">
-        <v>1.021506295547386</v>
+        <v>1.021071304783468</v>
       </c>
       <c r="E20">
-        <v>1.020105749617833</v>
+        <v>1.020062573225216</v>
       </c>
       <c r="F20">
-        <v>1.025510393260264</v>
+        <v>1.025476595449938</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044503782207408</v>
+        <v>1.04436830174713</v>
       </c>
       <c r="J20">
-        <v>1.029154162232603</v>
+        <v>1.029108167977651</v>
       </c>
       <c r="K20">
-        <v>1.035181237878045</v>
+        <v>1.03475349065925</v>
       </c>
       <c r="L20">
-        <v>1.033804042536797</v>
+        <v>1.03376158731494</v>
       </c>
       <c r="M20">
-        <v>1.039119029945899</v>
+        <v>1.039085789020936</v>
       </c>
       <c r="N20">
-        <v>1.013466558097134</v>
+        <v>1.014913989251947</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039573311710415</v>
+        <v>1.039547005014162</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036025138053186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035739207096351</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021578868284272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9974777883307749</v>
+        <v>0.9976895572318265</v>
       </c>
       <c r="D21">
-        <v>1.018814366479143</v>
+        <v>1.018653951135193</v>
       </c>
       <c r="E21">
-        <v>1.016527853479721</v>
+        <v>1.016718784885932</v>
       </c>
       <c r="F21">
-        <v>1.022002763928195</v>
+        <v>1.02215234988159</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04354048032834</v>
+        <v>1.043555153974081</v>
       </c>
       <c r="J21">
-        <v>1.027081341992945</v>
+        <v>1.027284195728012</v>
       </c>
       <c r="K21">
-        <v>1.033447851655719</v>
+        <v>1.033290331858429</v>
       </c>
       <c r="L21">
-        <v>1.031202723219075</v>
+        <v>1.031390189612007</v>
       </c>
       <c r="M21">
-        <v>1.036578942468918</v>
+        <v>1.03672585124321</v>
       </c>
       <c r="N21">
-        <v>1.01275426420836</v>
+        <v>1.014833395604511</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037522163565865</v>
+        <v>1.03763843248425</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034802793052719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034708251367459</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021290495263196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9948079519392172</v>
+        <v>0.9951840596617282</v>
       </c>
       <c r="D22">
-        <v>1.017110123056046</v>
+        <v>1.017123464969172</v>
       </c>
       <c r="E22">
-        <v>1.014288819543267</v>
+        <v>1.014627624490917</v>
       </c>
       <c r="F22">
-        <v>1.019836162942501</v>
+        <v>1.020101730160043</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042926701175338</v>
+        <v>1.043036482066575</v>
       </c>
       <c r="J22">
-        <v>1.025777732827504</v>
+        <v>1.026137094146964</v>
       </c>
       <c r="K22">
-        <v>1.032350078335272</v>
+        <v>1.032363167443014</v>
       </c>
       <c r="L22">
-        <v>1.029582428952363</v>
+        <v>1.029914770053929</v>
       </c>
       <c r="M22">
-        <v>1.035024644111872</v>
+        <v>1.035285215997198</v>
       </c>
       <c r="N22">
-        <v>1.012307290315979</v>
+        <v>1.014779019759119</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036292034456475</v>
+        <v>1.036498260816145</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034013111817273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034037898273614</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021106449582981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9962197880140298</v>
+        <v>0.9964977351293447</v>
       </c>
       <c r="D23">
-        <v>1.018004736519043</v>
+        <v>1.017917741987677</v>
       </c>
       <c r="E23">
-        <v>1.015471634580943</v>
+        <v>1.01572213109749</v>
       </c>
       <c r="F23">
-        <v>1.020981842033665</v>
+        <v>1.021178139157044</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043247994337213</v>
+        <v>1.043301912822458</v>
       </c>
       <c r="J23">
-        <v>1.026463389994637</v>
+        <v>1.026729320774281</v>
       </c>
       <c r="K23">
-        <v>1.032923005835345</v>
+        <v>1.032837618185467</v>
       </c>
       <c r="L23">
-        <v>1.030436840002886</v>
+        <v>1.030682681438708</v>
       </c>
       <c r="M23">
-        <v>1.035845335969939</v>
+        <v>1.036038036063582</v>
       </c>
       <c r="N23">
-        <v>1.012541434839239</v>
+        <v>1.014763276282558</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036941560560536</v>
+        <v>1.037094070505964</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03440856054257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034362777290993</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021198608075545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001690449695071</v>
+        <v>1.00164362052664</v>
       </c>
       <c r="D24">
-        <v>1.02149218428181</v>
+        <v>1.021058359822706</v>
       </c>
       <c r="E24">
-        <v>1.020070719965739</v>
+        <v>1.020028442687621</v>
       </c>
       <c r="F24">
-        <v>1.025439241432861</v>
+        <v>1.025406144481043</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.0444841381156</v>
+        <v>1.044349433582566</v>
       </c>
       <c r="J24">
-        <v>1.029123582070493</v>
+        <v>1.029078547097097</v>
       </c>
       <c r="K24">
-        <v>1.035152100318904</v>
+        <v>1.034725490972301</v>
       </c>
       <c r="L24">
-        <v>1.033754306447475</v>
+        <v>1.033712734478699</v>
       </c>
       <c r="M24">
-        <v>1.039033873099938</v>
+        <v>1.039001320884242</v>
       </c>
       <c r="N24">
-        <v>1.01345137625135</v>
+        <v>1.014898476152318</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039465081991577</v>
+        <v>1.039439319057894</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035977136947385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035689338204673</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021567869820975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00784081547967</v>
+        <v>1.007579124689028</v>
       </c>
       <c r="D25">
-        <v>1.025433568856141</v>
+        <v>1.024719633901698</v>
       </c>
       <c r="E25">
-        <v>1.025270580032454</v>
+        <v>1.025033897820983</v>
       </c>
       <c r="F25">
-        <v>1.030488965441247</v>
+        <v>1.030303881460045</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045841176208885</v>
+        <v>1.045567065107302</v>
       </c>
       <c r="J25">
-        <v>1.032107155810226</v>
+        <v>1.031854085771429</v>
       </c>
       <c r="K25">
-        <v>1.03764948628994</v>
+        <v>1.036945956928238</v>
       </c>
       <c r="L25">
-        <v>1.037488871407049</v>
+        <v>1.03725563818948</v>
       </c>
       <c r="M25">
-        <v>1.042631723056328</v>
+        <v>1.042449301504073</v>
       </c>
       <c r="N25">
-        <v>1.014471639556601</v>
+        <v>1.015604185785253</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042312537473197</v>
+        <v>1.042168163393082</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037740055672794</v>
+        <v>1.037256154634227</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022004138639953</v>
       </c>
     </row>
   </sheetData>
